--- a/deuChatbot/research_result/version_2(3000_500).xlsx
+++ b/deuChatbot/research_result/version_2(3000_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13825,6 +13825,7303 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 실기종목, 배점, 준비물, 주제, 화지 크기 및 시험 시간을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 내용이 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 중요한 요소들을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8617667732864833</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 세 분야에서 이루어집니다. 각 분야는 두 가지 종목 중 하나를 선택하여 응시하게 됩니다:
+1. 기초디자인
+2. 사고의 전환
+기본적인 정보는 다음과 같습니다:
+- **모집단위**: 시각디자인 / 산업디자인 / 공예디자인
+- **실기종목**: 선택 종목 (기초디자인 또는 사고의 전환)
+- **배점 비율**: 700점 중 70% (즉, 490점)
+**기본 준비물 및 주제**:
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B 중에서 각각 하나를 선택하여 연결된 주제로 응시
+**주의사항**:
+- 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+- 제공된 사물은 모두 1회 이상 표현해야 합니다.
+- 제공된 사물의 색상은 변경하지 마세요.
+**화지 크기 및 시간**:
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+이러한 정보를 바탕으로 각 분야별로 준비하는 것이 중요합니다. 특히 주제 선택과 표현 방식에 대한 철저한 계획을 세우는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 '시험기간'이라는 표현은 원문에서 '시간'으로 언급된 부분을 다르게 표현한 것으로, 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있으며, 실기종목과 준비물, 실기주제에 대한 내용이 잘 정리되어 있습니다. 다만, '시험기간'이라는 표현이 원문과 다소 다르게 사용되어 약간의 일관성 문제를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 모든 주요 정보를 포함하고 있으며, 주제와 관련된 내용이 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 표현이 자연스럽고 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '시험기간'이라는 표현이 원문에서의 '시간'과 다르게 사용된 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, '시험기간'이라는 표현이 원문과 다르게 사용된 점에서 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8943618044952361</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **실기종목**:
+   - 기초디자인
+   - 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지크기**:
+   - 켄트지3절
+5. **시험기간**:
+   - 5시간
+이러한 준비물을 가지고 주제A와 주제B 중 각각 한 가지를 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 배드민턴과 축구의 인정대회 목록을 정확하게 나열하고 있습니다. 그러나 "various international tournaments"라는 표현은 원본 텍스트의 "각종국제대회"를 정확히 번역하지 않았고, 영어로 표현된 부분이 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 일부 대회 이름이 영어로 번역되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 한국어 대회 이름을 그대로 사용하는 것이 더 일관성 있는 표현이 될 것입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 모든 주요 포인트를 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 영어 표현이 포함되어 있어 한국어 문맥에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보를 명확하게 나열하고 있습니다. 그러나 영어 표현이 포함되어 있어 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 영어로 번역된 부분이 있어 정확성이 다소 떨어질 수 있습니다. 원본 텍스트의 내용을 한국어로 그대로 유지하는 것이 더 정확할 것입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 영어 표현이 포함되어 있어 다소 낮은 점수를 주었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 영어 표현이 포함되어 있어 의미 전달이 완벽하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 영어 표현이 포함되어 있어 일부 독자에게 혼란을 줄 수 있습니다. 한국어로만 작성되었다면 더 명확했을 것입니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.8452219661147264</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. 배드민턴(남)의 인정대회:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - various international tournaments (only those where the team is a member of the national or junior teams are recognized)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 인정대회:
+   - Chunghwa Korea High School Football Federation Spring Tournament
+   - Korea High School Football Federation Autumn Tournament
+   - KFA Cup National High School Football Championship
+   - Minister of Culture, Sports and Tourism Cup National High School Football Championship
+   - Minister of Culture, Sports and Tourism Cup National High School Football Championship
+   - Baekwon Cup National High School Football Championship
+   - Korea High School Football League (Regional High School Football League)
+   - Korea High School Football League King of the Hill Tournament
+   - Muok Cup National High School Football Championship
+   - Dragon Tiger Cup National High School Football Championship
+   - Baegrok Cup National High School Football Championship
+   - Geumgangda Cup National High School Football Championship
+   - President's Gold Cup National High School Football Championship
+   - Jinseok Cup National High School Football Championship
+   - Busan MBC National High School Football Championship
+   - K League U18 Champions League
+   - K League U18 Champions League King of the Hill Tournament
+이러한 대회들 중에서 해당 종목과 관련된 대회만 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 주제B에 대한 정보가 원본 텍스트와 일치하지 않습니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"으로 구성되어 있지만, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼, 바이러스, 자유, 여행, 계절, 꿈"으로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 주제B의 내용이 완전히 다르기 때문에, 응답의 일관성이 떨어집니다. 주제A는 일치하지만, 주제B의 불일치로 인해 전체적인 일관성이 저하되었습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주제B의 내용이 잘못되어 있어 완전한 관련성을 가지지 못합니다. 그러나 주제A와 관련된 정보는 잘 전달되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 주제B의 잘못된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전체적으로 구조가 잘 잡혀 있지만, 주제B의 불일치로 인해 논리적인 흐름이 약간 깨졌습니다. 주제A와 B의 연결이 명확하지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 주제A는 정확하지만, 주제B의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부는 잘 수행했지만, 주제B의 오류로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 주제B의 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 주제B의 잘못된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7462617022224999</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시 주제들은 다음과 같습니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망 (파프리카)
+- 고양이 
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 콜라병
+- 포카리스웨트(캔)
+- 마스크
+- 시계
+- 맥가이버 칼
+- 바이러스
+- 자유
+- 여행
+- 계절
+- 꿈
+당일에는 이 중에서 각각 1개씩 추첨하여 연결된 주제를 사용하게 됩니다. 준비물과 화지 크기는 켄트지 3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 원문과 정반대의 내용을 담고 있습니다. 원문은 출결 점수가 반영되지 않는다고 명확히 언급하고 있지만, 생성된 응답은 2024학년도부터 출결 점수가 반영된다고 주장하고 있어 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문이 출결 점수가 반영되지 않는다고 명시한 반면, 생성된 응답은 반영된다고 주장하여 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 학생부 교과 전형과 출결 점수에 대한 내용을 다루고 있어 주제와 관련성이 높습니다. 원문에서 다루고 있는 주제와 직접적으로 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 전체적인 논리적 흐름이 약간 어색합니다. 그러나 각 문장 간의 연결은 비교적 잘 이루어져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 사실적으로 상충하는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서 출결 점수가 반영되지 않는다고 명시한 반면, 생성된 응답은 반영된다고 주장하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았으며, 전반적으로 원문과의 불일치로 인해 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 의미적으로 부적절합니다. 원문이 출결 점수가 반영되지 않는다고 명시한 반면, 생성된 응답은 반영된다고 주장하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.5963407848338106</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도부터 학생부교과 전형에서 출결 점수가 반영됩니다. 이전에는 출결이 포함되지 않았으나, 변경된 요소 중 하나로 출결이 18%와 12%의 비율로 반영되게 되었습니다.
+예를 들어:
+- 실기/실적(경기실적우수자전형)에서는 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 반영됩니다.
+- 학생부종합(조기취업형계약학과전형)에서는 서류(학생부)가 60%, 면접이 40%로 되어 있었으나, 변경된 전형요소 반영비율은 서류(학생부)가 60%, 면접이 40%에서 출결도 포함하여 학생부교과가 18%, 출결이 12%, 서류(실적)가 70%로 변경되었습니다.
+따라서, 2024학년도부터는 출결 점수가 학생부교과 전형에서 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원 수에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 17명을 모집한다고 명시되어 있지만, 생성된 응답에서는 9명으로 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 모집 인원 수에 대한 정보가 상충합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 국어국문학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "전형으로는"이라는 표현이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 이해하기 쉬운 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원 수에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 정확성이 매우 낮아 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로는 적절하지만, 잘못된 사실을 포함하고 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 응답이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.8006440524860676</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련 정보도 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6189996596688691</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+관련 정보:
+- 단과대학: 인문사회과학대학
+- 계열: 인문사회
+- 모집단위: 영어영문학과 - 교직 
+- 모집인원: 28명
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "교직 - 간호교육인증의" 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, "교직 - 간호교육인증의" 부분이 문맥상 다소 불필요하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, "교직 - 간호교육인증의" 부분이 문맥에 완전히 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7407231077842874</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르지만, 중국어로 작성되어 있어 한국어 사용자에게는 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하지만, 한국어 사용자에게는 중국어로 작성되어 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.636013568363018</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语提供的英语等级对应的分数：
+- 等级1，分数139
+- 等级2，分数131
+- 等级3，分数123
+- 等级4，分数115
+- 等级5，分数107
+- 等级6，分数99
+- 等级7，分数91
+- 等级8，分数83
+- 等级9，分数75</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 있다고 잘못 언급하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예술고 학생의 지원 가능성에 대한 여러 가지 점을 고려하고 있지만, 원문에서 명확히 언급된 사실과는 관련이 적습니다. 원문이 명확한 사실을 제시하고 있는 반면, 생성된 응답은 불확실한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 점을 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 원문과의 관계가 명확하지 않아 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 예술고 학생이 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 예술고 학생의 지원 가능성에 대한 잘못된 해석이 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.6423044050220611</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교의 나군 학생부교과 농어촌학생전형에 대해, 예술고 학생이 지원 가능 여부는 명확히 언급되어 있지 않습니다. 그러나 일반적으로 다음과 같은 점들을 고려해볼 수 있습니다:
+1. **전형 특성**: 나군 학생부교과 농어촌학생전형은 주로 인문사회계열의 학과에 대해 개방되어 있으며, 예술고 졸업자도 지원이 가능합니다.
+2. **학과 선택**: 예술고 졸업자는 예술디자인체육대학의 관련 학과(예: 디자인조형학과)나 공과대학의 ICT융합공과대학에서 컴퓨터공학과, 인공지능학과 등에 지원할 수 있습니다.
+3. **서류 및 면접**: 예술고 졸업자는 일반 고등학교 졸업생과 마찬가지로 학교생활기록부와 서류를 제출해야 합니다. 면접에서도 자신의 창의성과 전공적합성을 강조할 수 있습니다.
+4. **문서 확인**: 최종적인 지원 가능 여부는 경희대학교 입학처에서 제공하는 공식 안내사항을 참고하거나, 직접 문의하여 확인하는 것이 가장 정확합니다.
+따라서 예술고 졸업자도 나군 학생부교과 농어촌학생전형에 지원이 가능할 것으로 보이나, 특정 학과에 대한 지원 가능성은 입학처에서 최종 결정합니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기록과 배점에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 4등급의 기록이 218~221 cm이고 배점이 275점이라고 명시되어 있지만, 생성된 응답에서는 기록이 272~275 cm, 배점이 300점이라고 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 정보가 잘 전달되고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 낮습니다. 그러나 관련성, 유창성, 일관성에서 어느 정도 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.9222694817011423</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 272～275 cm이며, 배점은 300점입니다.
+이 정보는 제공된 레저스포츠학과 기록별 배점표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 포함되어 있지만, 기본적인 사실은 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다. 추가적인 세부사항도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조가 복잡할 수 있습니다. 그러나 전반적으로 이해하기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 다만, 일부 문장이 다소 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.61484465397566</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서는 나군 실기/실적(경기실적우수자전형) 모집단위에서 출결의 반영 비율이 12%입니다.
+출처: 
+- 전형요소 반영비율에서 전형명은 나군 실기/실적(경기실적우수자전형)이며, 모집단위은 경기지도학과이며, 전형요소 반영비율의 출결은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 관련 정보도 제공하고 있습니다. 모든 사실이 정확하게 전달되었습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다. 모든 정보가 조화롭게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4938418500311362</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다. 
+관련 정보는 다음과 같습니다:
+- **전형명**: 나군 실기/실적(일반학생전형)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **일정**: 2024년 1월 17일(수)
+이 날짜는 실기고사 일정으로 정해져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 상반된 내용을 포함하고 있습니다. 응답은 수능 최저기준을 추정하려는 시도를 하고 있으며, 이는 원문과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문이 수능 최저기준이 없다고 명시하고 있는데, 응답은 이를 반박하며 추정 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 원문과 관련된 정보를 제공하려고 하지만, 원문이 명확히 수능 최저기준이 없다고 언급하고 있기 때문에, 응답의 내용은 원문과 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 전체적인 맥락이 흐트러질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 나열하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보는 논리적으로 연결되어 있으나, 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원문에서 제공된 사실과 완전히 상반되는 내용을 포함하고 있습니다. 원문이 수능 최저기준이 없다고 명시했음에도 불구하고, 응답은 이를 반박하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문이 수능 최저기준이 없다고 명시했음에도 불구하고, 응답은 이를 반박하는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 문법적으로는 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4062000149051996</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보는 없습니다. 그러나 다른 관련 정보를 통해 추론할 수 있습니다.
+1. **전형 유형**: 응용화학과는 일반적으로 공과대학에 속하며, 전형 유형은 대체로 수능 위주입니다.
+2. **수능 반영 영역 및 가산점**:
+   - 국어(25%)
+   - 수학(25%)
+   - 영어(25%)
+   - 탐구(25%)
+3. **가산점**: 
+   - 수학(미적분 또는 기하) 응시자: 수학 표준점수의 10% 가산점
+4. **성적 산출 방법**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1 가산)
+5. **모집단위별 특징**:
+   - 공과대학의 모집단위는 일반적으로 수능 점수가 높은 편입니다.
+   - 응용화학과도 이에 해당할 가능성이 높습니다.
+따라서, 동의대학교 2024학년도 응용화학과의 수능 최저기준을 추정하기 위해서는:
+- **국어**: 평균적인 국어 점수를 고려해야 합니다.
+- **수학**: 공과대학 특성상 높은 수학 점수가 필요할 것으로 예상됩니다. (예: 80점 이상)
+- **영어**: 대체로 중간 이상의 영어 등급을 요구합니다. (예: 4등급 이상)
+- **탐구**: 탐구 과목에서 좋은 성적을 받는 것이 중요합니다.
+**결론적으로**, 동의대학교 응용화학과의 수능 최저기준은 대체로 국어, 수학, 영어 등급, 탐구 중간 이상의 점수를 요구할 것으로 예상됩니다. 정확한 최저기준을 확인하려면 동의대학교 공식 홈페이지나 입학처에 직접 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록에서 여러 학과를 누락하고 있으며, 잘못된 학과 이름을 포함하고 있습니다. 예를 들어, '미래형자동차학과'와 '소프트웨어융합학과'는 원본 텍스트에 언급되지 않았습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 신설된 학과 목록에서 불일치가 발생하고 있습니다. 원본 텍스트에 있는 학과들이 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 원본 텍스트에 포함된 학과 목록과는 다릅니다. 그러나 주제는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 신설 학과에 대한 설명이 추가되었으나, 원본 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 신설된 학과의 이름과 수가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트와의 불일치로 인해 의미적으로 완전히 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 정보와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.6874096930040207</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 미래융합대학 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. IT융합부품소재공과대학 미래형자동차학과
+3. ICT공과대학 소프트웨어융합학과
+이러한 신설 학과들은 각각의 계열(인문사회, 공학)에 속해 있으며, 새로운 분야를 탐구하고 발전시키기 위한 교육 프로그램을 제공하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전형요소 반영비율에 대한 정보가 일치합니다. 추가적인 설명도 원본의 내용을 보완합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전형요소 반영비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8467866173236462</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율로 지원자의 학업역량과 전공적합성을 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 수능 가산점이 적용되는 모집단위와 가산점의 비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 가산점이 적용되는 모집단위와 관련된 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽고 일관됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.8626648525582939</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 수학(미적분 또는 기하) 응시자에게 수능 가산점을 부여합니다. 
+특히, 다음과 같은 모집단위에서 수능 가산점이 적용됩니다:
+- 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위
+따라서, 해당 학과에서 수학(미적분 또는 기하)을 응시한 지원자는 수학 표준점수에 10%의 가산점을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 과목별로 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 과목의 비율을 제시하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 정보인 "100% 반영"이라는 점을 무시하고 각 과목의 비율을 설명하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 각 과목의 비율을 나열하고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 논리적인 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다릅니다. 원문은 수능 성적을 100% 반영한다고 했으나, 생성된 응답은 각 과목의 비율을 제시하여 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석되고 있으며, 원문에서 강조한 "100% 반영"이라는 점을 간과하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7070120994393411</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 전 모집단위에 대해 다음과 같이 수능 성적을 반영합니다:
+- 국어(화법과작문 또는 언어와매체): 25%
+- 수학(확률과통계 또는 미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합): 25%
+이렇게 각 영역별로 25%씩 반영되며, 총점은 이들 점수의 합으로 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 1월 17일에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 날짜와 일치하는 부분이 있지만, 추가된 날짜(1월 17일)는 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 날짜에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 날짜를 나열하는 방식이 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 추가 정보를 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 사실성과 정확성에서 일부 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 날짜로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6875285612734949</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사 날짜는 다음과 같습니다:
+- 레저스포츠학과 (제자리 멀리뛰기, Z-런): 2024. 01. 16.(화)
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024. 01. 17.(수)
+이 날짜들 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과와 체육학과가 제외된다는 점을 언급하고 있지만, '한의예과'와 '경기지도학과'가 제외된다는 사실을 누락하고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과와 체육학과가 제외된다고 언급하고 있지만, 원문에서 언급된 다른 두 학과(한의예과, 경기지도학과)에 대한 정보가 없으므로 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 나군 수능(일반학생전형) 전형에서 제외되는 학과에 대한 정보를 제공합니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 한의예과와 경기지도학과에 대한 언급이 없어서 완전한 일관성을 제공하지는 못합니다. 따라서 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과와 체육학과가 제외된다는 점은 정확하지만, 한의예과와 경기지도학과에 대한 정보가 누락되어 있어 정확성에 문제가 있습니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성이 높고, 유창하며, 일관성이 있지만, 일부 사실이 누락되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 누락된 정보로 인해 완전한 적절성을 제공하지는 못합니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 누락된 정보로 인해 약간의 혼란을 줄 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.7703658993479385</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 디자인조형학과와 체육학과는 실기/실적 위주로 평가받으므로, 이 두 모집단위는 일반 학생전형에서는 제외됩니다.
+즉, 나군 수능(일반학생전형)에서는 디자인조형학과와 체육학과는 포함되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 정보가 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 있으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 중국어가 포함되어 있어 한국어 독자에게는 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 중국어 문구가 포함되어 있어 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이나, 중국어 문구로 인해 일부 독자에게는 이해하기 어려울 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 중국어 문구가 포함되어 있어 일부 독자에게는 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 대체로 이해하기 쉽지만, 중국어 문구로 인해 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.7765524815981879</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+참조된 정보 중 "수능최저기준은 수능최저기준 없음"이라는 문구가有多余的信息，关键信息如下：
+- 多军（다군）普通入学考试型（일반학생전형）：
+  - 所有招生单位均无最低录取标准要求。
+因此，可以确定2024年 Dongeui大学多军普通入学考试型没有设置任何科目或总分的最低分数线。</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 학과 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치하여 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 학부에서 학과로 분리된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 일관되고 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8424760560372352</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형일정에 대한 정보가 아니라 동국대학교의 원서접수 마감일에 대한 잘못된 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 대학에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없으며, 주제와도 맞지 않습니다. 동의대학교에 대한 질문에 동국대학교의 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용이 잘못되어 있어 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 응답은 문법적으로는 연결되어 있지만, 주제가 다르기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 제공된 정보는 사실과 다르며, 동국대학교의 마감일이 동의대학교의 전형일정과 관련이 없기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 모든 평가 기준에서 낮은 점수를 받아 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 전혀 맞지 않으며, 주제와도 관련이 없습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 주제가 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7653781798251179</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 일반학생전형의 원서접수 마감일은 2023년 11월 7일입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 정보가 일부 정확하지 않거나 누락된 부분이 있습니다. 예를 들어, '학생부종합(성인학습자전형)'의 2024학년도 조건이 잘못 설명되었고, '학생부종합(조기취업형계약학과전형)'의 비율도 잘못 기재되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 특히 전형의 명칭과 비율이 다르게 나타나며, 원본에서 제시된 세부 사항과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있으나, 원본 텍스트의 주요 내용과는 다소 동떨어진 부분이 있습니다. 특히, '농어촌학생전형'과 같은 내용은 원본에 포함되지 않은 정보입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 구조가 있지만, 원본 텍스트와의 연결성이 떨어져서 논리적인 흐름이 부족합니다. 특히, 전형의 변화에 대한 설명이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 전형의 비율과 조건이 잘못 기재되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 맥락이 맞지 않는 부분이 있어 적절성에서 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 원본과의 차이로 인해 혼란스러운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.759595316306513</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 전형 요소 변화는 다음과 같습니다:
+1. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - **전형요소 반영비율**이 변경되었습니다.
+     - 학생부종합(평생학습자전형): 서류 70%, 면접 30%
+     - 학생부종합(성인학습자(정원내·외)전형): 서류 70%, 면접 30%
+     - 학생부종합(재직자전형): 서류 70%, 면접 30%
+2. **나군 학생부교과(농어촌학생전형)**:
+   - **최대선발 가능인원**이 일부 모집단위에서 변경되었습니다.
+     - 중어중국학과 - 교직: 최대 4명 이내
+     - 일본학과 - 교직: 최대 3명 이내
+     - 심리학과 - 신설: 최대 3명 이내
+     - 아동학과: 최대 3명 이내
+이러한 변화는 각 전형의 평가 기준 및 절차에 영향을 미칠 수 있으므로, 지원자들은 변경 사항을 주의 깊게 확인하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기 비중에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7966923014567392</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 해당 내용은:
+- 가군 실기/실적(일반학생전형)의 모집단위는 레저스포츠학과, 태권도학과입니다.
+- 이들의 전형요소 반영비율의 수능은 30%이고, 실기는 70%입니다.
+따라서 가군 실기/실적 전형에서 실기고사는 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하지만, 마지막 문장에서 중국어가 포함되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 중국어 문장이 포함되어 있어 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 보이나, 중국어 문장으로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 대부분의 내용은 적절하지만, 중국어 문장이 포함되어 있어 의미의 일관성이 약간 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 대체로 이해하기 쉽지만, 중국어 문장으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.810927637551634</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion Department。</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있으며, 이는 원본 텍스트에 명시된 '체육학과'와 다릅니다. 또한, 실기 종목에 대한 정보도 원본 텍스트에 포함되어 있지 않으며, '다른 학과들은 수능 성적을 기반으로 선발합니다'라는 내용은 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. '태권도학과'는 원본에 언급되지 않았고, 실기고사에 참여해야 하는 학과 목록이 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 전체적으로 관련성이 떨어집니다. 실기고사에 참여해야 하는 학과에 대한 정확한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어져서 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 정보의 흐름은 괜찮지만, 내용의 정확성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. '태권도학과'와 실기 종목에 대한 정보는 원본에 포함되어 있지 않으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 많습니다. 특히, 잘못된 학과와 실기 종목에 대한 정보는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.7487342195979385</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 수능 성적을 기반으로 선발합니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에는 '디자인조형학과'와 '체육학과'가 누락되었고, '패션디자인학과 - 교직'이라는 학과가 추가되었습니다. 이로 인해 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 추가된 학과와 누락된 학과로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트에 포함된 모든 학과를 다루지 않아서 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 각 학과의 실기 비율에 대한 설명이 잘 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 학과 정보를 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 원본 텍스트와의 불일치로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7156303357993914</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 경기지도학과 (신설)
+4. 패션디자인학과 - 교직
+이러한 학과들은 전형요소 반영비율에서 실기가 중요한 비중을 차지하고 있습니다:
+- 레저스포츠학과: 실기 70%, 수능 30%
+- 태권도학과: 실기 70%, 수능 30%
+- 경기지도학과 (신설): 실기 70%, 수능 30%
+- 패션디자인학과 - 교직: 실기 70%, 수능 30%
+따라서, 실기/실적 위주 전형을 지원하려는 경우 위의 학과 중에서 선택하여 지원하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전공 목록을 정확하게 나열하고 있으며, 추가적인 정보(모집 인원 등)를 포함하고 있지만, 원본 텍스트에는 이러한 세부사항이 포함되어 있지 않습니다. 따라서 일부 정보는 정확하지만 원본 텍스트와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록과 일치하지만, 추가된 정보(모집 인원 등)는 원본 텍스트와 일관성이 없습니다. 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 전공 제공에 직접적으로 관련되어 있으며, 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우며, 약간의 어색한 표현이 있을 수 있지만 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 정보가 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, 추가된 정보(모집 인원 등)는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수가 다소 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 차원에서 잘 수행되었지만, 원본 텍스트와의 일관성 부족으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본 텍스트와의 일관성을 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.6952287295676468</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 미래융합대학에서 신설된 라이프융합학부는 다음과 같은 세 가지 전공을 제공합니다:
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+이 학부는 학생부종합전형으로 모집되며, 정원 내 모집인원은 20명입니다.
+- 나군의 일반 학생 모집 인원: 11명
+- 나군의 평생 학습자 모집 인원: 11명
+이 정보는 제공된 문헌에서 확인되었습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나, 농어촌학생전형에 대한 언급이 없고, 특정 학교(예: 과학고, 국제고, 외국어고, 예술고, 체육고)에 대한 지원 가능성에 대한 정보는 원문에 명시되어 있지 않으므로, 일부 정보가 추가되었지만 정확성은 유지되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 특정 학교에 대한 지원 가능성에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원문에서는 농어촌학생전형에 대한 제한 사항이 언급되었으나, 생성된 응답에서는 이 부분이 누락되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 길이가 길어질 수 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나, 원문과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 추가된 정보가 원문에 명시되지 않은 점에서 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6782589607397362</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고는 모두 지원이 가능하며, 예술고와 체육고도 지원이 가능합니다.
+따라서, 특수목적고등학교의 학생이라면 동의대학교의 가군(일반학생전형)이나 나군(실기/실적 전형 또는 학생부종합 전형 등)으로 지원할 수 있습니다. 다만, 각 전형별로 모집단위와 지원 자격 조건이 다르므로, 해당 전형의 세부 사항을 확인하시고 지원하시면 됩니다.
+더 궁금한 점이 있으면 추가 질문 부탁드립니다!</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과가 가장 많이 모집하는 학과라고 언급하고 있지만, 원문에서는 인문사회과학대학의 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되고 있습니다. 또한, 모집 인원에 대한 정보가 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 특히 모집 인원에 대한 내용이 상충합니다. 원문에서는 32명을 모집한다고 했지만, 생성된 응답에서는 신소재공학과가 52명을 모집한다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원문에서 요구하는 질문에 대한 직접적인 답변이 부족합니다. 원문에서 가장 많이 모집하는 학과에 대한 명확한 언급이 없고, 추가적인 정보가 많아 주제에서 벗어난 느낌이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 모집 인원을 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 각 학과의 정보를 나열하는 방식이 다소 산만하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 특히 모집 인원에 대한 정보가 잘못되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과의 일치성이 낮고, 정확성 및 일관성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문에서 요구하는 정보와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 복잡하게 나열되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7220718616248555</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학** 관련 학과들이 많은 인원을 모집하고 있습니다:
+   - 로봇자동화공학과: 42명
+   - 자동차공학과: 37명
+   - 조선해양공학과: 36명
+   - 신소재공학과: 52명
+   - 고분자나노공학과: 32명
+2. **인문사회과학대학** 관련 학과들도 꽤 많은 인원을 모집하고 있습니다:
+   - 법학과: 2명
+   - 영어영문학과(교직): 28명
+3. **상경대학** 관련 학과들 역시 많은 인원을 모집하고 있습니다:
+   - 경영정보학과: 7명
+   - e비즈니스학과: 10명
+4. **ICT융합공과대학** 관련 학과들도 꽤 많은 인원을 모집하고 있습니다:
+   - 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학): 45명
+이 중에서 가장 많이 모집하는 학과는 **신소재공학과**로, 정원 내 모집 인원이 52명으로 가장 많습니다. 이외에도 로봇자동화공학과(42명), 경영정보학과(7명), e비즈니스학과(10명) 등도 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **신소재공학과**로 판단할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 "특수목적고" 학생이 동의대 학생부교과 농어촌학생전형에 지원할 수 있다고 잘못 언급하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고 출신자는 지원할 수 없다고 명확히 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 지원 자격에 대한 명확한 기준을 제시하고 있지만, 생성된 응답은 이를 무시하고 잘못된 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 전체적으로 관련성이 떨어집니다. 원문에서 제시한 지원 자격에 대한 정보가 정확히 반영되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문에서 제시한 정보와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 원문은 특수목적고 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전체적으로 원문과의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서 제시한 지원 자격과 관련된 정보가 잘못 해석되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.5080529402122002</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，可以申请동义大学的学生部课程（农村学生选拔）。
+根据提供的信息，东义大学的“나군 학생부교과(농어촌학생전형)”招生条件如下：
+- 招生对象包括科学高中、国际高中和外语高中的毕业生。
+- 特教高中不在明确列出的支持学校类型中。
+但是，从你提供的信息来看，“특수목적고”（特教高中）并不在“특수목적고등학교의 과학고, 국제고, 외국어고”（科学高中、国际高中和外语高中的特教高中）的列表中。因此，根据现有信息，特教高中学生似乎不符合东义大学农村学生选拔的学生部课程申请资格。
+建议你直接访问东义大学官方网站或联系招生办公室以确认最新的招生政策和具体要求，因为政策可能会有所变化。你可以参考以下链接获取更多信息：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공하고 있지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 정보를 제시하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와는 반대로 성적 정보를 제공하고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 없기 때문에 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 제공되지 않은 정보를 제시하고 있기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본 텍스트의 주제와 전혀 다른 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5628761559858653</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 수능(일반학생전형) 최종등록자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이 중에서 가장 중요한 것은 **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**의 평균 점수가 **317.87**이라는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 잘못된 정보를 제공합니다. 
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되며, 원문에서 제공된 정보와 일치하지 않습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문에서 언급된 내용과는 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 정보와 완전히 다르며, 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.4986354369270621</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 수능 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 웹사이트를 참조하라는 일반적인 조언만 포함하고 있습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 질문에 대한 답변으로 웹사이트를 참조하라는 내용을 포함하고 있지만, 원본 텍스트의 구체적인 정보와는 관련이 적습니다. 다소 관련성이 있지만, 핵심 정보를 제공하지 않기 때문에 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 점수가 다소 낮습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 내용과 관련이 없기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 정보가 누락되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.4156316874721691</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>ippsi.deu.ac.kr 웹사이트를 참조해보시는 것이 가장 정확한 정보를 얻는 방법일 것입니다. 일반적으로 대학의 입학처 웹사이트에서는 합격자 발표 일정과 관련된 공지를 게재하므로, 해당 사이트에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 잘못된 정보를 제공합니다. 원본 텍스트에서는 면접고사가 2024년 1월 20일(토)로 명시되어 있지만, 생성된 응답에서는 2024년 1월 17일(수)로 잘못 언급하고 있습니다. 또한 실기고사와 관련된 정보도 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 면접고사 일정이 다르게 제시되고 있으며, 실기고사에 대한 언급은 원본 텍스트와 관련이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 면접고사 일정에 대한 질문에 대해 실기고사에 대한 정보가 제공되고 있어 주제와의 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 주제가 일치하지 않기 때문에 전체적인 일관성은 떨어집니다. 실기고사와 면접고사에 대한 정보가 혼합되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 면접고사 일정이 잘못 기재되어 있으며, 실기고사에 대한 정보는 원본 텍스트와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 면접고사에 대한 질문에 대해 실기고사에 대한 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4650694150478067</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일(수)에 &lt;나&gt;군 실기고사를 치르는 날입니다. 이날에는 대기실 및 입실 시간 안내를 받으시기 위해 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인하시면 됩니다.
+따라서 면접고사는 2024년 1월 17일(수)에 보러 가셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 왜곡하고 있습니다. 응답에서는 일반적으로 고등학교 졸업 자격이 필요하다고 언급하고 있지만, 이는 원문에서 명시된 내용과 상충합니다. 따라서 사실성 점수는 2로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 최저학력 기준이 없다고 명확히 언급하고 있지만, 생성된 응답에서는 일반적인 고등학교 졸업 자격이 필요하다고 주장하고 있습니다. 이로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 언급된 '최저학력 기준이 없다'는 핵심 내용을 간과하고 있습니다. 그러나 추가적인 정보는 여전히 관련성이 있으므로 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성 점수는 2로 평가합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수는 2로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다. 따라서 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5088659316080602</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과의 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 한의예과의 경우 고등학교 졸업 자격이 필요하며, 일부 대학에서는 특정 과목 성적이나 학생부 평가를 요구할 수 있습니다.
+하지만, 2024학년도에 대한 특별한 최저학력 기준 정보가 제공되지 않았기 때문에, 일반적인 고등학교 졸업 자격을 갖추는 것이 필수이며, 추가적인 학생부 평가나 과목 성적 요구사항은 대학마다 다를 수 있습니다.
+더 정확한 정보를 얻으시려면 해당 대학의 공식 입학 안내 웹사이트 또는 입학처와 직접 문의해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 정보를 제공하고 있지만, "전형별로 수능 최저학력 기준이 다르게 설정되어 있습니다"라는 주장은 사실과 다릅니다. 원문에서는 동의대학교에 수능 최저학력 기준이 없다고 명시하고 있으므로, 생성된 응답은 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 전형별로 기준이 다르다고 주장하고 있어 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저학력 기준에 대한 정보를 다루고 있어 관련성이 높지만, 잘못된 정보로 인해 원문과의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 원문과의 관계를 명확히 하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상충하는 정보를 포함하고 있어 정확성이 낮습니다. 수능 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5374956260014412</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집의 경우, 전형별로 수능 최저학력 기준이 다르게 설정되어 있습니다. 
+1. **수능 위주 전형**:
+   - 가군 수능(일반학생전형): 모든 모집단위에 대해 수능 최저기준 없음
+   - 나군 수능(일반학생전형): 모든 모집단위에 대해 수능 최저기준 없음
+   - 다군 수능(일반학생전형): 모든 모집단위에 대해 수능 최저기준 없음
+2. **실기/실적 위주 전형**:
+   - 가군 실기/실적(일반학생전형): 레저스포츠학과, 태권도학과에서 수능 최저기준 없음
+   - 나군 실기/실적(일반학생전형): 디자인조형학과, 체육학과에서 수능 최저기준 없음
+   - 다군 실기/실적(일반학생전형): 경기지도학과에서 수능 최저기준 없음
+3. **학생부교과 전형**:
+   - 나군 학생부교과(농어촌학생전형) - 정원외: 수능 최저기준 없음
+   - 나군 학생부교과(평생학습자전형): 수능 최저기준 없음
+   - 나군 학생부교과(성인학습자(정원내)전형): 수능 최저기준 없음
+   - 나군 학생부교과(성인학습자(정원외)전형 - 정원외): 수능 최저기준 없음
+   - 나군 학생부종합(재직자전형) - 정원외: 수능 최저기준 없음
+   - 나군 학생부종합(재직자전형) - 정원외: 수능 최저기준 없음
+   - 나군 학생부종합(조기취업형계약학과전형) - 정원외: 수능 최저기준 없음
+따라서, 2024학년도 정시모집에서 대부분의 전형은 수능 최저학력 기준이 없습니다. 단, 일부 특별한 경우에만 수능 최저학력 기준을 설정하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 대부분의 세부 사항이 정확합니다. 그러나 "충원 합격자 1차 등록"과 "충원 합격자 2차 등록"에 대한 내용은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, 추가된 등록 정보가 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다. 따라서 일부 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 등록 정보는 원본에 명시되어 있지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8697552686279909</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>충원합격자는 다음과 같은 일정에 따라 발표됩니다:
+1. 충원 합격자 1차 발표 및 등록:
+   - 일시: 2024년 2월 14일(수) 09:00
+   - 내용: 인터넷으로 발표
+2. 충원 합격자 1차 등록:
+   - 일시: 2024년 2월 14일(수) 09:00~16:00
+3. 충원 합격자 2차 발표 및 등록:
+   - 일시: 2024년 2월 15일(목) 09:00
+   - 내용: 인터넷으로 발표
+4. 충원 합격자 2차 등록:
+   - 일시: 2024년 2월 15일(목) 09:00~16:00
+5. 충원 합격자 3차 이후 발표 및 등록:
+   - 일시: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 방법: 개별 전화 통보
+이러한 일정에 따라 충원 합격자 발표 및 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보를 제공하지만, 1차 등록과 2차 등록에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 3차 이후 발표 일정에 대한 정보가 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하는 부분이 있지만, 추가된 등록 일정으로 인해 일관성이 떨어집니다. 원본 텍스트의 3차 이후 발표 일정이 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 정확성에서 일부 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 정보의 추가로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.8251770571249378</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표는 2월 14일과 15일에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 직접적인 언급이 없다고 주장하지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 언급된 추가 모집에 대한 정보가 누락되어 있습니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 직접적인 답변을 제공하지 않기 때문에 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일치성이 낮고, 정보의 정확성도 떨어지기 때문에 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.486037952404671</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到是否进行额外招生（추가모집）。为了确认是否有额外招生计划，建议访问以下网站获取最新信息：
+https://ipsi.deu.ac.kr/main.do
+该网站通常会发布最新的招生政策和计划。如果有任何疑问或需要更详细的信息，也可以通过该网站提供的联系方式咨询学校相关部门。</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 모집인원, 지원자격, 제출서류 등에서 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 예를 들어, 모집인원이 34명으로 잘못 기재되어 있으며, 지원자격도 원본과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 지원자격과 모집단위에 대한 정보가 상충합니다. 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 일부 잘못된 정보가 포함되어 있어 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 여러 사실에서 부정확하며, 특히 모집인원과 지원자격에 대한 정보가 잘못되었습니다. 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 정보의 질이 높지 않으며, 사실성과 일관성에서 큰 문제가 있습니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 평생학습자전형에 대한 설명이 포함되어 있으나, 잘못된 정보로 인해 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7407054125109117</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 평생교육을 받은 학습자를 위한 특별한 전형입니다. 주요 내용은 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 인문사회 계열 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 34명
+   - 기타 여러 학과: 각각의 모집인원은 위에서 나열된 대로 다릅니다.
+2. 지원자격:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 상시근로자 5인 이상 사업체 근로자 (4대 보험 가입)
+   - 3년 이상 재직 기간
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류:
+   - 고교 졸업(예정)자: 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증, 성적증명서 (학교생활기록부 대체 가능)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 증명서 및 성적증명서
+5. 서류평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+6. 동점자 처리기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 확인하시려면 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 원본의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본의 지원자격에 대한 내용과 생성된 응답의 내용은 상충합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.6742570453707787</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 다른 학과의 실기고사 장소에 대한 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 언급이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 내용과 상충하는 정보가 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 유창성 점수는 중간 정도로 평가합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다. 따라서 의미 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 일부 이해할 수 있는 내용이 있지만, 주로 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어렵습니다. 따라서 이해 가능성 점수는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.4869414867483653</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 해당 학과에 따라不同的的，给定答案需要具体化。根据提供的信息，不同专业（如设计造型学、体育学等）有不同的实考地点。通常情况下，具体的考试地点会在学校官网或招生简章中详细说明。
+例如：
+- 设计造型学专业的实考地点会在2024年1月17日公布。
+- 体育学专业的实考地点也会在同一天公布。
+建议您访问学校官方网站（如http://ipsi.deu.ac.kr）查看最新的招生信息和考试安排，以获取准确的实考地点和其他详细信息。</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 체육학과의 실기종목과 배점 비율에 대한 잘못된 정보가 포함되어 있습니다. 원본 텍스트와의 사실적 일치가 전혀 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.2970546802307206</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 구성되어 있습니다:
+1. 모집단위는 체육학과입니다.
+2. 실기종목은 두 가지가 있으며, 각각의 배점 비율은:
+   - 제자리 멀리뛰기는 240점 (24%)
+   - 메디신볼 던지기는 230점 (23%)
+   - Z-런은 230점 (23%)
+따라서, 체육학과의 학생들은 이 세 가지 실기종목 중 하나를 선택하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 일반적으로 학교가 전화로 통지한다고 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 전화 통보가 이루어지지 않는다고 명확히 설명하고 있으나, 생성된 응답은 전화 통보가 이루어진다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 내용이 원문과는 다르게 학교의 일반적인 통지 방식에 대한 설명으로 흐르고 있습니다. 따라서 원문에 대한 직접적인 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 다소 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 연결이 약해 전체적인 일관성은 떨어집니다. 원문과의 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실적으로 부정확한 내용을 포함하고 있습니다. 원문에서 명시된 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락을 무시하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 원문과의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.3418455934536284</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>一般来说，学校会在公布补招合格名单后通过电话通知被录取的学生。但是具体的通知方式可能会因学校而异。建议您查看学校的官方网站或招生简章中的相关说明，或者直接联系学校的招生办公室确认具体的联系方式和流程。
+如果您不确定，可以访问以下网站获取更多信息：https://ipsi.deu.ac.kr/main.do
+这样您可以更准确地了解学校的录取通知方式。</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 없다는 점을 언급하고 있지만, 2024학년도 모집 정보에 대한 세부사항을 제공하고 있습니다. 그러나 이 정보는 원본 텍스트와 직접적으로 관련이 없으며, 2023학년도 결과에 대한 추정은 불확실성을 내포하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 2024학년도 모집 정보에 대한 언급은 원본 텍스트의 주제와는 다소 일치하지 않습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 2024학년도 정보에 대한 언급이 포함되어 있어 다소 벗어난 부분이 있습니다. 그러나 여전히 관련성이 높다고 평가할 수 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 정보가 잘 연결되어 있습니다. 그러나 2024학년도 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도 모집 정보에 대한 세부사항을 제공하지만, 이는 2023학년도 수시모집 결과와 관련이 없으므로 정확성 점수는 중간으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 원본 텍스트와의 관련성 및 정확성에서 다소 부족함이 있어 점수는 4로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 2024학년도 정보에 대한 언급이 포함되어 있어 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.8193456453119646</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 2023학년도의 대략적인 추세를 예측할 수 있습니다.
+2024학년도 경찰행정학과의 모집 정보는 다음과 같습니다:
+- **모집인원**: 7명
+- **지원인원**: 29명
+- **경쟁률**: 4.14
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과가 매우 유사했을 가능성이 높습니다. 지원자들이 많았음에도 불구하고 모집인원은 적어 경쟁률이 높았던 것으로 추정됩니다.
+확실한 정보를 얻기 위해서는 공식 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do) 또는 관련 부서에 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 전형에서 수능 응시 여부와 관계없이 지원이 가능하다고 주장하고 있지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 수능 응시가 필수적이라고 명시하고 있지만, 생성된 응답은 특정 전형에서 수능 응시 여부와 관계없이 지원이 가능하다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시된 질문에 대한 직접적인 답변이 아닌 추가적인 정보가 포함되어 있습니다. 따라서 관련성은 높지만, 원문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문은 수능 응시가 필수적이라고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4231705125355603</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어, 학생부종합 평가 등은 수능을 응시하지 않아도 지원할 수 있는 전형입니다.
+특히 주요 변경사항 중에 다음과 같은 내용이 있습니다:
+- **학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 하고 있습니다. 수능 응시 여부와 관계없이 지원이 가능합니다.
+따라서, 수능을 응시하지 않아도 해당 전형을 통해 지원할 수 있습니다. 하지만 다른 전형들은 수능 점수를 반영하기 때문에 수능 응시는 유리한 경우가 많습니다. 자세한 내용은 입학처 홈페이지나 공지사항을 확인하시거나 직접 문의하시는 것이 좋겠습니다.
+[입학처 홈페이지 링크](https://ipsi.deu.ac.kr/main.do)를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 사실을 언급하고 있지만, 특정 전형에 대한 정보가 추가되어 있어 원본 텍스트의 핵심 내용을 일부 변형하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 추가된 정보가 원본의 주제와 다소 상충할 수 있습니다. 특히, 특정 전형에 대한 언급이 원본의 일반적인 지원 가능성에 대한 설명과 일치하지 않기 때문에 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 전형 정보가 포함되어 있어 약간의 주제 이탈이 있습니다. 그러나 여전히 관련성이 높기 때문에 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 연결이 약간 느슨해질 수 있어 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났을 때의 지원 가능성을 언급하지만, 특정 전형에 대한 정보가 원본의 내용을 왜곡할 수 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 약간의 문제가 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 특정 전형에 대한 추가 정보가 원본의 맥락에서 벗어날 수 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.6706800117174577</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>2024학년도에 적용되는 정시모집 변경사항을 보면, 성인학습자전형(정원내/외)이나 재직자전형 등 일부 전형에서 고등학교 졸업 후 3년 이상 재직한 자를 대상으로 하고 있습니다. 따라서, 고등학교 졸업한지 10년이 지났다면, 해당하는 전형에 지원 가능할 수 있습니다.
+특히, 다음과 같은 전형을 참고하실 수 있습니다:
+- **학생부종합(성인학습자전형)**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 따라서, 고등학교 졸업 후 10년이 지났다면 해당됩니다.
+- **재직자전형**: 이 전형은 산업체에서 재직 중인 자를 대상으로 하며, 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다. 따라서, 고등학교 졸업 후 10년 동안 재직한 경력이 있다면 해당됩니다.
+따라서, 정시 지원 가능성을 확인하기 위해서는 각 전형의 자격요건을 체크하시고, 해당하는 전형에 지원해보시는 것이 좋습니다. 자세한 내용은 [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 학교 입학처로 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8127123663973913</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감시간은 각 날짜별로 오후 6시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감시간은 오후 5시까지 도착
+   - 서류 제출 대상: (IV. 전형별 세부 안내 참조)
+   - 제출 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 2시
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화), 은행마감시간 내
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024년 2월 14일 (수) 오전 9시
+       - 발표: 홈페이지에서 개별 조회
+       - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+     - 날짜: 2024년 2월 14일 (수) 오전 9시 ~ 오후 4시
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024년 2월 15일 (목) 오전 9시
+       - 발표: 홈페이지에서 개별 조회
+       - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+     - 날짜: 2024년 2월 15일 (목) 오전 9시 ~ 오후 4시
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 날짜: 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+       - 발표: 홈페이지에서 개별 조회
+       - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+이 일정들은 동의대학교 2024학년도 정시모집의 주요 내용을 포함하고 있으며, 각 단계별로 필요한 준비와 절차를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.9016285801513975</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+이 일정을 참고하여 원하는 모집단위와 전형에 맞게 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 미응시자가 지원 가능한 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서는 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 수능 미응시자가 지원할 수 있는 전형을 나열하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 수능 미응시자가 지원 가능한 전형에 대한 정보를 상세히 설명하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 전형에 대한 정보를 체계적으로 나열하고 있으며, 각 전형에 대한 설명이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있습니다. 따라서 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 높지만, 정확한 정보가 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6445370631597017</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **다군 수능(일반학생전형)**:
+   - 이 전형은 수능을 필수로 요구하지 않으며, 수능 미응시자도 지원 가능합니다.
+   - 모집단위: 인문사회과학대학, 상경대학 등 다수의 학과가 해당됩니다.
+2. **나군 실기/실적(일반학생전형)**:
+   - 이 전형은 주로 실기고사와 수능 성적이 함께 반영되지만, 일부 모집단위에서는 수능 미응시자도 지원이 가능합니다.
+   - 예를 들어, 디자인조형학과, 체육학과 등에서 수능 미응시자도 지원이 가능합니다.
+3. **나군 실기/실적(경기실적우수자전형)**:
+   - 이 전형은 주로 경기 실적을 중점적으로 평가하며, 수능 성적이 필수는 아닙니다.
+   - 모집단위: 전 모집단위에서 지원 가능합니다.
+4. **나군 학생부교과(농어촌학생전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 16명
+5. **나군 학생부교과(평생학습자전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 11명
+6. **나군 학생부종합(평생학습자전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 16명
+7. **나군 학생부종합(성인학습자(정원내)전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 7명
+8. **나군 학생부종합(성인학습자(정원외)전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 40명
+9. **나군 학생부종합(재직자전형)**:
+   - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+   - 모집인원: 21명
+10. **나군 학생부종합(조기취업형계약학과전형)**:
+    - 이 전형은 주로 학생부 교과성적을 중점적으로 평가하며, 수능 성적이 필요하지 않습니다.
+    - 모집인원: 21명
+이러한 전형들은 주로 학생부 교과성적을 중점으로 평가하므로, 수능 미응시자도 지원이 가능합니다. 그러나 각 전형의 세부 사항은 공지된 내용을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격이 3차까지 이루어졌다고 주장하지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 또한, 36명이라는 숫자는 맞지만, 3차까지 이루어졌다는 주장은 원문과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있는데, 생성된 응답은 3차까지 이루어졌다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 원문에서 제공하지 않은 추가적인 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과 상충하는 정보를 포함하고 있습니다. 특히, 충원 합격 차수에 대한 잘못된 주장이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제공하지 않은 정보가 포함되어 있어 의미적으로 완전히 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.6733924373340026</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 3차까지 이루어졌습니다. 
+특히, 전자공학과는 다음과 같이 모집되었습니다:
+- 모집인원: 69명
+- 지원인원: 105명 
+- 경쟁률: 1.52
+- 충원 합격 (후보순위): 36명
+충원 합격이 이루어진 후보는 총 36명으로, 이 중 3차까지의 합격자를 배정하였음을 의미합니다.
+따라서 전년도(2023년도)에 전자공학과의 충원 합격은 최소 3차까지 이루어졌다고 추론할 수 있습니다. 하지만 정확한 데이터는 해당 대학 입학처 웹사이트를 참조하시면 더욱 확실한 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학처의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 전화번호가 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학처의 전화번호를 찾는 질문에 대한 답변으로는 관련성이 낮습니다. 전화번호를 제공하지 않고 다른 방법을 제안하는 것은 질문의 핵심을 벗어납니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 제안을 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 잘못 전달되고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받았으므로 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 전화번호를 제공하지 않는 것은 질문의 의도와 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변으로는 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.5203084866141389</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다.官方网站没有提供동义大学入学处的电话号码信息。
+如果您需要查询具体的电话号码，建议访问东义大学官网或者直接联系学校的招生办公室。您也可以尝试通过以下方式获取相关信息：
+1. 访问东义大学的官方网站，在“联系我们”或“招生信息”等相关页面查找联系方式。
+2. 通过电子邮件发送询问，通常学校会有专门的邮箱地址来处理此类问题。
+3. 如果有可能的话，直接前往学校的招生办公室进行咨询。
+如果您需要帮助访问官网或其他相关信息，请告诉我，我会尽力提供进一步的帮助。</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격 사실이 확인된다고 주장하지만, 원문에서는 전화 연락이 두절되면 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생하므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 합격 사실이 확인된다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문에서 강조하는 전화 통화의 중요성에 대한 언급이 부족합니다. 그러나 전반적으로 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 절차를 나열하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 원문에서의 핵심 메시지와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충되는 내용을 포함하고 있어 정확성 점수가 낮습니다. 전화 통화가 되지 않으면 등록 포기자로 처리된다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 원문과의 불일치가 발생하고 있어 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문과의 일치가 부족하여 적절성 점수가 낮습니다. 원문의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 절차를 제시하고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.5737186603581578</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화통보 시, 전화 통화가 되지 않는 경우에도 합격 사실이 확인됩니다. 다만, 학생들은 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **개별 전화 통보 후 2024년 2월 20일까지** 홈페이지에서 개별 조회를 통해 합격 여부를 확인해야 합니다.
+2. **고지서 교부**: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. **등록장소**: 등록금 고지서에 기재된 학교 지정은행으로 등록을 마무리해야 합니다.
+따라서 전화 통화가 되지 않더라도, 위의 절차를 준수하여 합격 여부와 등록 과정을 완료하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 필요한 서류와 조건을 대부분 정확하게 전달하고 있습니다. 그러나 '6년 과정'과 '12년 과정'에 대한 구체적인 서류 차이를 명시하지 않았기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 서류를 나열하고 있으며, 부모의 사망 및 이혼에 따른 추가 서류 제출 조건도 잘 설명하고 있습니다. 다만, '6년 과정'과 '12년 과정'의 차이에 대한 언급이 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 '6년 과정'과 '12년 과정'의 차이에 대한 설명이 부족하여 완전한 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, '6년 과정'과 '12년 과정'의 구체적인 차이에 대한 설명이 부족하여 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 부족함이 있어 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 필요한 정보를 적절하게 전달하고 있습니다. 다만, 일부 세부 사항에서 더 명확한 설명이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해 가능성에는 약간의 제한이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7387077645650958</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부를 추가로 제출
+   - 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가제출
+6년 과정과 12년 과정에 따라 약간의 차이가 있으니, 구체적인 지원 자격 및 제출 서류는 해당 모집단위의 공지사항을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 '6년과정' 서류 제출 가능성에 대한 언급은 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본과 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정' 서류에 대한 언급이 원본과 다르기 때문에 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, '6년과정' 서류 제출 가능성에 대한 언급이 원본 텍스트에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8176162686675899</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 중학교와 고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 경우 '6년과정' 서류제출이 가능합니다.
+참고로, 이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24 등에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 2024년의 모집에 대한 불확실성을 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 기회균등 전형이 존재하지 않는다고 명확히 언급하고 있지만, 생성된 응답은 그에 대한 불확실성을 제기하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 기회균등 전형의 존재 여부에 대한 명확한 답변을 제공하지 않기 때문에 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 관계에서 일관성이 떨어지므로 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상충되는 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하지만, 기회균등 전형의 존재 여부에 대한 명확한 답변이 부족하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 한국어 사용자에게는 언어 장벽이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.5204412689121295</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年在普通招生（정시모집）中是否会进行低收入机会均等类型的招生。建议直接访问学校官网（https://ipsi.deu.ac.kr/main.do）以获取最准确的信息，或者咨询学校的招生办公室以确认具体的招生政策和计划。
+如果需要了解更多信息，可以参考以下步骤：
+1. 访问学校官方网站。
+2. 在“招生信息”或类似栏目下查找最新的招生简章。
+3. 联系学校的招生办公室进行详细咨询。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급이 115점이라는 점과 절사되지 않는다는 내용을 포함하고 있지만, 원본 텍스트에서 명시된 "절사 여부에 대한 정보가 포함되어 있지 않다"는 점을 간과하고 있습니다. 따라서 일부 사실이 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 절사 여부에 대한 정보가 없다는 원본의 주장을 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2.5등급과 관련된 점수 정보를 제공하지만, 원본 텍스트의 절사 여부에 대한 정보가 없다는 점을 간과하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 정확하지만, 원본 텍스트와의 일관성 및 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 수능 최저등급에 대한 정보를 잘 전달하고 있습니다. 그러나 원본 텍스트의 맥락을 완전히 반영하지는 못합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.620075104434481</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급점수로 표현할 때 115점입니다 (평균적으로 중간값을 반올림한 값). 수능 최저등급 기준에서 사탐 2과목 평균산출 시 2.5등급이 나오더라도 절사하여 2등급으로 처리되지 않습니다.
+즉, 2.5등급은 그대로 2.5등급으로 인정됩니다. 
+수능 최저등급 기준에서 사탐 2과목 평균산출 시 등급점수를 정확히 계산한 후 그 점수로 평균을 내어 반올림하여 처리합니다. 따라서 2.5등급은 그대로 유지됩니다.
+참고로, 수능 최저등급 기준에서 각 과목의 등급별 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점 
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점
+따라서 2.5등급은 115점을 가지므로, 평균산출 시 그대로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 4차 발표를 언급하고 있으며, 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 일부 내용이 부적절하게 연결되어 있습니다. 그러나 발표 일정에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 영향을 받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보를 제공하지만, 4차 발표에 대한 언급이 원본 텍스트와 일치하지 않아 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히 발표 차수에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 부적절하게 이루어졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.8047037065586046</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일 (수) 09:00
+2. **1차 충원 합격자 등록**: 2024년 2월 14일 (수) 09:00 ~ 16:00
+3. **2차 충원 합격자 발표**: 2024년 2월 15일 (목) 09:00
+4. **2차 충원 합격자 등록**: 2024년 2월 15일 (목) 09:00 ~ 16:00
+이후에는 3차 충원 합격자를 위한 발표와 등록이 개별 전화 통보 방식으로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 평균 점수와 관련된 정보를 잘못 해석하고 있습니다. 원본 텍스트에서 제공된 평균 점수는 수능 4개 영역 등급이 4.17과 4.53으로 명시되어 있으며, 4.6점은 이들 평균을 약간 초과하는 수준으로 언급되었습니다. 그러나 생성된 응답에서는 4.6점이 평균보다 낮다고 잘못 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 4.6점이 평균을 초과한다고 명시하고 있지만, 생성된 응답은 4.6점이 평균보다 낮다고 주장하고 있습니다. 이는 명백한 모순입니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 입학 가능성에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 정보(예: 평균 점수와 표준 편차)를 포함하고 있습니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 고려하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 평균 점수와 표준 편차에 대한 설명이 원본 텍스트의 맥락과 잘 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 4.6점이 평균보다 낮다고 잘못 주장하고 있습니다. 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 잘못 해석하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장이 복잡하게 구성되어 있어 명확하게 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.5713971231912394</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑几个因素：
+1. **e비즈니스학과의 모집인원 및 지원 인원**: 根据提供的信息，2024学年该专业的招生人数为10人，实际报名人数为36人。这意味着竞争非常激烈。
+2. **平均成绩和标准差**：您提到的4.6分的成绩需要与已知的数据进行比较。
+   - 国语 + 数学 + 研究（2个）（含加分）标准化总分均值是 103.58
+   - 标准差为 9.7
+3. **成绩分布**：4.6分的成绩在已知数据中处于较低水平。我们需要知道这个分数是否高于或低于平均值，以及它与标准差的关系。
+假设：
+- 平均分为103.58
+- 标准差为9.7
+计算4.6分相对于平均分的差距：
+\[ \frac{4.6 - 103.58}{9.7} = -10.2\]
+这个结果表明，4.6分的成绩远低于已知数据中的平均值。因此，仅凭这一点来看，通过正统的高考成绩达到录取线的可能性非常低。
+但是：
+- 如果该大学有其他特殊政策或加分项（如特长生、艺术特长等），可能会有所不同。
+- 有些学校可能在某些情况下会考虑调剂或其他特殊情况。
+综上所述，在没有其他特殊因素的情况下，仅凭4.6分的成绩，通过正统的高考成绩被e비즈니스学录取的可能性非常低。建议咨询该大学的具体招生政策或直接联系招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급을 3.20으로 제시하고 있으나, 원본 텍스트에서는 평균 영어 등급이 3.66으로 명시되어 있습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률과 평균 점수에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과는 일치하지 않는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 설명되고 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 원본 텍스트의 평균 등급과 생성된 응답의 평균 점수 정보가 일치하지 않아 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 일부 문제로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으나, 일부 수치의 불일치로 인해 완벽한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 수치의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6169504482893693</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 최초합격 가능성을 평가해보겠습니다.
+주요 데이터:
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.20
+- 영어 등급의 평균: 3.20
+주요 요인:
+1. **경쟁률**: 8.90은 상대적으로 높은 경쟁률입니다.
+2. **평균 점수**: e비즈니스학과의 최초합격자들의 평균 점수가 317.20이며, 이는 등급 5.3에 해당하는 점수보다 약간 높습니다.
+등급 5.3은 대략 국어 4.8, 수학 4.9, 영어 5.0 정도의 평균 점수를 의미합니다. 이 점수는 e비즈니스학과의 최초합격자들의 평균 점수(국어 + 수학 + 탐구)보다 약간 낮습니다.
+따라서, 등급 5.3으로 e비즈니스학과에 최초 합격하는 것은 가능하지만, 경쟁률이 높아서 확실한 보장은 아닙니다. 평균 점수를 넘어서는 수능 성적과 학생부 성적이 우수하다면 더 높은 가능성은 있을 것입니다.
+결론적으로, 등급 5.3으로 e비즈니스학과에 최초 합격하는 것은 가능하지만, 확실한 보장은 아닙니다. 추가적인 지원 자질이나 학생부 성적 등을 고려하여 결정하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, e비즈니스학과의 예비 합격 가능성에 대한 구체적인 정보를 제공하지 않고 있습니다. 원본 텍스트는 예비 38번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 그와 관련된 정보를 제공하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 원본의 내용을 무시하고 다른 주제에 대해 논의하고 있습니다. 원본 텍스트의 핵심 메시지와 상충하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 주제와는 전혀 다른 방향으로 논의하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 원본 텍스트와의 관련성이 떨어져서 전체적인 맥락에서의 유창성은 낮습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 전혀 반영하지 않으며, 잘못된 정보나 부정확한 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.401477118963285</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要更多的信息来评估您是否有资格被预录取。根据提供的信息，以下是一些关键点：
+1. **招生类型**：您提到的是“eBiz（电子商务）专业”，但没有明确是哪个学院或具体的招生计划。
+2. **成绩和排名**：您说您的预估分数为38名，但没有提供具体的成绩数据。通常，学校会根据学生的高考总分、科目等级等进行评估。
+3. **录取标准**：
+   - 一般情况下，不同专业的录取分数线可能会有所不同。
+   - 学校可能会考虑综合成绩（如高考成绩和面试成绩），以及特定科目的成绩（如语文、数学、英语等）。
+   - 对于某些专业，还可能有额外的要求，比如实操能力测试或面试表现。
+4. **参考信息**：
+   - 从提供的数据来看，不同专业的录取情况差异较大。例如，计算机科学与技术类专业的竞争较为激烈（如计算机工程和软件工程），而其他一些专业则相对宽松。
+   - 比如，2023年某专业可能的录取分数线是前50名，但到了2024年可能会有所变化。
+建议您：
+1. **查看具体招生简章**：每个专业的具体要求可能会有所不同，请务必仔细阅读相关学院或专业的招生简章。
+2. **了解往年数据**：参考往年的录取情况和分数线，可以帮助您更好地评估自己的竞争力。
+3. **咨询学校**：直接联系学校的招生办公室，询问您的具体情况是否符合预录取条件。
+如果您能提供更多详细信息（如具体专业、科目成绩等），我可以为您提供更具体的建议。如果需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지만, 이 정보는 원본 텍스트와 일치하지 않습니다. 원본 텍스트에서는 영어 등급 평균이 2.34이고 수능 4개 영역 등급 평균이 3.37이라고 명시되어 있습니다. 그러나 생성된 응답에서는 영어 등급 평균이 3.87로 잘못 기재되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트의 평균 등급과 생성된 응답의 평균 등급이 서로 다르며, 이는 응답의 일관성을 해칩니다. 또한, 합격 가능성에 대한 결론도 원본 텍스트와 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 문장 구조와 표현이 자연스럽고 명확합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있습니다. 특히 평균 등급에 대한 정보가 잘못되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확한 표현을 사용하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6254763962970509</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 최초합격자와 최종등록자의 성적 데이터를 분석해보겠습니다.
+1. **최초합격자**:
+   - 모집인원: 22명
+   - 지원인원: 145명
+   - 경쟁률: 6.59
+   - 영어 등급의 평균: 3.87 (최고치)
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 460.33
+2. **최종등록자**:
+   - 모집인원: 22명
+   - 지원인원: 145명
+   - 경쟁률: 6.59
+   - 영어 등급의 평균: 3.87 (최고치)
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+이 데이터를 바탕으로, 간호학과의 최저합격 기준은 상당히 높습니다. 특히, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 매우 높습니다.
+**분석 결과:**
+- 당신의 성적(3.44)은 최초합격자와 최종등록자의 평균보다 낮습니다.
+- 이는 합격 가능성에 부정적인 신호를 줍니다.
+하지만, 정시 모집에서 합격 여부는 여러 요인에 의해 결정되므로 완전히 배제할 수 없습니다. 예를 들어:
+1. **특이성**: 당신의 특별한 경력이나 활동이 있다면 이점이 있을 수 있습니다.
+2. **추가 지원**: 다른 대학이나 학과에서 지원하여 보완할 수 있습니다.
+결론적으로, 현재의 성적만으로는 동의대학교 간호학과에 합격하기 어렵다고 판단됩니다. 하지만 추가적인 지원 전략을 세우고 다양한 경로를 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 평균 영어 등급이 2.34이고 수능 4개 영역 등급 평균이 3.37이라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 1.86, 수능 4개 영역 등급 평균이 3.12로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 2.52라는 성적이 평균 등급보다 높다고 언급되지만, 생성된 응답에서는 이 성적이 낮다고 주장하고 있습니다. 이러한 상반된 정보는 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 전반적으로 관련된 조언과 정보를 포함하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 조언을 나열하고 있지만, 각 조언 간의 연결이 다소 약해 보입니다. 정보가 나열되어 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 잘못된 정보를 포함하고 있습니다. 특히 평균 점수와 관련된 부분에서 큰 오류가 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다. 관련성은 어느 정도 있지만, 정확성과 일관성이 부족하여 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 일부 정보가 혼란스러울 수 있어 완벽한 점수를 주기에는 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5994371093217389</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종합격하기는 매우 어려울 것으로 보입니다.
+다음은 이유와 함께 조언입니다:
+1. 경쟁률 및 평균 점수:
+   - 간호학과의 경쟁률이 높습니다 (6.59).
+   - 평균 국어+수학+탐구(2개) 표준 변환점수 합은 357.63입니다.
+   - 영어 등급 평균은 1.86이며, 수능 4개 영역 등급 평균은 3.12입니다.
+2. 성적 차이:
+   2.52는 평균 점수(357.63)와 비교해 매우 낮습니다.
+   이 정도 성적을 가진 학생들은 대부분 충원되지 않습니다.
+3. 동기부여 및 준비 필요성:
+   - 추가적인 공부나 학습이 필수적입니다.
+   - 간호학과에 대한 열정과 적합성을 강조해야 합니다.
+4. 대안 고려:
+   - 다른 의료보건 관련 전공을 고려해볼 수 있습니다.
+   - 재수를 계획하는 것도 한 방법일 수 있습니다.
+5. 지원 전략:
+   - 서류평가와 면접 준비에 더 많은 시간을 할애해야 합니다.
+   - 학교생활기록부에서 보여줄 수 있는 긍정적인 요소들을 강조해야 합니다.
+결론적으로, 현재 성적만으로는 최종합격이 어렵지만, 추가 공부와 전략적인 지원을 통해 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 GPA 3.7이 좋은 점수라고 언급하고 있지만, 원문에서는 3.7이 간호학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서, 응답의 일부 내용이 원문과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 GPA 3.7이 좋은 점수라고 하지만, 원문에서는 이 점수가 평균보다 낮다고 언급하고 있어 일관성이 부족합니다. 그러나 전형 요소와 면접 준비에 대한 설명은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 여러 요소를 잘 설명하고 있으며, 원문에서 제시한 정보와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 여러 요소를 체계적으로 나열하고 있으며, 논리적인 흐름을 가지고 있습니다. 그러나 일부 부분에서 원문과의 연결이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 GPA에 대한 정보가 원문과 다르게 해석되고 있으며, 이는 정확성에 영향을 미칩니다. 원문에서 제시한 평균 등급과의 비교가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 유용한 정보를 제공하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문과 관련된 내용을 적절하게 다루고 있으며, 의미적으로도 적절합니다. 그러나 일부 내용이 원문과 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.501990646511993</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수입니다만, 간호학과에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁이 매우 치열합니다. 특히 교직 간호학과는 수험생들의 학업 성적이 높은 편입니다. 따라서 3.7의 GPA는 좋은 점수지만, 평균 이상의 점수가 필요할 수 있습니다.
+2. **전형 요소**: 대부분의 전형에서는 학업 성적 외에도 면접 성적, 서류 평가 등이 포함됩니다. 특히 간호학과는 실무 능력과 인성도 중요하게 평가받습니다.
+3. **면접 및 서류 평가**: 면접에서 좋은 모습을 보여주고, 서류 평가에서도 지원 동기와 학업 계획 등을 잘 표현한다면 이점이 될 수 있습니다.
+4. **추천서 및 기타 자료**: 추천서나 추가로 제출해야 하는 자료 등도 중요합니다. 이들 자료에서 지원자의 적합성을 강조할 수 있는 부분을 잘 준비하면 도움이 될 수 있습니다.
+5. **모집인원과 경쟁률**: 간호학과의 모집 인원과 전체 지원자 수를 고려해야 합니다. 경쟁률이 높다면 3.7의 GPA로 합격하기는 어렵습니다.
+결론적으로, 3.7의 GPA만으로는 확실한 합격을 보장할 수 없습니다. 그러나 학업 성적 외에도 좋은 면접 성적과 서류 평가를 받으면 가능성이 있습니다. 따라서 다음과 같은 준비를 하는 것이 좋습니다:
+- **면접 준비**: 면접에서 지원 동기와 미래 계획 등을 잘 표현할 수 있도록 준비하세요.
+- **서류 준비**: 학업계획, 지원동기 등 서류에서도 잘 나타낼 수 있는 내용을 포함시켜 보세요.
+- **추천서 및 기타 자료**: 추천서나 추가로 제출해야 하는 자료를 잘 준비하고 제출하세요.
+이러한 요소들을 모두 고려하여 최선을 다하면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 2.58이 평균보다 높은 성적이라고 언급했으나, 생성된 응답에서는 2.58이 평균보다 낮다고 잘못 설명하고 있습니다. 또한, 지원자의 성적 평균이 353.48이라는 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 사실이 아닙니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 2.58이 평균보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하고 있습니다. 또한, 경쟁률과 지원 자격에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대해 여러 요인을 고려하여 설명하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 잘못되었기 때문에 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 가지지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 성적에 대한 해석이 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이는 전체적인 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다르게 해석되고 있습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5981454934952326</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 지원자의 성적 평균은 353.48입니다 (국어 + 수학 + 탐구(2개) 가산점 포함 표준 변환 점수 합). 
+당신의 성적이 2.58이므로, 이는 평균보다 상당히 낮습니다. 그러나 정시 모집은 단순히 성적만으로 결정되는 것이 아니라 전반적인 지원 자격과 경쟁률 등 여러 요인을 고려합니다.
+다음은 몇 가지 고려해야 할 사항입니다:
+1. 경쟁률: 간호학과의 경쟁률이 6.59로 높습니다. 따라서 성적이 낮더라도 특별한 이유가 있다면 합격 가능성은 있습니다.
+2. 지원 자격: 전문적인 의료 분야인 간호학과는 일반적으로 고등학교 졸업 자격이 필요하며, 일부 대학에서는 추가적인 요구 사항도 있을 수 있습니다.
+3. 서류 및 면접 성적: 동의대학교는 학생부 종합전형을 통해 지원자를 평가하기 때문에, 서류와 면접에서 좋은 점수를 받으면 이점을 활용할 수 있습니다.
+4. 추가 정보 제공: 특별한 경력이나 활동, 자발적인 참여 등이 있다면 이를 서류에 잘 반영하면 도움이 될 수 있습니다.
+결론적으로, 성적이 낮아서 합격 확률은 높지 않을 것 같습니다만, 전반적인 지원 자질과 경쟁 상황을 고려하여 최선을 다해 지원하는 것이 중요합니다. 추가 정보와 활동을 잘 준비하고 서류를 체계적으로 작성하면 합격 가능성도 조금은 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 잘못된 정보와 허구의 세부사항을 포함하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 다양한 점수를 제시하며 합격 가능성을 높게 평가하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 합격 가능성이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 일관성이 부족하여 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4598401450394805</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学专业(游戏工学部)录取,我们需要考虑以下几个因素:
+1. 您的综合评价排名。根据信息,该专业的预录取名额为3名。
+2. 您的成绩情况:
+   - 国语 + 数学 + 研究科目 (两门) 标准转换分数总和平均值: 303.05
+   - 英语等级的平均分: 3.25
+   - 4个高考科目等级平均分: 4.78
+3. 您是否满足该专业的其他要求,如实测/实际成绩(如果适用)。
+4. 其他申请者的竞争情况。根据信息,该专业有16名申请人,竞争比为5.33。
+综合来看:
+- 由于预录取名额有限(仅3人),您的分数处于中等偏上水平。
+- 您的成绩在所有申请者中相对较好,但不是最高分。
+- 竞争较为激烈,需要考虑其他申请者的具体情况。
+因此,虽然您有较好的机会被录取,但并不能保证一定能被录取。建议密切关注后续的正式录取结果通知,并做好备选方案。祝您好运!</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 4개 영역의 등급과 관련된 정보를 제공하고 있으며, 경쟁률과 모집 인원에 대한 구체적인 데이터를 포함하고 있습니다. 그러나 추가 합격자 수에 대한 예측은 다소 주관적이며, 원문에서 언급된 "추가 합격 몇 번을 받을지는 예측하기 어렵습니다"라는 점과는 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 추가 합격자 수에 대한 예측이 원문과 상충하는 부분이 있습니다. 원문은 예측이 어렵다고 명시했으나, 생성된 응답은 구체적인 숫자를 제시하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 수능 성적과 추가 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 데이터와 일치하는 부분이 많지만, 추가 합격자 수에 대한 예측이 다소 주관적입니다. 원문에서의 불확실성을 반영하지 못한 점이 아쉽습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 주관적인 예측이 포함되어 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 예측이 원문과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 다소 복잡하게 느껴질 수 있습니다. 명확한 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.550309547790068</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 표준점수로 보이는데, 이는 수능 4개 영역(국어, 수학, 외국어, 과탐)의 등급을 기반으로 한 것입니다.
+2024학년도 동의대학교 게임공학과의 지원 정보를 보면:
+- 모집인원: 3명
+- 지원 인원: 16명
+- 경쟁률: 5.33
+이 데이터는 현재로서는 가장 유사한 상황을 반영할 수 있습니다.
+경쟁률 5.33은 100명 중 약 19명 정도가 합격하는 것을 의미합니다 (1 / 5.33 ≈ 0.187).
+따라서, 4.16이라는 점수로 지원한다면 추가 합격을 받기 위해서는 상당히 높은 경쟁률을 이겨내야 합니다.
+추가 합격 확률을 정확하게 예측하기는 어렵지만, 다음과 같은 요인들을 고려할 수 있습니다:
+1. 다른 지원자의 성적 분포
+2. 서류평가와 면접 등의 결과
+3. 전형별 가산점 적용 여부
+일반적으로 경쟁률이 높은 학과에서는 추가 합격을 받기 어렵습니다. 하지만 최소한 5~10명 정도의 추가 합격자가 있을 가능성이 있습니다.
+결론적으로, 4.16이라는 점수로는 추가 합격 확률이 매우 낮다고 볼 수 있으며, 가장 낙관적인 경우에도 2-3명 정도를 받을 가능성이 높습니다. 정확한 예측은 지원자의 전체 경쟁력을 고려해야 하므로, 최선의 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경영정보학과의 최초등록자 데이터와 관련된 정보를 제공하지 않고, 동국대학교의 입학 기준에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과는 전혀 관련이 없으며, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트는 경영정보학과의 평균 성적에 대한 정보를 제공하는 반면, 생성된 응답은 다른 대학의 입학 기준에 대한 내용을 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 전혀 상관없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5643213081549687</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看东国大学经营信息学部在特定招生年份和批次的录取标准。根据您提供的信息，经营信息学部属于“가군 (一般学生型)”招生类别，并且该类别的录取主要基于高考成绩。
+关键点如下：
+1. **招生类型**：经营信息学部属于“가군 (一般学生型)”，这意味着它主要依据高考成绩进行选拔。
+2. **高考成绩要求**：您提到的成绩为3.75，但没有明确指出这是高考的哪个科目或总分。通常，“3.75”可能是指高考各科目的平均分数或者某种标准化后的分数。
+假设“3.75”是高考成绩的一个指标（例如，高考总分中的某个部分），我们需要知道具体的招生标准来判断是否满足条件。一般而言：
+- **가군 (一般学生型)** 的录取通常会参考高考的语文、数学、英语和综合科目等主要科目的成绩。
+- 东国大学经营信息学部的具体录取分数线每年可能会有所不同，需要查看当年的招生简章或官方公告。
+因此，要确定3.75的成绩是否足够获得第一志愿（即“최초등록자”）资格，您需要：
+1. 查看东国大学2024年经营信息学部的招生简章。
+2. 了解该学部在“가군 (一般学生型)”的具体录取分数线和标准。
+3. 确认您的成绩是否达到了这些标准。
+建议直接访问东国大学官方网站或联系招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보가 전혀 포함되어 있지 않으며, 원본 텍스트의 핵심 사실을 왜곡하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 경영정보학과의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 다른 정보를 제시하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 경영정보학과의 합격 가능성에 대한 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 점수는 4입니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다. 따라서 일관성 점수는 2입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 측면에서 매우 낮은 점수를 받았으므로, 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5146710057980539</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部在普通学生选拔（一般学生选拔）中的招生情况。
+2. 最新的录取标准和要求。
+根据您提供的信息，经营信息学部的招生情况如下：
+- 招生人数：7
+- 报名人数：67
+- 竞争率：0.87
+从这些数据来看，竞争率相对较低。但是，仅凭竞争率无法确定是否能被录取。
+关键在于您的成绩（4.2）与该专业的录取标准之间的关系。通常情况下，普通学生选拔的录取标准会包括以下几个方面：
+- 高考总分
+- 各科目的分数分布情况
+- 英语等级
+您提供的具体数据中没有提到这些详细信息。因此，我们需要假设以下几点来分析：
+1. **高考总分**：4.2通常是指高考成绩的标准化转换后的平均值。
+2. **各科目成绩**：虽然没有具体说明，但可以推测您的总分可能接近或略高于招生标准。
+为了更准确地判断您是否有可能被录取，我们需要以下信息：
+- 经营信息学部的具体录取分数线
+- 各科目的详细分数分布情况
+如果4.2的平均值位于或接近该专业的录取分数线附近，并且没有明显的短板（如英语等级过低），那么理论上是有可能被录取的。
+建议您直接咨询学校招生办公室，获取最新的具体录取标准和要求。他们可以提供最准确的信息并帮助您判断是否有机会被录取。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하고 있으며, 5.33 등급의 영어 점수를 추정하는 과정도 포함되어 있습니다. 그러나, 원본 텍스트에서 제시된 합격 가능성에 대한 명확한 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 결론이 원본 텍스트의 내용과 다소 상충할 수 있습니다. 특히, 354점의 성적이 경쟁력이 부족할 수 있다는 점은 원본의 결론과 일치하지 않으므로 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 전형 성적 산출 방법과 관련된 세부 사항을 포함하고 있어 매우 관련성이 높습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 자연스럽게 이어집니다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 산출 방법과 관련된 정보를 정확하게 제공하고 있지만, 원본 텍스트의 합격 가능성에 대한 명확한 결론이 부족하여 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 추가되어 원본의 의도와 다소 어긋날 수 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 정보가 포함되어 있어 다소 혼란스러울 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6496760826599399</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+이에 따라 5.33 등급의 영어 점수는 다음과 같이 변환됩니다:
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점
+- 10등급: 67점
+따라서, 5.33 등급의 영어 점수는 약 92점으로 추정됩니다.
+이제 전체 성적을 합산해보겠습니다:
+- 국어 표준점수 (예시로 104점)
+- 수학 표준점수 (예시로 108점)
+- 영어 등급점수: 92점
+- 탐구 표준점수 (예시로 50점)
+합산 점수 = 104 + 108 + 92 + 50 = 354점
+이 점수를 확인해보겠습니다:
+- 수능 전형성적 산출방법: 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+- 2024년도 경영정보학과 모집인원 및 지원자 수를 확인해보면, 경쟁률이 높은 편입니다.
+따라서, 354점의 성적만으로는 경쟁력이 약간 부족할 가능성이 있습니다. 하지만 최종 합격 여부는 모집인원과 지원자 수, 그리고 다른 지원자의 성적이 결정됩니다. 
+추천 드리는 것은:
+1. 다른 과목의 표준점수를 확인하여 전체 점수를 더 정확히 계산해보세요.
+2. 동의대학교 입학 홈페이지나 공지사항을 통해 최신 정보를 확인하세요.
+3. 전형별 모집인원과 지원자 수, 경쟁률 등을 참고하여 합격 가능성 평가를 해보세요.
+결론적으로, 5.33 등급의 영어 점수로는 약간 부족할 가능성이 있지만, 최종 결과는 여러 요소에 따라 결정되므로 정확한 판단을 위해서는 추가 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.82이고 수능 4개 영역 등급 평균이 4.74라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 3.30으로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 평균 성적에 대한 정보가 다르며, 경쟁률에 대한 언급도 원본 텍스트와는 관련이 없습니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 합격 가능성에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 핵심 정보와는 다소 동떨어진 내용이 포함되어 있습니다. 경쟁률과 지원 인원에 대한 정보는 관련이 있지만, 원본 텍스트의 주요 포인트와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 특히, 경쟁률과 지원 인원에 대한 정보가 원본 텍스트의 주제와 잘 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있습니다. 특히, 평균 성적에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 경쟁률에 대한 정보는 질문의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.6482321577950952</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 경우, 정원 내 모집 인원은 46명이며, 지원 인원은 21명으로 경쟁률이 2.19입니다. 최초등록자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 450.71
+- 영어 등급의 평균: 3.30
+이러한 정보를 바탕으로, 성적 3.33은 평균적인 최초등록자보다 약간 낮습니다. 그러나 경쟁률이 낮고 지원 인원이 적기 때문에, 성적이 조금 낮더라도 합격 가능성은 있습니다.
+주의할 점:
+1. 성적 외 요소: 면접 결과와 서류 평가 등에서 좋은 성적을 보여줄 수 있어야 합니다.
+2. 경쟁률: 현재의 지원자 수는 매우 적기 때문에, 다른 지원자의 성적이 낮다면 유리합니다.
+3. 전형별 특성: 학생부종합전형에서는 서류와 면접 평가가 중요하므로, 이 부분에서 좋은 점수를 받을 수 있어야 합니다.
+결론적으로, 성적 3.33은 가능성이 있지만, 경쟁률과 지원자의 다양성 등을 고려할 때 확실한 합격을 보장하는 것은 아닙니다. 최선의 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 통계 정보를 포함하고 있으며, 현재 정시 등급이 4.4인 경우 합격 가능성이 낮다는 점을 잘 반영하고 있습니다. 그러나 모집인원과 경쟁률에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 일부 정보는 추가된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 통계 정보가 원본과 일치하지 않거나 모순될 수 있는 부분이 있습니다. 예를 들어, 방사선학과의 평균 점수와 관련된 정보가 원본에 없으므로, 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 대한 질문에 대해 매우 관련성이 높습니다. 방사선학과의 입학 가능성에 대한 정보를 제공하며, 지원자가 고려해야 할 요소들을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 추가 정보가 원본과의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 통계 정보를 제공하지만, 원본 텍스트에 명시된 정보와는 다소 차이가 있을 수 있습니다. 따라서 정확성 점수는 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 추가로 인해 일관성과 정확성에서 약간의 문제가 발생합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6056771488952187</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 모집요강을 참고하면 다음과 같습니다:
+- 단과대학: 의료·보건·생활대학
+- 계열: 자연과학
+- 모집단위: 방사선학과
+- 모집인원: 2명
+수능(일반학생전형) 최종등록자에서의 통계:
+- 지원 인원: 2명
+- 경쟁률: 1.00 (즉, 완전 충원)
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합 평균: 347.50
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 461.88
+이 통계를 보면 방사선학과는 매우 경쟁률이 낮은 곳으로, 완전 충원되었습니다.
+당신의 현재 수능 등급이 4.4라면, 이 수준에서는 방사선학과에 입학하기 어려울 것으로 보입니다. 평균 점수가 347.50 이상이고, 표준 변환점수 합 평균이 461.88인 것을 고려하면, 당신의 등급은 약간 낮은 편에 속합니다.
+그러나 이는 단순 통계만으로 판단하는 것이 아니라, 개인적인 경쟁력을 종합적으로 판단해야 합니다. 다음과 같은 요소들을 고려해보세요:
+1. 수능 외 추가 평가 항목 (면접 등)
+2. 학교생활기록부의 성적 및 활동
+3. 특기사항이나 자질 등 개인적인 강점
+또한, 다른 자연과학 계열의 과정들을 고려해보는 것도 좋을 것 같습니다. 경쟁률이 낮고, 당신의 수능 점수와 잘 맞는 과정들이 있을 수 있습니다.
+결론적으로, 현재의 성적만으로 방사선학과에 입학하기는 어렵다고 판단됩니다. 다른 대안들을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 충원 합격자 수에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 관련된 정보는 왜곡되어 있습니다. 2.66이라는 점수가 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 원본에서는 2.66이 평균보다 높다고 언급했으나, 생성된 응답에서는 이를 낮은 점수로 간주하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 경쟁률과 지원에 대한 조언을 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결이 약해져 coherence가 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 2.66이라는 점수에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원본 텍스트와의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.6023581229132385</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 높고, 충원 합격자는 5명입니다. 지원 인원이 36명이므로 평균적인 경쟁률을 고려할 때, 2.66이라는 표준 변환 점수는 상대적으로 낮은 편입니다.
+평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 338.76이며, 표준 편차는 5.40입니다. 이에 비해 2.66은 상대적으로 낮습니다.
+따라서, 2.66이라는 점수로 방사선학과를 지원하는 것은 위험할 수 있습니다. 경쟁률이 높고 충원 합격 인원이 적기 때문에, 다른 모집단위나 전형을 고려해 보는 것이 좋을 것 같습니다.
+추천 사항:
+1. 다른 모집단위(예: 의료보건생활대학의 방사선학과)를 검토해 보세요.
+2. 학생부종합전형이나 특기자전형 등을 고려해 볼 수 있습니다.
+3. 추가적으로 지원 가능한 전공을 찾아보는 것도 좋습니다.
+더 자세한 정보나 도움이 필요하시면, https://ipsi.deu.ac.kr/main.do를 참조하거나 입학처에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘 반영하고 있으며, 3.66의 성적이 평균보다 높은 점수를 언급하고 있습니다. 그러나 농어촌 전형의 구체적인 평가 방식에 대한 정보는 원문에 명시되어 있지 않으므로, 일부 정보는 추가적인 해석이 필요합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 일관되며, 성적과 경쟁률에 대한 긍정적인 요소를 잘 설명하고 있습니다. 다만, 농어촌 전형의 평가 방식에 대한 추가적인 설명이 원문과는 다소 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 농어촌 전형의 평가 방식에 대한 구체적인 정보는 원문에 명시되어 있지 않아 다소 해석의 여지가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 정보의 해석에 따라 점수가 다소 낮아질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치도가 높지만, 농어촌 전형에 대한 구체적인 설명이 원문에 포함되어 있지 않아 다소 해석의 여지가 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5515571321516443</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **전형 방식**: 농어촌 전형은 일반적으로 학생부와 면접을 중점적으로 평가하는 경향이 있습니다. 따라서 성적이 좋은 경우에도 합격 가능성은 있지만, 학생부와 면접에서 좋은 평가를 받는 것이 중요합니다.
+2. **학생부 평가**: 3.66의 GPA는 꽤 좋은 점수입니다. 하지만 전공적합성과 학업역량 등 학생부 내용이 중요한 역할을 합니다. 특히 경찰행정학과와 관련된 활동이나 경험, 관심사 등을 잘 보여줄 수 있어야 합니다.
+3. **면접 평가**: 면접에서는 지원 동기, 학업 계획, 전공 적합성 등에 대해 깊이 있게 답변해야 합니다. 또한, 경찰관으로서 필요한 소양과 역량을 갖추고 있는지 평가받을 것입니다.
+4. **전형 점수**: 경찰행정학과의 경우, 학생부와 면접의 비중이 높으므로 3.66의 성적만으로는 결정적인 영향을 미치지는 않을 수 있습니다. 하지만 학생부와 면접에서 좋은 평가를 받으면 합격 가능성은 높아집니다.
+5. **경쟁률**: 경찰행정학과의 경우, 특히 농어촌 전형에서는 지원자가 많을 수 있으므로 경쟁률이 높을 가능성이 있습니다. 따라서 성적 외에도 다른 평가 요소에서 우수한 점수를 받는 것이 중요합니다.
+**추천 사항:**
+- **학생부 준비**: 학교생활기록부와 서류평가에서 경찰행정학과와 관련된 활동이나 경험을 잘 보여줄 수 있도록 준비하세요.
+- **면접 준비**: 면접에서는 지원 동기, 학업 계획, 전공 적합성 등을 깊이 있게 답변할 수 있도록 준비하세요. 특히, 경찰관으로서 필요한 소양과 역량에 대해 잘 설명할 수 있어야 합니다.
+결론적으로 3.66의 성적만으로는 확실한 합격을 보장하지는 못하지만, 학생부와 면접에서 좋은 평가를 받으면 충분히 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 여러 요소를 고려하고 있지만, 원본 텍스트에서 제공된 특정 학과 목록을 언급하지 않고 있습니다. 따라서 일부 정보가 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성을 논의하면서 여러 요소를 제시하지만, 원본 텍스트의 특정 학과 목록과는 일치하지 않습니다. 이로 인해 일관성이 떨어져 3점을 부여합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 특정 학과 목록을 언급하지 않아 약간의 관련성이 떨어집니다. 따라서 4점을 부여합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 5점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 4점을 부여합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 사실(특정 학과 목록)을 반영하지 않아 정확성이 떨어집니다. 따라서 3점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 작성되었지만, 원본 텍스트와의 연결이 부족하여 전반적인 품질이 약간 떨어집니다. 따라서 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있지만, 원본 텍스트의 특정 세부사항을 포함하지 않아 약간의 부적절함이 있습니다. 따라서 4점을 부여합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 5점을 부여합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4434621710665937</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 그러나 정시 합격 가능성을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **전형 유형**: 수능 위주인 전형이라면, 수능 점수가 중요합니다.
+2. **모집 인원과 지원자 수**: 모집 인원이 적고 지원자가 많으면 경쟁률이 높아지므로 낮은 순위도 합격 가능성 있습니다.
+3. **개별 성적**: 자신의 수능 성적이 어느 정도인지, 전형요소 반영비율을 고려할 때 얼마나 높은 점수를 받았는지를 확인해야 합니다.
+4. **동점자 처리 기준**: 동점자 처리 기준이 무엇인지도 중요합니다. 예를 들어, 수능 국어나 수학 등 특정 영역의 성적이 우선적으로 평가될 경우, 높은 순위라도 합격할 가능성이 있습니다.
+5. **전형별 특성**: 각 전형별로 다른 요소들이 반영되므로, 해당 전형의 특성을 잘 이해하고 있어야 합니다.
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 하지만 25번은 상당히 높은 순위이므로, 합격 가능성은 낮다고 볼 수 있습니다. 그러나 최종 결과는 입학처에서 발표하는 공고를 통해 확인해야 합니다.
+추가적으로 원서 제출 후에는:
+- **수능 성적 확인**: 수능 성적이 나왔다면 이를 잘 활용해보세요.
+- **면접 준비**: 면접이 포함된 전형이라면 면접 준비도 필요합니다.
+- **추천서 작성**: 필요한 경우 추천서를 작성하고 제출하세요.
+입학처 홈페이지나 입학 안내 센터에서 추가 정보를 확인하시거나, 학교 측에 직접 문의해보는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트에서 명시된 사실과 상충합니다. 원본 텍스트는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있지만, 생성된 응답은 법경찰행정학부에 대한 모집 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 법경찰행정학부가 존재하지 않는다고 명시하고 있으나, 생성된 응답은 법경찰행정학부에 대한 정보를 제공하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본 텍스트는 경찰행정학과에 대한 성적 기준을 다루고 있지만, 생성된 응답은 법경찰행정학부에 대한 정보로 초점을 맞추고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 구조적으로 일관성이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 정보가 잘 정리되어 있으나, 주제와의 불일치로 인해 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 법경찰행정학부의 존재 여부에 대한 잘못된 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다. 법경찰행정학부에 대한 정보는 원본 텍스트의 주제와 맞지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 이해도가 저하됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7214733064863376</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집인원과 전형별 모집인원을 살펴보면 다음과 같습니다:
+1. **전형별 모집단위별 모집인원**에서:
+   - 단과대학은 법경찰행정학부이며,
+   - 모집단위는 법학과이며,
+   - 정원 내 모집 인원은 40명입니다.
+2. **정시모집군 변경**에서:
+   - 2023년도에는 '가'군이었으나, 
+   - 2024년도에는 '다'군으로 변경되었습니다.
+3. **전형요소 반영비율**에서:
+   - 학생부교과(학생부교과 위주): 70%
+   - 면접: 30%
+4. **나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원**에서:
+   - 법학과는 최대선발 가능 인원이 3명 이내입니다.
+5. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**에서:
+   - 모집단위는 법경찰행정학부이며,
+   - 전형명은 학생부종합(성인학습자(정원외)전형)입니다.
+   - 모집인원은 17명입니다.
+6. **나군 학생부종합 평가영역**에서:
+   - 공동체역량: 140점
+   - 학업역량: 280점
+   - 전공적합성: 280점
+이러한 정보를 종합하면, 법경찰행정학부의 정시 모집인원은 40명으로 많지만, 나군 성적 기준을 고려할 때 안정적인 합격을 위해서는 평균적으로 **95점 이상**의 국어, 수학, 영어 등급이 필요할 것으로 예상됩니다. 
+특히, 면접 비중이 30%인 점을 감안하면, 성적 외에도 인성 및 전공 적합성을 잘 보여줄 수 있는 준비가 필요합니다.
+따라서, **95점 이상의 평균 등급**을 받으면 안정적인 합격 가능성이 높아지며, **100점 이상의 평균 등급**을 받으면 문 닫고 들어갈 수 있을 정도로 높은 확률이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 아동학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 아동학과의 영어 등급 평균이 6.33이고, 수능 4개 영역 등급 평균이 7.08이라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 4.53으로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 아동학과에 대한 정보를 제공하고 있으며, 생성된 응답은 보육가정상담학과에 대한 정보로 전환되었지만, 이 과정에서 원본의 핵심 정보를 왜곡하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 주제와는 다소 동떨어져 있습니다. 원본 텍스트는 아동학과에 대한 합격 가능성을 다루고 있으며, 생성된 응답은 보육가정상담학과에 대한 조건을 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 주제가 바뀌면서 논리적 연결이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 아동학과의 평균 등급에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 주제의 관련성도 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 보육가정상담학과에 대한 정보가 아동학과와의 연결 없이 제공되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제의 전환으로 인해 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.7268088186804733</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 모집요강을 보면, 일반학생전형은 수능 성적과 학생부 성적이 반영되며, 특히 수능 영어 등급이 중요한 역할을 합니다. 
+현재 제공된 정보에 따르면:
+- 수능 영어 등급의 평균은 4.53입니다.
+- 수능 영어 등급의 표준 편차는 1.01입니다.
+정시 산출 등급이 5.33인 경우, 이는 대략 6등급 정도를 의미합니다. 동의대학교 보육가정상담학과의 영어 등급 평균은 4.53이며, 표준 편차는 1.01입니다.
+영어 등급이 6등급인 경우는 약 1.27 표준편차 이상 높은 수준으로, 이 정도로 높은 점수를 얻기 위해서는 상당한 영어 실력이 필요합니다. 
+따라서 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격하기 위해서는 다음과 같은 조건들이 충족되어야 합니다:
+1. 수능 영어 점수가 높아야 합니다 (대략 6등급 이상).
+2. 다른 수능 영역에서도 좋은 성적을 받은 경우 더 유리합니다.
+3. 학생부 성적이 우수해야 합니다.
+따라서 정시 산출 등급이 5.33인 경우, 보육가정상담학과에 합격할 가능성은 있지만 확실하지 않습니다. 최종 합격 여부는 수능 점수와 학생부 성적 등 다양한 요소들이 복합적으로 결정됩니다.
+추가 정보나 자세한 분석을 원하시면, 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 충원 합격자 발표 및 등록 일정에 대한 정보를 잘 반영하고 있으며, 예비 12번에 대한 합격 가능성에 대한 설명도 적절합니다. 그러나 일부 세부사항이 원본 텍스트와 다소 차이가 있을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 다만, 일부 추가적인 정보가 포함되어 있어 약간의 불일치가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 충원 합격자 발표 일정과 관련된 정보도 정확합니다. 다만, 일부 세부사항에서 약간의 차이가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.8022333911604467</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 각 모집단위별로 최종 등록자와 충원 합격자를 발표하며, 충원 합격은 여러 차례 이루어질 수 있습니다. 예비 12번을 받았다는 것은 해당 지원자가 이미 일부 충원 과정에서 선발 대상에 포함되어 있다는 것을 의미합니다.
+다음과 같은 절차와 정보를 참고하여 합격 가능성 평가를 해볼 수 있습니다:
+1. **최종 등록자 발표**: 2024년 2월 2일 금요일 14:00에 최초 합격자를 발표합니다.
+2. **등록금 납부 및 충원 합격자 발표**:
+   - 1차 충원 합격자는 2월 7일 수요일부터 13일 화요일까지 등록 가능하며, 2월 14일 목요일 09:00에 1차 충원 합격자를 발표합니다.
+   - 2차 충원 합격자는 2월 15일 목요일 09:00부터 16:00까지 등록 가능하며, 2월 15일 목요일 09:00에 2차 충원 합격자를 발표합니다.
+   - 3차 이후 충원 합격자는 개별 전화 통보를 통해 발표되며, 2월 15일 목요일 19:00부터 2월 20일 화요일까지 가능합니다.
+이러한 일정을 고려하면, 예비 12번을 받았다는 것은 이미 선발 대상에 포함되어 있다는 것을 의미합니다. 그러나 최종 합격 여부는 등록금 납부와 충원 합격자 발표를 통해 확인해야 합니다.
+따라서, 현재 상황에서 가장 중요한 절차는 2월 7일부터 13일까지의 등록 기간 동안 등록금을 납부하고, 2월 14일과 15일에 충원 합격자 발표를 확인하는 것입니다. 만약 이 과정에서 예비 12번이 최종 합격자로 선발되면 합격할 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 공지사항을 통해 최신 정보를 확인하시고, 필요하다면 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75의 영어 등급에 대한 설명을 제공하지만, 유아교육학과에 대한 구체적인 수능 성적 기준을 명확히 반영하지 않고 있습니다. 원본 텍스트에서는 유아교육학과의 평균 수능 성적이 4.18로, 4.75로 지원하기 어려울 것이라고 명시되어 있습니다. 이 점에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원하기 위한 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트의 명확한 결론과는 일치하지 않습니다. 원본 텍스트는 4.75의 성적이 유아교육학과에 지원하기 어려운 점을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 지원하기 위한 다양한 요소를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 수능 성적 기준에 대한 명확한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 차이가 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 지원하기에 충분하다고 주장하지만, 원본 텍스트에서는 이 성적이 지원하기 어려운 점을 명확히 하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 측면에서 유용한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6941705341055646</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75의 영어 등급은 상당히 높은 점수입니다. 대부분의 대학에서 이 정도의 영어 등급은 좋은 성적을 보여줍니다. 그러나 유아교육학과에 지원할 때, 수능 성적이 단순히 고려되는 것이 아니라 전반적인 학생 평가를 포함하기 때문에 다음과 같은 요소들을 고려해야 합니다:
+1. **전체 수능 점수**: 4.75는 영어 등급이지만, 다른 과목(국어, 수학, 탐구)의 성적도 중요합니다. 전체적으로 높은 수능 점수가 있다면 유리할 것입니다.
+2. **수능 변환점수 평균**: 4.75는 상당히 높은 등급이므로, 다른 지원자들의 평균 점수와 비교하여 어느 정도 위치하는지 확인해야 합니다. 만약 평균보다 높다면 유리할 수 있습니다.
+3. **경쟁률**: 유아교육학과의 경쟁률을 고려해야 합니다. 4.75의 영어 등급만으로는 충분하지 않을 수도 있으며, 다른 지원자들의 전반적인 성적도 중요합니다.
+4. **전형 방식**: 유아교육학과는 종종 인성 및 교육적 적합성을 중시하기 때문에 학생부와 면접 등의 서류평가가 중요한 역할을 합니다. 따라서 수능 점수 외에도 학생부 성적, 활동 등이 중요합니다.
+5. **학생부 성적**: 고등학교 시절의 성적이 좋다면 이점도 있습니다. 특히 사회 과목이나 교육 관련 과목에서 높은 성적을 보여주면 유리할 수 있습니다.
+결론적으로 4.75의 영어 등급만으로는 유아교육학과에 충분히 지원 가능하지만, 전반적인 성적이 좋고 학생부와 면접에서도 좋은 평가를 받는다면 더 높은 확률을 얻을 수 있습니다. 따라서 전체적인 상황을 고려하여 지원 계획을 세우는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.16 등급이 좋은 점수라는 점과 합격 가능성이 있다는 점을 언급하고 있으며, 경쟁률과 모집인원에 대한 정보도 제공하고 있습니다. 그러나, 원문에서 제공된 평균 등급에 대한 정보가 누락되어 있어 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 언급된 내용과 대체로 일치합니다. 다만, 경쟁률과 모집인원에 대한 추가적인 정보가 포함되어 있어 약간의 차이가 있지만, 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공하고 있으며, 합격 가능성에 대한 분석을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 더 매끄러운 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 평균 등급에 대한 구체적인 수치가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치가 높지만, 일부 세부 사항에서 원문과의 차이가 있어 완전한 의미적 적합성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5949160751344161</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>4.16 등급은 상당히 좋은 점수입니다. 하지만, 동의대학교 보육가정상담학과의 정시 경쟁률과 모집인원을 고려하면 다음과 같은 점들을 주목해야 합니다:
+1. 경쟁률:
+   - 2024학년도 지원자 중에서 상당수가 4.16 이상의 등급을 가지고 있을 가능성이 높습니다.
+   - 이는 평균 경쟁률이 높아질 수 있음을 의미합니다.
+2. 모집인원:
+   - 보육가정상담학과의 모집인원은 7명입니다.
+3. 지원자 수:
+   - 최종 등록자 중에서 지원 인원이 32명으로, 경쟁률이 약 4.57입니다.
+   - 이는 현재 지원자 수로는 상대적으로 낮지만, 추합까지 포함하면 변동성이 있을 수 있습니다.
+4. 합격 예상:
+   - 4.16 등급은 평균 이상의 점수이므로 충분히 합격 가능성은 있습니다.
+   - 하지만 경쟁률과 모집인원을 고려할 때, 상위권 지원자들 사이에서 치열한 경쟁이 예상됩니다.
+5. 추합 영향:
+   - 추후 추가 지원자가 있을 경우 경쟁률이 높아질 수 있으므로 주의가 필요합니다.
+   - 특히 4.16 이상 등급을 가진 지원자들이 많이 참여할 가능성이 있습니다.
+결론적으로, 4.16 등급은 합격 가능성은 있지만, 확실한 것은 아닙니다. 추합까지 포함하면 경쟁률이 높아질 수 있으므로, 추가 지원자들의 등급과 경쟁력을 고려해야 합니다. 
+추천 사항:
+- 다른 전형(예: 특기자전형, 학생부종합전형)도 함께 준비하는 것이 좋습니다.
+- 대학 입학처에 직접 문의하여 최신 정보를 확인하세요.
+- 지원자의 등급 분포와 경쟁률을 정확히 파악하기 위해 대입 컨설팅 서비스를 활용해 보세요.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 나군 학생부종합전형에 대한 구체적인 조건은 원문에 명시되어 있지 않으므로, 이 부분은 추가적인 정보로 간주할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되며, 정시 지원이 불가능하다는 점을 명확히 하고 있습니다. 다만, 나군 학생부종합전형에 대한 추가 정보가 포함되어 있어 약간의 일관성 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 정시 지원 불가능성에 대한 설명과 나군 전형에 대한 정보는 모두 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 나군 전형에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하며, 나군 전형에 대한 조건도 일반적으로 타당합니다. 그러나 구체적인 수치는 원문에 포함되어 있지 않으므로, 이 부분은 주의가 필요합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 높은 품질을 보여줍니다. 사실성, 일관성, 관련성, 정확성 모두 양호하지만, 약간의 개선 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 추가된 정보도 적절합니다. 그러나 원문에 없는 세부 사항이 포함되어 있어 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 일부 문장에서 정보가 다소 복잡하게 제시되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.5008243028189933</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프거우리융합학과는 나군(학생부종합전형)으로만 모집되며, 정시모집은 없습니다. 따라서 소프트웨어융합학과를 정시로 지원하는 것은 불가능합니다.
+나군 학생부종합전형의 경우 평균 등급에 따라 합격 가능성이 달라질 수 있습니다. 일반적으로 합격을 위해서는 다음과 같은 조건이 필요할 것으로 예상됩니다:
+1. 국어: 90점 이상
+2. 수학: 85점 이상 (미적분 또는 기하)
+3. 영어: 4등급 이상
+하지만 이는 단순 참고이며, 실제 합격 가능성을 판단하기 위해서는 해당 대학의 전형요소 반영비율과 서류 및 면접 평가 기준 등을 고려해야 합니다. 또한, 지원자의 개인적 특성(공동체역량, 학업역량, 전공적합성 등)도 중요한 요인으로 작용할 수 있습니다.
+따라서 정확한 등급 예상은 해당 대학의 모집요강과 평균 합격자 성적을 참고하여 판단하는 것이 좋습니다. 또한, 지원 전에 입학처나 입학사정관과 상담해보는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 포함하고 있지만, 원본 텍스트에서 언급된 "학생부 교과성적"에 대한 언급이 부족합니다. 또한, "학생부종합(조기취업형계약학과전형)"이라는 용어는 원본 텍스트에 명시되어 있지 않아 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 평가 방식과 관련된 정보를 제공하지만, "학생부 교과성적"에 대한 언급이 없고, "조기취업형계약학과전형"이라는 새로운 개념이 추가되어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 서류 평가와 면접 고사에 대한 구체적인 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항을 누락하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 관계에서 부족한 점이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 일부 용어가 원본 텍스트와 일치하지 않아 약간의 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 독자가 내용을 따라가기에 다소 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.522647945481627</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>학생부종합(조기취업형계약학과전형)의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 세특 내용은 서류평가에서 중요한 역할을 합니다.
+1. **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성 등에 대한 질문이 주어집니다. 지원자의 답변 내용과 태도가 중요합니다.
+2. **서류 평가 (세특 내용)**: 서류평가에서 세특 내용은 학생의 전공 적합성을 판단하는 중요한 요소입니다. 세특 내용을 많이 보는 이유는 다음과 같습니다:
+   - **학업역량**: 고교 생활 중 학업에 대한 어려움과 해결 방안, 문제해결 능력 등을 설명합니다.
+   - **전공적합성**: 지원자가 어떤 교내 활동을 통해 해당 전공에 관심을 가지고 준비했는지, 관련 경험과 활동 내용 등을 설명합니다.
+**세특 내용 준비 방법:**
+1. **학업역량**: 고교 생활 중 학업에서 겪은 어려움과 이를 극복한 경험, 그리고 이를 해결하기 위해 노력한 방식을 구체적으로 작성해야 합니다.
+2. **전공적합성**: 지원자가 어떤 활동을 통해 해당 전공에 관심을 가지고 준비했는지, 관련 활동 내용, 성취감 등을 설명합니다.
+**서류 제출 시 주의사항:**
+- **진실성**: 세특 내용은 진실성을 유지해야 합니다. 허위 정보를 기재하면 합격 취소 등의 결과가 있을 수 있습니다.
+- **구체적 사례**: 구체적인 사례와 경험을 통해 자신의 능력을 입증하는 것이 중요합니다.
+**추천 준비 방법:**
+1. **사전 계획**: 지원 전공과 관련된 활동, 성취, 그리고 학업에서의 어려움 등을 미리 정리해둡니다.
+2. **구체적인 사례 작성**: 구체적인 사례를 통해 자신의 능력을 입증하는 내용을 작성합니다.
+3. **교사 의견 반영**: 가능하다면 교사의 의견이나 평가를 함께 기재하면 더 신뢰성이 높아집니다.
+이러한 준비를 통해 지원자의 전공 적합성과 학업역량을 효과적으로 보여줄 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 2024학년도 수능 최초합격자의 평균 성적에 대한 정보를 잘못 해석하고 있으며, 잘못된 수치(325.15)를 제시하고 있습니다. 이는 원본 텍스트와 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 서로 다른 정보를 제공하고 있습니다. 특히, 평균 성적에 대한 잘못된 수치로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다. 원본 텍스트의 내용과는 다른 방향으로 논의하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제 전환이 자연스럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 평균 성적에 대한 수치가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받고 있습니다. 원본 텍스트와의 불일치로 인해 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히, 잘못된 수치와 정보로 인해 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성 부족으로 인해 혼란스러울 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.4917907716126225</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取标准**：根据提供的信息，我们可以看到该专业的录取情况。例如：
+   - 国语 + 数学 + 探究(2个) (加权分) 标准转换分数总和的平均值为 325.15。
+   - 英语等级的平均分为 3.18。
+2. **你的成绩**：国语 + 数学 + 探究(2个) (加权分) 的标准转换分数总和是4.08，英语等级没有具体给出，但假设为平均水平（例如3.5）。
+3. **比较与分析**：
+   - 你提供的成绩（4.08）高于已知的平均值（325.15），这表明你的成绩在该专业中处于较高水平。
+   - 英语等级方面，虽然没有具体数值，但假设为平均水平3.5也略高于已知的平均值（3.18）。
+综合来看，你的成绩看起来比已知的最高录取者的分数要高。因此，在其他条件相同的情况下，你有可能被该专业录取。
+但是需要注意的是：
+- 录取结果还取决于具体的招生政策、竞争情况以及其他因素。
+- 东国大学可能会有更严格的录取标准或额外的要求。
+建议你可以参考以下步骤进行准备和申请：
+1. **详细了解最新的招生信息**：包括具体的录取分数线、加权分计算方法等。
+2. **准备充分的材料**：确保所有提交的文件准确无误，特别是成绩单和其他相关证明。
+3. **参加模拟面试**：如果需要面试的话，提前做好准备。
+综上所述，在成绩方面你有很大的机会被东国大学软件工程学部录取。建议进一步关注学校的具体招生信息并做好充分准备。</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 실제로는 해당 정보가 제공된 컨텍스트에 포함되어 있지 않다는 점을 무시하고 있습니다. 또한, 제시된 점수와 등급이 실제 입시 기준과 일치하는지에 대한 근거가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(정원 외 모집인원, 지원 인원 등)를 포함하고 있으며, 이는 원본 텍스트의 내용과 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 입시와 관련된 정보를 제공하고 있지만, 원본 텍스트에서 요구하는 구체적인 합격 등급 정보와는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 특히, 점수와 조언 부분이 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(정원 외 모집인원, 지원 인원 등)를 포함하고 있으며, 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 정보가 포함되어 있어 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.5461057190314399</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과의 경우, 정원 외 모집인원은 7명이며, 지원 인원이 30명으로 높은 경쟁률을 보이고 있습니다. 평균적으로 서류평가와 면접평가를 종합해보면 다음과 같은 점수대가 필요할 것으로 예상됩니다:
+1. **서류평가 영역**:
+   - 공동체역량: 84점 (5등급)
+   - 학업역량: 168점 (5등급)
+   - 전공적합성: 168점 (5등급)
+2. **면접평가 영역**:
+   - 학업역량: 139.5점 (4등급)
+   - 전공적합성: 84점 (5등급)
+따라서, 평균적으로 5등급을 받는 것이 필요할 것으로 보입니다. 하지만 이는 단순히 점수만으로 판단하는 것이 아니라, 서류와 면접 모두에서 꾸준한 노력과 적절한 답변이 요구됩니다.
+**추천 조언:**
+- **서류 준비**: 학업역량과 전공적합성에 대한 구체적인 사례를 잘 준비하고, 공동체역량에서도 협력과 배려의 모습을 보여주어야 합니다.
+- **면접 준비**: 지원동기와 학업계획, 학업역량 및 전공적합성에 대해 명확하게 답변할 수 있도록 준비해야 합니다.
+이러한 점들을 고려하면 5등급으로는 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 하지만 최종 결정은 입학사정관의 평가 결과에 따라 달라질 수 있으므로, 철저한 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 정보와 동의대학교 신소재공학과의 입학 가능성에 대한 판단을 포함하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교할 때, 4.28이라는 성적이 평균보다 낮다는 점을 간과하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 4.28이라는 성적이 평균보다 높다고 언급한 부분은 원본 텍스트와 모순됩니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 신소재공학과의 입학 가능성에 대한 다양한 요소를 고려하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 4.28이라는 성적이 평균보다 높다고 잘못 언급하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.570240685367711</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 B+ 정도로, 좋은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 수능 성적뿐만 아니라 전반적인 학업 역량과 전공 적합성 등을 고려해야 합니다.
+2024년도 동의대학교 신소재공학과의 최종 등록자들의 성적 분포를 보면:
+- 모집 인원: 56명
+- 지원 인원: 81명
+- 경쟁률: 1.45
+- 충원 합격 (후보순위): 25명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64였습니다.
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 378.15였습니다.
+이러한 데이터를 바탕으로, 4.28이라는 영어 등급만으로는 확실하게 입학할 수 있는 보장은 없습니다. 하지만 다음과 같은 요소들을 고려하면 도움이 될 수 있습니다:
+1. **전반적인 학업 성적**: 4.28의 영어 등급 외에 다른 과목들의 성적이 높다면 이점이 됩니다.
+2. **수능 점수**: 평균적으로 378.15라는 수준의 점수가 필요하므로, 수능 점수가 좋은 경우 더 유리합니다.
+3. **전공 적합성**: 신소재공학과와 관련된 활동이나 경험을 가진다면 이점이 될 수 있습니다.
+따라서 4.28이라는 영어 등급만으로는 확실한 입학 보장은 어렵지만, 전반적인 성적과 활동 경험이 좋은 경우에도 충분히 가능할 수 있습니다. 
+추가적으로, 동의대학교의 학생부 종합 평가를 고려하면, 학업 태도와 열정, 그리고 관련 활동 경험 등을 잘 보여줄 수 있다면 더 큰 기회를 얻을 수 있을 것입니다.
+결론적으로, 4.28이라는 영어 등급만으로는 확실한 입학은 어렵지만, 전반적인 성적과 활동 경험이 좋은 경우에도 충분히 가능할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 주장을 지속적으로 지지하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 전체적으로 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6638559287961958</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능(일반학생전형)에서는 자기소개서 제출이 필요하지 않습니다. 
+- **제출서류**: 제출서류는 없습니다 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음).
+따라서 수능(일반학생전형)으로 지원할 때 자기소개서 작성은 필요하지 않습니다. 다만, 학생부 온라인 제공을 동의하는 경우 학생부가 함께 제출됩니다.
+자기소개서 대신, 수능 점수와 교과 성적 등이 주요 평가 요인이 될 것입니다. 따라서 수능 및 교과 성적이 뛰어나게 준비해두시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.5에 대한 합격 가능성을 평가하기 위해 고려해야 할 여러 요소를 잘 설명하고 있습니다. 그러나, 일부 세부 사항이 원본 텍스트와 완전히 일치하지 않거나 추가적인 정보가 필요할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 그러나, 특정 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나, 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나, 특정 수치나 세부 사항에서 약간의 차이가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나, 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 부분에서 더 간결하게 표현할 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.6116315149130748</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 전형방법:
+   - 인문사회과학대학, 상경대학 등에서 일반학생전형으로 지원하셨다면, 수능 점수 4.5는 충분히 경쟁력을 갖추고 있습니다.
+   - 추가모집에서도 같은 기준을 유지할 것으로 보이므로 가능성이 있습니다.
+2. 모집인원과 지원자 수:
+   - 각 모집단위의 모집인원과 실제 지원자 수를 확인해야 합니다.
+   - 지원자가 많다면 경쟁률이 높아져 합격 가능성은 낮아질 수 있습니다.
+3. 평균점수와 표준편차:
+   - 제공된 데이터에서 각 단과대학의 평균 점수와 표준편차를 확인하여, 4.5가 어느 위치에 있는지 파악해야 합니다.
+   - 예를 들어, 인문사회과학대학의 평균이 3.8이고 표준편차가 0.6이라면 4.5는 상당히 높은 점수입니다.
+4. 경쟁률:
+   - 각 모집단위별로 실제 경쟁률을 확인해야 합니다.
+   - 경쟁률이 낮다면 합격 가능성은 높아지지만, 높다면 낮아질 수 있습니다.
+5. 기타 평가 요소:
+   - 실기/실적, 면접 등 다른 평가 항목의 점수도 고려해야 합니다.
+   - 학생부 종합평가 결과도 중요한 역할을 할 수 있습니다.
+6. 추가모집 특성:
+   - 일부 대학은 추가모집에서 일반학생전형보다 더 유리한 조건을 제공하기도 합니다.
+결론적으로, 4.5라는 점수는 좋은 기반을 제공하지만, 최종 합격 여부는 여러 요소에 따라 달라질 수 있습니다. 정확한 확률을 알기 위해서는 위의 요소들을 종합적으로 고려해야 합니다. 추가모집 정보를 확인하고, 해당 대학의 공식 입학처 웹사이트나 전화로 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 합격 기준에 대한 정보를 제공하고 있으며, 수능 성적의 중요성과 반영 영역에 대한 설명이 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급에 대한 구체적인 수치는 언급되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 신소재공학과의 합격 가능성을 높이기 위한 성적 기준을 제시하고 있습니다. 다만, 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 합격 기준에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 수능 성적과 관련된 세부 사항을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 주제에 대한 명확한 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 합격 기준에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 수치가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 평균 등급 수치의 누락으로 인해 약간의 점수 하락이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6609061341072444</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 신소재공학과에 대한 정확한 합격 기준을 알기 위해서는 여러 요인을 고려해야 합니다. 하지만 일반적으로 수능 성적, 모집단위 및 전형 방식 등을 바탕으로 추정할 수 있습니다.
+신소재공학과는 ICT융합공과대학의 일부로, 정시모집에서는 주로 수능 성적이 중요한 역할을 합니다. 2024년도 동의대학교의 경우, 수능 반영 영역은 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합)이며 각 영역은 25%씩 반영됩니다.
+신소재공학과와 유사한 전공 분야를 가진 다른 대학의 경우, 일반적으로 수능 성적은 다음과 같습니다:
+- 국어: 4등급 이상
+- 수학: 미적분 또는 기하 중 하나에서 3등급 이상
+- 영어: 4등급 이상 (특정 모집단위에서는 5등급이 요구될 수도 있음)
+- 탐구 과목: 사회탐구 또는 과학탐구 중 2개 과목을 선택하여 각각 3등급 이상
+이러한 기준을 고려하면, 신소재공학과에 합격하기 위해서는 다음과 같은 수능 성적을 갖추어야 할 것으로 추정됩니다:
+- 국어: 4등급
+- 수학: 미적분 또는 기하 중 하나에서 3등급 이상
+- 영어: 4등급 이상
+- 탐구 과목: 사회탐구 또는 과학탐구 중 2개 과목을 선택하여 각각 3등급 이상
+이러한 성적이 기본적인 수준이며, 경쟁률과 모집인원 등을 고려하면 더 높은 등급을 갖추는 것이 유리할 것입니다. 하지만 정확한 합격 기준은 매년 변동될 수 있으므로, 최신 정보를 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 가장 좋습니다.
+https://ipsi.deu.ac.kr/main.do
+이 링크를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 없고, 448점이라는 수치는 출처에서 제공된 378.15점과 관련이 없습니다. 따라서, 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수와 관련된 정보가 없으며, 447점이 작년보다 낮다고 언급하고 있지만, 출처에서는 447점이 평균 점수보다 높다고 명시하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 여러 요인을 설명하고 있지만, 출처의 핵심 정보인 평균 점수와의 직접적인 연관성이 부족합니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 출처와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 448점이라는 수치를 제시하지만, 이는 출처의 정보와 일치하지 않으며, 정확한 사실을 반영하지 않습니다. 
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 출처의 정보와는 다소 동떨어져 있어 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6845483810634155</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 448점으로 작년에 비해 약간 높았다면, 이는 다음과 같은 요인들로 인한 가능성입니다:
+1. 경쟁률 변화: 작년보다 지원자가 더 많아져 경쟁률이 상승했을 가능성이 있습니다.
+2. 수능 성적 변동: 전체 지원자의 수능 성적이 약간 높아졌다면 평균 점수가 상승할 수 있습니다.
+3. 모집인원 변화: 작년보다 모집 인원이 줄어들었을 경우, 같은 수의 합격자를 선발하려면 더 높은 점수를 요구해야 했습니다.
+4. 충원 합격자 성적 변동: 작년보다 충원 합격자의 평균 성적이 높아졌다면 이에 영향을 받을 수 있습니다.
+5. 입학사정관 심사 결과: 일부 지원자가 더 우수한 서류평가나 면접 점수를 얻어 선발되었을 수도 있습니다.
+6. 전형 요소 비중 변화: 작년과 비교해 서류평가, 면접 등 다른 평가 요인의 비중이 달라졌다면 이에 따라 결과가 변동될 수 있습니다.
+따라서 447점으로 환산된 점수가 작년보다 약간 낮은 경우에도 최종 평균 점수가 448점으로 높게 나올 가능성이 있습니다. 하지만 확실한 예측은 어렵고, 실제 결과는 여러 요인에 따라 달라질 수 있으므로 정확한 정보를 얻기 위해서는 동의대학교 입학처나 공식 홈페이지를 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 전형 방법과 성적 기준에 대한 정보를 포함하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나, 원본 텍스트에서 제공된 평균 성적 데이터는 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전형 방법과 관련된 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 성적 산출 방식에 대한 설명이 원본 텍스트와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학부의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 전형 방법과 성적 향상에 대한 조언도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 원본 텍스트와의 연결이 다소 약해질 수 있는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 전형 방법과 관련된 정보를 제공하고 있지만, 원본 텍스트의 평균 성적 데이터는 포함되어 있지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 조언과 정보를 제공합니다. 다만, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5739769609014491</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이 예상대로 4.1~4.2등급으로 산출된다면, 신소재공학과의 경우 다음과 같은 점들을 고려해야 합니다:
+1. **전형방법**: 
+   - 일반학생전형은 주로 수능성적을 기준으로 합니다.
+   - 2024년도에 신소재공학과는 전형요소 반영비율이 수능 25% + 탐구 25% + 영어 25% + 학교생활기록부 25%로 구성되어 있습니다.
+2. **수능성적**:
+   - 국어, 수학, 영어 등급은 중요합니다.
+   - 특히 수학과 영어는 신소재공학과에서 중요한 역할을 합니다.
+3. **등급대비 선발인원**:
+   - 4.1~4.2등급의 성적은 경쟁률이 높을 가능성이 있습니다.
+   - 지원 인원과 모집인원에 따라 실제 합격 가능성은 다를 수 있습니다.
+4. **추천사항**:
+   - **수능성적 향상**: 마지막 기회라도 수능 공부를 더 열심히 해보세요. 특히 수학과 영어는 점수를 높이는 데 집중할 필요가 있습니다.
+   - **학교생활기록부 작성**: 학교생활기록부에서 긍정적인 활동이나 성과를 잘 기재해 보세요. 이 부분은 서류평가에서 중요한 역할을 합니다.
+   - **면접 준비**: 면접에서도 자신의 열정과 전공적합성을 잘 표현해야 합니다.
+5. **예상 경쟁률**:
+   - 2024년도 신소재공학과의 모집인원은 32명이고, 지원 인원이 많을 것으로 예상됩니다.
+   - 예를 들어, 지원 인원이 100명이라면, 선발 가능 인원(32명)에 비해 경쟁률이 높아질 수 있습니다.
+결론적으로, 4.1~4.2등급의 성적은 신소재공학과에서 합격하기 어렵지 않지만, 경쟁률이 높고 지원 인원이 많을 경우 낮은 확률일 수도 있습니다. 마지막까지 최선을 다해 준비하고, 가능하다면 추가로 수능 공부를 하여 성적을 향상시키는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 성적 정보를 잘못 전달하고 있으며, 평균 점수와 표준 편차가 모두 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 예를 들어, 평균 점수와 표준 편차가 원본과 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본과 일치하지 않아 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 성적 정보를 잘못 전달하고 있으며, 이는 정확성에 큰 문제를 일으킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 양호합니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.728161189262556</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자들의 성적을 살펴보면 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+이러한 성적을 바탕으로, 동의대학교 인공지능학과 수능 일반학생전형에 지원하려는 경우 다음과 같은 준비를 해보시면 좋을 것 같습니다:
+1. **국어와 수학** : 평균 점수가 높은 만큼 꾸준한 학습이 필요합니다.
+2. **영어** : 등급과 표준 변환 점수 모두 좋은 성적을 보였으므로, 영어 실력을 향상시키는 것이 중요합니다.
+3. **탐구 과목** : 평균 5.25의 등급을 보였으니, 탐구 과목 중에서 자신이 취약한 부분을 찾아서 집중적으로 공부해보세요.
+또한, 동의대학교의 수능 전형성적 산출방법은 다음과 같습니다:
+- **수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2**
+따라서, 이 방법을 참고하여 자신의 성적을 분석하고 준비하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 정보를 제공하고 있으며, 5.27 성적에 대한 충원 합격 가능성을 언급하고 있습니다. 그러나, 구체적인 학과의 평균 성적과 비교하는 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 구체적인 학과의 성적 정보를 제공하지 않고 일반적인 조언을 하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 동의대학교의 정시 성적과 관련된 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉽게 작성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 원본 텍스트의 구체적인 데이터와 비교할 때 다소 부족한 점이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전반적으로 정확한 정보를 제공하고 있으나, 구체적인 학과의 성적 데이터와 비교하는 부분이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 응답은 여러 차원에서 잘 작성되었으나, 구체적인 데이터의 부족으로 인해 일부 차원에서 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으나, 구체적인 학과 성적 정보가 부족하여 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.7054438525138358</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 동의대학교에 정시로 지원하려는 경우, 지원 가능성이 있습니다만, 확실한 것은 아닙니다. 이유는 다음과 같습니다:
+1. **단과대학 및 모집단위**: 지원하고자 하는 단과대학과 모집단위를 확인해야 합니다. 예를 들어, 인문사회과학대학의 경쟁률이 상경대학보다 높을 수 있습니다.
+2. **모집인원 및 지원인원**: 각 모집단위별로 정원 내외 모집인원과 지원인원이 다르므로, 이에 따라 경쟁률이 달라질 수 있습니다.
+3. **전형 유형**: 학생부종합, 수능(일반학생전형), 실기/실적 등 다양한 전형이 있으므로, 해당 전형의 평균 성적과 비교해야 합니다.
+4. **개인별 경쟁력**: 개인의 특성, 서류평가 결과, 면접 성적 등을 고려해야 합니다.
+5. **최종등록자 성적 분포**: 제공된 최종등록자 성적 데이터를 참고하면, 예를 들어 인문사회과학대학 사회복지학과의 경우 평균 국어+수학+탐구(2개) 표준 변환 점수 합이 420.29였습니다. 이보다 낮은 성적이더라도, 개인적인 특성이나 서류평가 등에서 우수한 점을 보여주면 가능성이 있습니다.
+따라서, 정확한 답변을 위해서는 구체적으로 어떤 단과대학과 모집단위를 지원하려는지, 그리고 해당 전형의 평균 성적과 비교해볼 필요가 있습니다. 더 자세한 정보나 조언이 필요하시다면, 동의대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 4.2라는 수능 등급이 높은 점수라는 점도 정확하게 언급하고 있습니다. 그러나, 소프트웨어공학부의 평균 등급에 대한 구체적인 수치가 언급되지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 입학 전형에 대한 정보를 제공하며, 수능 성적이 중요한 요소라는 점에서 일관성을 유지하고 있습니다. 다만, 소프트웨어공학부의 평균 등급에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 소프트웨어공학부에 지원하기 위한 여러 요소를 고려하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 등급과 관련된 정보가 정확하지만, 소프트웨어공학부의 평균 등급에 대한 구체적인 수치가 누락되어 있어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받고 있습니다. 그러나 약간의 정보 누락이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 잘 반영하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.6001646865185128</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급은 상당히 높은 점수입니다. 이 점수를 가지고 소프테이션공학부에 지원하는 것은 가능성이 있지만, 확률을 높이기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전형방법**: 동의대학교 소프트웨어공학부는 주로 수능 성적과 학생부를 종합적으로 평가합니다. 따라서 수능 점수가 높은 것은 큰 장점이 됩니다.
+2. **학생부 성적**: 교과성적이 중요하므로, 고등학교에서의 과목별 성적이 좋게 나와야 합니다. 특히 수학과 영어 등 관련 과목의 성적이 뛰어나면 더 좋습니다.
+3. **추천서 및 자기소개서**: 이 부분도 중요합니다. 추천서는 교사의 평가를 받고, 자기소개서에서는 자신의 열정과 목표를 잘 표현해야 합니다.
+4. **면접 준비**: 면접에서도 좋은 성적을 보여주어야 합니다. 관련 전공에 대한 이해와 관심을 잘 나타내야 합니다.
+5. **추천사**: 가능하다면 학교나 교사로부터의 추천서가 있다면 유리할 수 있습니다.
+6. **경쟁률**: 소프트웨어공학부는 인기 있는 학과이므로 경쟁률이 높을 수 있습니다. 따라서 최선을 다해 준비해야 합니다.
+결론적으로, 4.2라는 수능 등급은 좋은 성적입니다만, 다른 요소들도 잘 준비하고 지원해야 합니다. 꾸준한 노력과 체계적인 준비를 통해 가능성을 높일 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 4.82, 수능 4개 영역 등급 평균 5.73)를 언급하지 않고 있습니다. 또한, 응답은 동의대의 입학 기준에 대한 구체적인 정보를 제공하지 않으며, 잘못된 정보(예: "东义大学"라는 표현)를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 특정 수치와 합격 가능성에 대한 명확한 정보를 제공하는 반면, 생성된 응답은 일반적인 정보와 추측에 기반하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보(합격 가능성에 대한 구체적인 수치와 조건)를 충분히 반영하지 못하고 있습니다. 따라서 관련성은 있지만, 원본 텍스트의 주요 포인트를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 논리적으로 구성되어 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 각 요소가 독립적으로 제시되어 있어 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보(예: "东义大学")를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 부족함이 드러났습니다. 전반적으로 원본 텍스트와의 연관성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 한국어 사용자에게는 다소 혼란스러울 수 있습니다. 그러나 전반적으로 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5160122279626161</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **科目成绩**：您提到的3.92是综合成绩。通常，东义大学在计算综合成绩时会参考国语、数学（选择性科目）、英语和科学等科目的标准分或等级。
+2. **科目要求**：
+   - 化学环境工程部的一般学生招生通常需要一定的科目成绩。
+   - 一般情况下，化学相关的科目如化学、物理等可能会有较高的要求。
+3. **综合评价**：除了具体科目成绩外，还需要考虑其他因素，比如学生的整体表现、面试表现（如果有的话）以及个人陈述等。
+4. **参考往年数据**：
+   - 根据您提供的信息，化学环境工程部的一般学生招生的录取分数线通常在3.85-4.0之间。
+   - 您的成绩3.92接近这个范围，但具体是否能够被录取还需要考虑其他因素。
+综上所述，您的成绩3.92是有可能申请到东义大学化学环境工程部的一般学生的。但是，最终能否录取还需结合具体的科目要求和个人表现等因素综合判断。建议您详细查看该专业的招生简章，并咨询学校的具体要求和流程。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 반영 방법과 성적 기준에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교했을 때 일부 정보가 다소 부정확하거나 추가적인 세부사항이 부족합니다. 예를 들어, 원본 텍스트에서 제시된 평균 점수와 비교할 때, 생성된 응답은 그에 대한 명확한 언급이 없습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 일부 정보가 상충하거나 원본 텍스트의 특정 세부사항을 누락하고 있습니다. 예를 들어, 수능 4개 영역 등급 평균에 대한 언급이 없으며, 이는 원본 텍스트와의 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 지원 가능성에 대한 조언을 포함하고 있습니다. 그러나 일부 세부사항이 원본 텍스트와 직접적으로 연결되지 않아 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 전체적인 일관성을 약간 저해할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 수치와 비교했을 때 정확성이 떨어지는 부분이 있습니다. 예를 들어, 성적 기준에 대한 설명이 원본 텍스트의 수치와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 지원 가능성에 대한 조언을 잘 전달하고 있습니다. 그러나 일부 세부사항이 원본 텍스트와의 연결이 약해 의미의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6868424421330875</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학과는 수능(일반학생전형)을 통해 지원할 수 있습니다. 아래 정보를 참고하시면 도움이 될 것입니다:
+1. **수능 반영방법**:
+   - 국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합 75% 반영
+   - 영어 등급 25% 반영
+2. **성적 기준**:
+   - 4.25는 수능 4개 영역 등급 중 상위 3개 영역의 평균 등급입니다.
+   - 화학환경공학과는 공과대학에 속하므로, 수능 반영방법은 공과대학과 동일합니다.
+3. **성적 산출방법**:
+   - 국어 + 수학 + 탐구 (2개 과목) 표준 변환 점수 합의 평균이 400점 이상이어야 합니다.
+   - 영어 등급이 5등급 이상이어야 합니다.
+4. **경쟁률 및 지원자 분석**:
+   - 화학공학과, 환경공학과, 응용화학과는 각각 모집인원이 다르므로 경쟁률을 고려해야 합니다.
+   - 예를 들어, 화학공학과의 경우 모집 인원 43명에 지원 인원 102명으로 높은 경쟁률을 보이고 있습니다.
+5. **추천사항**:
+   - 수능 성적을 확인하고, 해당 학과의 모집인원과 지원 인원을 비교하여 경쟁률을 파악하세요.
+   - 추가적으로 영어 등급도 중요하므로 4등급 이상이 되도록 노력해보세요.
+6. **기타 정보**:
+   - 실기고사는 필요하지 않으므로, 수능 성적만으로 지원 가능합니다.
+   - 동점자 처리 기준을 확인하여 자신이 어떤 순위에 위치하는지 파악하세요.
+따라서 4.25의 등급은 화학환경공학과를 지원할 수 있는 범위 내에 있습니다. 하지만 경쟁률 등을 고려하여 최종 결정하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.2 등급이 낮다고 언급하고 있으며, 영화학과의 경쟁률과 실기, 창의성의 중요성을 강조하고 있습니다. 그러나 원본 텍스트에서는 4.2 성적이 합격 가능성이 있다고 판단된다고 명시하고 있어, 이 부분에서 상충하는 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 4.2 성적에 대한 해석이 상반되어 일관성이 떨어집니다. 원본에서는 합격 가능성이 있다고 했으나, 생성된 응답에서는 합격하기 어렵다고 판단하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 실기와 창의성의 중요성 등도 언급하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.2 성적에 대한 해석이 원본 텍스트와 다르기 때문에 정확성에서 다소 부족합니다. 원본에서는 합격 가능성이 있다고 했으나, 생성된 응답에서는 반대로 판단하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 다소 부족하여 완벽한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하고 있으나, 4.2 성적에 대한 해석에서 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6023539756058939</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2 등급의 성적은 영화학과의 경쟁률을 고려할 때 상당히 낮은 점수입니다. 영화학과는 예체능 분야로, 실기와 창의성도 중요하게 평가받습니다.
+현재 제공된 정보만으로는 정확한 합격 여부를 판단하기 어렵지만, 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **정시 성적**: 4.2 등급은 상대적으로 낮은 점수입니다. 평균적인 경쟁률을 감안하면 이 점수로 합격하기는 어려울 가능성이 높습니다.
+2. **실기 및 창의성**: 영화학과에서는 실기 성적뿐만 아니라 창의성, 작품 등이 중요하게 평가됩니다. 따라서 실기고사나 포트폴리오 등의 성적이 좋다면 이점은 크게 작용할 수 있습니다.
+3. **전형별 특징**:
+   - **학생부종합(평생학습자/성인학습자/재직자 전형)**: 이들 전형에서는 학업역량, 전공적합성 등이 중요합니다.
+   - **수능 위주 전형**: 수능 점수가 주요 평가 기준입니다. 4.2는 낮은 점수로 경쟁률을 고려하면 불리할 가능성이 큽니다.
+4. **동점자 처리기준**: 동점자 처리에서는 수능 국어, 수학 등이 중요하게 작용합니다. 따라서 이 부분에서도 높은 점수가 유리합니다.
+5. **추천서 및 자기소개서**: 추천서나 자기소개서에서 창의성과 열정을 잘 표현한다면 이를 통해 합격 가능성도 높일 수 있습니다.
+결론적으로, 4.2 등급으로는 영화학과에 합격하기 어렵다고 판단됩니다. 실기 성적이나 포트폴리오가 매우 우수하다면 이 부분에서 강점을 보여줄 수 있지만, 일반적인 경쟁률을 고려하면 낮은 점수로는 어려울 것으로 예상됩니다.
+추천 드리는 방법:
+- **포트폴리오 준비**: 작품이나 프로젝트를 잘 준비하고 제출합니다.
+- **추천서 및 자기소개서 작성**: 창의성과 열정을 잘 표현하는 내용으로 작성합니다.
+- **면접 준비**: 면접에서도 창의성과 전공적합성을 잘 보여줄 수 있도록 준비합니다.
+더 자세한 정보나 도움이 필요하시다면 학교 입학처 또는 관련 컨설팅 서비스를 이용해보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 추가적으로 모든 면접 형태에 적용된다는 설명을 덧붙였습니다. 그러나 구체적인 면접 형식에 따라 세부 사항이 다를 수 있다는 점은 원문에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 면접 절차를 나열하고 있습니다. 추가된 내용이 원문과 충돌하지 않지만, 원문에 없는 정보를 포함하고 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 면접 절차와 관련된 내용을 잘 다루고 있으며, 추가적인 설명도 면접 절차와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차와 관련된 정보가 잘 연결되어 있습니다. 그러나 추가된 설명이 원문과의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 면접 절차에 대한 정보는 정확하지만, 추가된 내용이 원문에 명시되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 부정확성과 일관성 부족이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 정보가 원문에 포함되지 않아 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.8388532213267598</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 형태에 적용되며, 개별면접이나 블라인드 면접 등 구체적인 면접 형식에 따라 세부 사항은 다를 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(3000_500).xlsx
+++ b/deuChatbot/research_result/version_2(3000_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21122,6 +21122,6799 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하지 않고, 나군 학생부종합 전형에 대한 언급을 하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 실기시험에 대한 중요한 세부사항을 누락하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 전혀 다른 주제를 다루고 있습니다. 원본 텍스트는 실기시험의 구체적인 내용에 대한 설명을 제공하는 반면, 생성된 응답은 다른 전형에 대한 정보로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 다른 전형에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 주제가 다르기 때문에 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기시험에 대한 구체적인 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 관련성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 다른 주제를 다루고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 적절성에 따라 점수가 다소 낮아질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6174642682313455</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 또는 나군 학생부종합(조기취업형계약학과전형)의 디자인조형학과에 대한 실기시험 내용이 포함되어 있지 않습니다. 
+따라서, 정확한 정보를 제공하기 위해서는 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인해보시거나, 입학처에 직접 문의하시기 바랍니다.
+일반적으로 실기시험은 디자인 조형 분야에서는 그림 그리기, 모델링, 색채 이론 등의 실력을 평가하기 위해 수행됩니다. 하지만 각 대학과 학과마다 요구하는 실기 시험 내용이 다를 수 있으므로, 공식 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기초디자인의 실기종목, 준비물, 화지크기, 시간에 대한 정보를 정확하게 반영하고 있지만, '시각디자인/산업디자인/공예디자인'이라는 추가적인 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 기초디자인에 대한 정보를 제공하지만, '시각디자인/산업디자인/공예디자인'이라는 언급이 원본 텍스트와 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 기초디자인에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '시각디자인/산업디자인/공예디자인'이라는 추가 정보가 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.7470618279423313</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 시각디자인/산업디자인/공예디자인 분야에서 실기종목은 기초디자인이며, 준비물로는 볼펜, 연필, 색연필, 수채물감 등이 필요합니다. 실기주제는 주제A와 주제B 각각 1개씩을 당일 추첨하여 연결된 주제를 선정하게 됩니다. 화지크기는 켄트지3절이며, 시간은 5시간입니다.
+위 정보는 디자인조형학과의 시각디자인/산업디자인/공예디자인 분야에서 기초디자인 실기종목에 대한 준비물, 주제, 화지크기 및 시간을 나타내는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 배드민턴과 축구의 인정 대회 목록이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조도 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회 목록이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8820180863593622</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)의 경우, 다음과 같은 대회가 인정대회로 지정되어 있습니다:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (주니어국제대회로 출전한 경우만 인정)
+8. 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정대회로 지정되어 있습니다:
+1.춘계한국고등학교축구연맹전
+2.추계한국고등학교축구연맹전
+3.대한축구협회장배전국고등학교축구대회
+4.문화체육관광부장관기전국고등학교축구대회
+5.문화체육관광부장관배전국고등학교축구대회
+6.백운기전국고등학교축구대회
+7.전국고등축구리그(권역별고교축구리그)
+8.전국고등축구리그왕중왕전
+9.무학기전국고등학교축구대회
+10.청룡기전국고등학교축구대회
+11.백록기전국고등학교축구대회
+12.금강대기전국고등학교축구대회
+13.대통령금배전국고등학교축구대회
+14.금석배전국고등학생축구대회
+15.부산MBC전국고등학생축구대회
+16.K리그 U18 챔피언십
+17.K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기록하면 경기지도학과의 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 주제A와 주제B의 목록을 정확하게 나열하고 있습니다. 그러나 "연결된 주제를 제출해야 합니다"라는 표현은 원본 텍스트의 "추첨하게 됩니다"와 다소 다르게 해석될 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 주제의 선정 방식에 대한 설명이 약간 다르지만, 전체적인 내용은 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 기초디자인 실기시험의 주제에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "연결된 주제를 제출해야 합니다"라는 문구가 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제와 관련된 정보가 명확하게 전달됩니다. 그러나 약간의 문장 구조 개선이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 주제 선정 방식에 대한 설명이 원본과 약간 다르게 표현되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 일부 문구가 약간 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8074548862268104</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 제출해야 합니다. 예시로 주제들 중 일부는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일 추첨을 통해 선정되므로 정확한 주제는 당일에 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있지만, 추가적으로 언급된 "출결, 서류, 면접, 실기 등 관련 요소의 반영 비율은 모두 0%이며, 수능만이 100%로 반영됩니다." 부분은 출처에 명시되어 있지 않은 정보이므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 추가적인 정보가 출처와 일치하지 않기 때문에 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출처의 주제와 관련이 있으며, 출결 점수의 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 출처와 일치하지 않아 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가된 정보는 출처에 명시되어 있지 않으므로 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 출처와의 불일치로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 정보가 출처와 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7315727691126944</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서 출결 점수는 반영되지 않습니다. 출결, 서류, 면접, 실기 등 관련 요소의 반영 비율은 모두 0%이며, 수능만이 100%로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있습니다. "17명을 모집합니다"라는 내용이 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다. "가군 일반학생 전형으로"라는 부분도 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9301294051326514</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6398173429617459</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이며, 해당 모집인원이 28명입니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 사실이 잘못되었습니다. 원본 텍스트에서는 22명이라고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있습니다. 간호학과의 모집 인원에 대한 질문에 대한 답변이므로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "나군 일반 학생 전형의 모집 인원은" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다. 원본 텍스트의 사실과 크게 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 요소가 있습니다. 그러나 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 사실로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7542522203017592</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 공백이 있어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9428529891538322</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 지원 불가와 생성된 응답의 지원 가능성이 서로 모순됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 모순으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7161974409181813</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 전형명은 "학생부교과(농어촌학생전형)"이며, 지원 자격에 포함된 고교유형 중 예술고도 지원이 가능합니다.
+따라서 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원하는 것은 가능합니다. 지원 시에는 예술고에서의 활동 및 경험을 강조할 수 있는 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 "남은 268～271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명시되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268～271cm"라는 기록은 원본과 상충되므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 정보가 잘 전달되고 있습니다. 그러나 일부 표현이 명확하지 않아 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 2
+   - "남은 268～271cm"라는 잘못된 정보로 인해 정확성이 낮아졌습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 저해되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 표현이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8930586547213908</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268～271cm, 여은 218~221cm입니다. 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 12%라는 사실을 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 이 정보를 부정하고 있습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 다른 전형이나 모집단위에 대한 언급이 있어 약간의 관련성은 있지만, 주제와의 관련성이 낮습니다. 따라서 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 12%라는 출결 반영 비율을 전혀 반영하지 않고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 편이지만, 질문에 대한 명확한 답변이 부족하여 이해하기 어려운 부분이 있습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5991454187965747</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 경기지도학과의 출결 반영 비율에 대한 내용은 직접적으로 확인할 수 없습니다. 다른 전형이나 모집단위에서는 결석일수와 반영점수의 관계가 언급되어 있지만, 경기지도학과에 대한 특별한 정보는 없네요. 더 자세한 정보를 얻으시려면 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시거나 동의대학교 입학처로 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 4명을 모집한다고 명시되어 있지만, 생성된 응답에서는 2명만 모집한다고 잘못 언급하고 있습니다. 또한, 일반 학생을 모집하지 않는다는 내용도 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문에서 제공하는 정보와는 정반대의 내용을 담고 있어, 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제와의 관련성이 낮습니다. 원문에서의 모집 인원에 대한 정확한 정보가 제공되지 않아, 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 부분이 있어 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 모집 인원과 관련된 정보가 잘못되어 있으며, 이는 정확성 점수를 낮추는 주요 요인입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 모두 낮은 점수를 기록하고 있습니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문에서의 모집 인원에 대한 정보와는 상반된 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.6985903954668173</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 물리치료학과에서는 가군에서 일반 학생을 모집하지 않습니다. 정원 내 모집 인원은 2명이며, 나머지 모집인원은 가군에서 일반 학생이 아닌 다른 분야에서 모집됩니다. 자세한 내용은 공식 홈페이지를 참조해주세요: &lt;https://ipsi.deu.ac.kr/main.do&gt;</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하고 있으며, 추가적인 세부사항도 포함되어 있습니다. 그러나, 원본 텍스트에 포함되지 않은 정보가 추가되어 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보가 원본과 일치하지 않거나 모순될 수 있는 부분이 있습니다. 예를 들어, 실기종목과 준비물에 대한 정보는 원본에 포함되어 있지 않으므로 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 실기고사 일정과 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 추가된 정보도 적절하게 연결되어 있습니다. 다만, 원본에 없는 정보가 포함되어 있어 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 추가되어 있어 혼란을 줄 수 있는 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.3743461137451324</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인 또는 사고의 전환 중 하나를 선택하여 응시하게 됩니다. 준비물로 볼펜, 연필, 색연필, 수채물감 등이 필요하며, 화지크기는 켄트지2절 또는 3절을 사용합니다.
+만약 자세한 정보가 필요하시다면 공식 입학 안내 홈페이지를 참조해보시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do 링크를 통해 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 언급하지 않고, 동의대학교의 수능 최저기준을 찾을 수 없다고 말하고 있습니다. 그러나, 수능 최저 학력 기준이 없다는 정보는 정확하게 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 동의대학교의 수능 최저기준이 없다는 사실과 일치하지 않으며, 관련이 없는 단과대학 및 학과들의 데이터만 포함되어 있다고 언급하고 있습니다. 이는 일관성이 떨어지는 부분입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 응답은 동의대학교의 수능 최저기준에 대한 질문에 직접적으로 관련된 정보를 제공하고 있습니다. 추가적인 정보 제공을 위한 웹사이트 링크도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 수능 최저기준이 없다는 점을 명확히 하지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저기준이 없다는 사실을 명확히 하지 않았지만, 제공된 정보에 대한 정확한 설명을 포함하고 있습니다. 그러나 중요한 사실이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성 및 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 수능 최저기준이 없다는 점을 명확히 하지 않아 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있으나, 수능 최저기준에 대한 정보가 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4565738394851035</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준을 찾을 수 없습니다. 해당 정보에는 동의대학교와 관련이 없는 단과대학 및 학과들의 데이터만 포함되어 있습니다. 
+추가적인 정보를 원하신다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 직접 확인해 보시는 것을 권장드립니다. 해당 사이트에서는 동의대학교의 각 학과별 정확한 수능 최저기준을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신설된 학과 목록을 대부분 정확하게 반영하고 있지만, '경기지도학과'가 누락되어 있어 완전한 정확성은 부족하다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 신설된 학과에 대한 정보를 제공하지만, 누락된 학과로 인해 일관성이 떨어진다. 모든 신설 학과를 포함하지 않아서 일관성이 부족하다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 직접적으로 관련된 정보를 제공하고 있으며, 신설된 학과에 대한 내용을 잘 다루고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽다. 그러나 약간의 어색함이 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과에 대한 정보를 명확하게 전달하고 있다. 그러나 누락된 정보로 인해 완전한 일관성은 없다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 신설 학과를 정확하게 나열하고 있지만, '경기지도학과'가 누락되어 있어 정확성에 약간의 문제가 있다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 누락된 정보로 인해 일부 차질이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞는다. 그러나 누락된 정보로 인해 완전한 적절성은 부족하다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달된다. 그러나 누락된 정보로 인해 완전한 이해는 어려울 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7910926998776296</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과가 있습니다. 또한 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)도 신설되었습니다.
+따라서 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부
+위와 같은 내용을 바탕으로 답변하였습니다. 더 궁금한 사항이 있으시다면 추가로 질문해 주세요.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 잘못된 정보를 포함하고 있습니다. '학생부 교과'와 '출결' 항목이 언급되었으나, 원본 텍스트에서는 서류와 면접만 언급되고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지므로 전반적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성이 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.7238888458214953</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서는 다음과 같은 비율로 전형요소가 반영됩니다.
+- 학생부 교과: 0%
+- 출결: 70%
+- 서류: 30%
+이러한 비율은 성적 외의 요소 중에서 주요하게 고려되는 부분을 보여주며, 특히 출결의 중요성이 강조되고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과를 잘못 언급하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의예과만 언급하고 있습니다. 또한, 다른 학과에서 가산점을 적용하지 않는다는 내용은 원문에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 특정 학과에서 가산점을 적용한다고 명시했지만, 생성된 응답은 한의예과만 언급하며, 다른 학과에 대한 정보도 원문과 다릅니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 관련된 정보를 제공하고 있지만, 원문에서 언급된 특정 학과에 대한 정보가 누락되어 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 특히, 한의예과에 대한 언급이 원문과의 연관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않는 부분이 많아 정확성이 떨어집니다. 특히, 가산점을 적용하는 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치성이 떨어져 일부 내용이 부적절하게 표현되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7321086757934738</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과 수학(미적분/기하) 응시자입니다. 이들 학생은 수학 취득 표준점수의 10%를 가산점으로 부여받습니다.
+다른 학과에서는 일반적으로 수능 가산점을 적용하지 않습니다. 예를 들어, 인문사회과학대학, 상경대학 모집단위 및 패션디자인학과는 수능 가산점을 적용하지 않으며, 다른 전형에서도 가산점이 부여되지 않는 경우가 많습니다.
+따라서 정확한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 대학 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 수능 반영 영역과 비율에 대한 구체적인 내용을 추가하고 있습니다. 그러나 원문에서 언급된 '100% 반영'이라는 핵심 사실이 왜곡되어 있으며, 반영 비율에 대한 정보는 원문에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 다양한 반영 영역과 비율을 제시하여 원문과의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제인 수능 성적 반영 방법에 대해 설명하고 있으므로 관련성이 높습니다. 그러나 원문에서 요구하는 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 다르게 수능 성적 반영 방법에 대한 잘못된 정보를 포함하고 있습니다. 원문은 단순히 100% 반영한다고만 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7749469590279837</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 비율은 각각 25%이며, 상위 3개 영역의 경우는 국어, 수학, 영어에 대해 각각 33.33%를 반영합니다.
+이러한 방식으로 수능 성적을 반영하여 학생들의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)와 학과 정보를 포함하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 단일 날짜만을 언급하고 있지만, 생성된 응답은 여러 날짜와 학과를 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보가 포함되어 있어 원본 텍스트의 핵심 정보에 대한 집중이 떨어집니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 이로 인해 논리적인 흐름이 약간 깨질 수 있습니다. 원본 텍스트의 단일 날짜 정보와는 다르게 여러 날짜를 나열함으로써 일관된 구조가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜와 학과 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 정보를 왜곡하고 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 혼란스러울 수 있습니다. 그러나 기본적인 내용은 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6913508124341782</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있으며, 레저스포츠학과와 태권도학과가 제외되었다고 잘못된 정보를 제공합니다. 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있어 일관성이 없습니다. 원본에서 제외된 학과와 생성된 응답에서 언급된 학과가 서로 다릅니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본의 핵심 정보인 제외된 학과에 대한 정확한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5758010129636132</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 레저스포츠학과와 태권도학과가 제외되었습니다. 이는 가군 실기/실적(일반학생전형)에서만 적용되며, 일반적으로 나군은 이러한 특정 학과를 제외하지 않습니다.
+더 자세한 정보는 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시거나 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공하고 있지만, 원본의 사실을 왜곡하지 않습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 질문에 직접적으로 답변하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7816667909894762</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 모든 다군 전형에서 공통된 특징입니다. 자세한 내용은 제공된 정보를 바탕으로 확인하실 수 있습니다. 만약 추가로 궁금한 점이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 대부분의 학과 분리 정보를 정확하게 반영하고 있지만, "디자인공학부"가 "디자인조형학과"로 잘못 표기되었고, "모집중지"라는 정보는 원본에 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트와 대체로 일치하지만, 일부 학과의 명칭이 다르게 표현되어 있어 일관성이 떨어집니다. 예를 들어, "부동산금융자산경영학과"가 "부동산금융·자산경영학부"로 변경되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 학과 분리 정보에 대한 질문에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 그러나 일부 표현에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 명확하게 전달하고 있습니다. 그러나 일부 문장 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 대부분의 정보가 정확하지만, 몇 가지 학과 명칭의 차이와 잘못된 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미를 잘 전달하고 있으나, 일부 표현에서 약간의 차이가 있어 의미 전달이 완벽하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 표현에서 혼란을 줄 수 있는 요소가 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 원서접수 마감일에 대한 정보는 정확하게 전달되었으나, 추가 정보로 서류 제출 마감일이 포함되어 있어 원래의 질문과는 약간의 차이가 있습니다. 그러나 주된 사실은 정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 원서접수 마감일은 일치하지만, 추가된 서류 제출 마감일 정보는 원래의 질문과는 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 원서접수 마감일에 대한 정보는 질문의 핵심 주제와 직접적으로 관련이 있으며, 추가 정보도 유용하므로 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 문장 구조 개선이 가능할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 정보가 잘 연결되어 있으며, 논리적인 흐름이 있습니다. 그러나 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일과 서류 제출 마감일 모두 정확하게 제시되었으나, 질문의 초점이 원서접수 마감일에만 맞춰져 있어 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 추가 정보가 포함되어 있어 약간의 맥락 이탈이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구성입니다. 그러나 추가 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.6971137899848875</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+추가 정보로, 서류 제출(제출서류가 있는 경우)의 마감일은 2024. 01. 12.(금) 17시까지 도착이어야 합니다.
+원서접수와 서류 제출에 대한 자세한 내용은 입학안내 홈페이지를 참조하시거나, http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com을 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 전형 요소 변화에 대한 정보가 잘못되었습니다. 원본 텍스트에서 언급된 전형 요소와 평가 기준이 아닌 다른 전형과 평가 영역을 언급하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서 제시된 전형 요소와 평가 기준이 아닌 다른 내용을 포함하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전형 요소에 대한 정확한 정보가 부족하여 관련성이 낮습니다. 원본의 주요 내용을 다루지 않고 다른 전형을 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성이 떨어져서 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로 어느 정도 일관성을 유지하고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 전형 요소와 평가 기준이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 전형 요소에 대한 잘못된 정보가 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성이 떨어져서 전체적인 이해도가 낮아집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7549360180948006</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내외)전형), 학생부종합(재직자전형)입니다. 이들 전형의 서류 평가 영역에서 변화된 점은 다음과 같습니다:
+1. **공동체역량**:
+   - **2023학년도**: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - **2024학년도**: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+2. **학업역량**:
+   - **2023학년도**: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - **2024학년도**: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+3. **전공적합성**:
+   - **2023학년도**: 인성 ㅣ 학업역량 ㅣ 전공적합성
+   - **2024학년도**: 공동체역량 ㅣ 학업역량 ㅣ 전공적합성
+이러한 변화는 평가 영역의 이름과 순서에만 해당되며, 각 영역 내에서의 세부 평가 기준은 동일합니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8358415753168936</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 '가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율' 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8773274426196596</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세부 전공들은 학생들이 다양한 삶의 영역에서 창업과 비즈니스, 문화 활동에 참여할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '태권도학과'가 언급되지 않았습니다. 또한, '레저스포츠학과'의 실기 종목에 대한 정보는 원본에 없던 내용입니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '태권도학과'는 원본에 없고, '레저스포츠학과'의 실기 종목에 대한 추가 정보도 원본과 일치하지 않습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본과 일치하지 않기 때문에 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 구조를 가지고 있지만, 원본과의 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와 일치하지 않기 때문에 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본과의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7549238259800273</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기 또는 Z-런)
+2. 태권도학과
+이 두 학과에서는 실기고사를 통해 전형 점수가 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 학과 목록을 제공하지 않고, 기계공학과, 로봇자동화공학과, 자동차공학과와 같은 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학과 목록을 제시하고 있지만, 생성된 응답은 전혀 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변으로는 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 거리가 있는 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어져서 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성은 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 맞지 않는 정보를 제공합니다. 따라서 의미적 적합성이 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5250201985296172</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 예를 들어, 기계공학과, 로봇자동화공학과, 자동차공학과 등이 해당될 수 있습니다.
+하지만 정확한 학과 목록을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. 이 웹사이트에서는 최신 정보와 자세한 전형 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록과 학부의 신설에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 내용과 학부의 신설에 대한 설명이 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 정보의 왜곡이나 누락이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.8797112535341037</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이러한 세 가지 전공은 학부의 신설 과정으로, 다양한 삶의 영역과 산업 분야를 융합하여 교육하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 예술고와 체육고에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다. 따라서 일부 정보는 정확하지만, 추가된 내용이 원본과 일치하지 않아 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 예술고와 체육고에 대한 언급이 원본과 일치하지 않아서 일관성이 떨어집니다. 원본 텍스트는 특정 학교에 대한 제한을 명시하지 않기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 정보를 추가로 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 점수를 주지는 않았습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 예술고와 체육고에 대한 추가 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 예술고와 체육고에 대한 지원 불가능성에 대한 언급은 원본 텍스트와 일치하지 않으므로 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 정보의 정확성과 일관성 부족으로 인해 완벽한 점수를 주지는 않았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있어 완벽한 점수를 주지는 않았습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7093228232494334</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형으로 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고 등은 모두 지원이 가능합니다.
+하지만 예술고나 체육고는 일반학생전형에서 지원이 불가능하며, 실기/실적 전형이나 학생부종합전형 등을 통해 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 체육학과가 가장 많이 모집한다고 잘못 기술하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원과는 전혀 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 나군 전형에 대한 질문에 대한 답변을 시도하고 있으나, 제공된 정보가 원문과 관련이 없고 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있으나, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.681255263916225</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 보면, 각 학과별 정원 내 모집 인원을 확인할 수 있습니다.
+1. 체육학과 - 교직: 55명
+2. 레저스포츠학과: 45명
+3. 태권도학과: 35명
+4. 경기지도학과 (신설): 30명
+5. 패션디자인학과 - 교직: 40명
+이 중에서 가장 많은 인원을 모집하는 학과는 체육학과 - 교직으로, 정원 내 모집 인원이 55명입니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **체육학과 - 교직**이라고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원이 가능하다고 주장하고 있으며, 이는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 특수목적고등학교 출신자는 지원할 수 없다고 명시하고 있지만, 응답에서는 지원이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 원문과 관련된 정보를 포함하고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와 관련성이 떨어집니다. 원문에서의 핵심 내용이 왜곡되어 전달되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 특수목적고등학교 출신자가 지원할 수 없다는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 응답이 매우 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 원문과 관련이 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6142191913481007</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형을 통해 지원 가능합니다. 고교유형별 지원 자격 항목에 따르면, 특수목적고등학교의 예술고, 체육고는 지원 불가능하지만, 일반고, 자율고, 과학고, 국제고, 외국어고 등은 지원 가능합니다. 따라서 특수목적고등학교 학생이라도 농어촌학생전형을 통해 지원이 가능한 것으로 보입니다.
+추가로, 동의대학교에서 제공하는 개인정보 제공 동의 항목에 따르면, 학생부교과 전형에서는 성명, 학과, 주민등록번호, 수험번호, 전화번호, 휴대전화번호, 추가연락처, 이메일주소 등을 제공받는 것으로 알려져 있습니다.
+따라서, 지원 가능성을 확인하시려면 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 구체적인 성적을 제시하여 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트의 정보와 상충하는 내용을 포함하고 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보를 제공하지 않기 때문에 정확성이 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부적절합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다. 원본 텍스트의 주제를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 일치하지 않기 때문에 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5729338648278289</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균으로, **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문이 제공하는 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 정보와 완전히 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받아 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에는 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5055966732774438</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정이 추가되어 있으며, 이는 원본 텍스트에 명시되어 있지 않은 정보입니다. 따라서 일부 사실이 추가되었지만, 원본의 핵심 정보는 유지되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 특히 최초 합격자 등록 일정이 원본에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있으며, 주제와 관련성이 높습니다. 그러나 추가된 정보가 원본과 다소 차이가 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 구분되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보로 인해 정확성이 떨어질 수 있습니다. 특히 최초 합격자 등록 일정은 원본에 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 추가된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8425711905505192</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 
+   - 일시 : 2024년 2월 2일 (금) 오후 2시 이후
+   - 방법 : 홈페이지에서 개별 조회 가능
+2. 최초 합격자 등록 :
+   - 일시 : 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 시간 : 은행 마감시간 내
+   - 방법 : 홈페이지에서 개별 조회, 고지서 출력 또는 입학관리팀에서 수령 가능
+3. 충원 합격자 발표 및 등록 :
+   - 1차 충원 합격자 발표 :
+     * 일시 : 2024년 2월 14일 (수) 오전 9시
+     * 방법 : 홈페이지에서 개별 조회, 고지서 출력 또는 입학관리팀에서 수령 가능
+   - 1차 충원 합격자 등록 :
+     * 일시 : 2024년 2월 14일 (수) 오전 9시 ~ 오후 4시
+     * 방법 : 홈페이지에서 개별 조회, 고지서 출력 또는 입학관리팀에서 수령 가능
+   - 2차 충원 합격자 발표 :
+     * 일시 : 2024년 2월 15일 (목) 오전 9시
+     * 방법 : 홈페이지에서 개별 조회, 고지서 출력 또는 입학관리팀에서 수령 가능
+   - 2차 충원 합격자 등록 :
+     * 일시 : 2024년 2월 15일 (목) 오전 9시 ~ 오후 4시
+     * 방법 : 홈페이지에서 개별 조회, 고지서 출력 또는 입학관리팀에서 수령 가능
+   - 3차 충원 합격자 발표 및 등록 :
+     * 일시 : 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시
+     * 방법 : 홈페이지에서 개별 조회, 고지서 출력 또는 입학관리팀에서 수령 가능
+위와 같이 합격자 발표 및 등록 일정이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정확한 정보를 제공하지 않고, 일반적인 면접 일정에 대한 추측을 포함하고 있습니다. 원본 텍스트의 구체적인 날짜 정보와는 전혀 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 날짜를 명시하고 있지만, 생성된 응답은 일반적인 규칙을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 구체적인 정보와는 관련이 적습니다. 일반적인 정보는 포함되어 있지만, 질문에 대한 직접적인 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 일반적인 정보가 포함되어 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 면접고사 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않습니다. 원본 텍스트의 맥락과는 다르게 일반적인 정보를 제공하고 있어, 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3955020850987363</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사는 일반적으로 수능일 다음 날에 실시됩니다. 예를 들어, 수능이 12월 2일에 있을 경우, 면접은 12월 3일에 진행될 가능성이 높습니다. 정확한 일정은 해당 대학의 입학처 웹사이트나 공지사항을 통해 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "수능최저기준 없음"이라는 문구가 반복적으로 등장한다고 언급한 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "수능최저기준 없음"이라는 문구의 반복 언급은 원문에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "수능최저기준 없음" 부분에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, "수능최저기준 없음"이라는 문구의 반복 언급은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 일부 표현에서 약간의 부적절함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문구에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5456429475134523</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 명시는 없습니다. 따라서, "수능최저기준 없음"이라는 문구가 반복적으로 등장하고 있습니다. 이는 해당 학과에서 수능 최저 점수 기준을 설정하지 않았음을 의미합니다.
+만약 더 자세한 정보를 원하시면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나, 직접 대학에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 전형에 대해 수능 최저학력 기준이 없다는 점을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 정시 전형에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용을 잘 연결하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5784431481608129</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 전형의 수능최저학력기준은 없습니다. 따라서 정시 전형으로 지원할 때 수능최저학력기준이 없음을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 내용을 정확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 일정에 대한 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.9011157751533262</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+1차 충원 합격자 발표는 2024년 2월 14일(수) 09:00에 있습니다.
+2차 충원 합격자 발표는 같은 날인 2024년 2월 15일(목) 09:00에 있습니다.
+이후에는 3차 이후 충원 합격자 발표가 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보 방식으로 이루어집니다.
+따라서, 충원합격자 발표 일정은 주요하게 두 차례로 나뉘어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 실제 일정과는 전혀 다른 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 구체적인 발표 일정을 제공하는 반면, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 논리적인 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 부적절하여 전체적인 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4752399405941749</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 추가합격자 발표일자는 제공되지 않았습니다. 추가합격자 발표 일정은 대학마다 다를 수 있으며, 정확한 날짜와 시간을 확인하려면 해당 대학의 공식 웹사이트나 입학처에서 확인하시거나 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보를 명시적으로 제공하지 않는다고 주장하지만, 원본 텍스트에서는 추가 모집에 대한 구체적인 내용이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본 텍스트에서 언급된 추가 모집의 조건을 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 있지만, 원본 텍스트의 핵심 내용을 제대로 반영하지 못하고 있습니다. 추가 모집에 대한 정보가 없다는 주장은 원본의 내용을 왜곡합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 추가 모집에 대한 정보가 없다고 주장하는 것은 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 정보의 왜곡으로 인해 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4379242337638208</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 추가 모집 관련 자세한 사항은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 주세요. 해당 사이트에서 최신 정보와 공고를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 일부 정보를 포함하고 있지만, 지원자격에 대한 설명이 원본 텍스트와 다릅니다. 원본에서는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라고 명시되어 있으나, 생성된 응답에서는 산업체 적용범위와 재직기간에 대한 정보가 추가되어 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 요소와 일치하지만, 지원자격에 대한 설명이 상이하여 일관성이 떨어집니다. 또한, 면접 평가와 관련된 정보가 추가되어 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 다루고 있으며, 원본 텍스트의 핵심 주제와 관련이 있습니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 주제에서 벗어난 느낌이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본과 다르게 추가되어 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 지원자격에 대한 설명이 원본과 다르기 때문에 정확성 점수가 낮아졌습니다. 또한, 면접 평가와 관련된 정보가 원본에 없던 내용입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 추가 정보가 포함되어 있어 약간의 맥락에서 벗어난 느낌이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7341514727546191</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 나군에서 다양한 전형 중 하나로, 주요 특징을 다음과 같이 요약할 수 있습니다.
+1. **모집단위 및 모집인원**: 미래융합대학의 라이프융합학부에 지원 가능하며, 신설된 학과(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)를 중심으로 모집합니다. 평생학습자전형은 11명을 모집하고 있습니다.
+2. **지원자격**: 산업체 적용범위와 재직기간에 따라 구분됩니다.
+   - 산업체 적용범위: 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 의거한 상시근로자 5인 이상 사업체, 4대 보험 중 하나 이상 가입 사업체(창업·자영업자 포함) 등이 지원 자격입니다.
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상이어야 합니다.
+3. **전형요소 반영비율**: 서류 평가가 70%, 면접 평가가 30%로 구성됩니다.
+4. **제출서류**:
+   - 고교 졸업(예정)자: 고교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+5. **면접평가**:
+   - 평가영역: 학업역량, 전공적합성
+   - 평가요소: 문제해결능력, 진로정보 탐색능력 등
+   - 평가기준 및 내용은 지원동기와 학업계획, 학업역량과 전공적합성 관련 공통문항 발표 및 질의응답 등을 포함합니다.
+6. **부정적 사례**: 학교생활기록부 작성 과정에서 학생이 직접 기재하거나, 동일 내용의 의도적인 반복 기재, 과장된 내용 기재 등이 부정적 사례로 분류됩니다.
+7. **동점자 처리기준**: 면접고사 성적이 상위자 우선으로 결정되며, 그 다음으로 서류평가 공동체역량 영역 성적이 상위자 우선으로 처리됩니다.
+이러한 정보를 바탕으로 평생학습자전형에 지원하는 것이 적합한지 판단해 보시기 바랍니다. 더 자세한 내용이나 궁금한 점이 있으시면 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인하시거나, 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 구체적인 내용을 추가하고 있으나, 원본 텍스트에서 명시된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 기본적인 지원 자격을 포함하지 않고 있습니다. 또한, 특정 학교 유형에 대한 지원 가능 여부를 언급하고 있지만, 이는 원본 텍스트의 내용과 일치하지 않으며, 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 지원 자격에 대한 설명이 상충하는 부분이 있습니다. 원본 텍스트는 단순히 지원 자격을 명시하고 있지만, 생성된 응답은 특정 학교 유형에 대한 세부 사항을 추가하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형의 지원 자격에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"를 간과하고 있습니다. 따라서 관련성은 있지만, 원본 텍스트의 주요 포인트를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 지원 자격에 대한 설명이 명확하게 연결되지 않아 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 특정 학교 유형에 대한 지원 가능 여부를 언급하고 있으며, 이는 정확하지 않은 정보입니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 떨어지며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다. 일부 내용은 적절하지만, 전체적으로는 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 과다로 인해 혼란스러울 수 있는 부분이 있습니다. 명확한 요약이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.568664976406855</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원 자격에서는 일반고와 자율고는 지원이 가능합니다. 그러나 특수목적고의 과학고, 국제고, 외국어고는 지원이 불가능하며, 예술고와 체육고도 지원이 불가능합니다. 마이스터고, 특성화고(직업), 특성화고(대안), 영재학교, 기타의 학력인정고, 기타의 방송통신고, 기타의 각종학교는 지원 가능하며, 검정고시와 외국고도 지원이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 언급된 '실기고사 대기실 및 입실시간'에 대한 정보는 포함되어 있지 않으며, 원본 텍스트의 핵심 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하는 반면, 생성된 응답은 실기고사 진행 방식에 대한 정보로 대체되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 대기실 및 입실시간에 대한 정보와는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 주제별로 잘 나누어져 있으며, 각 학과의 실기고사에 대한 정보가 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보가 누락되어 있습니다. 원본 텍스트의 입실시간과 대기실에 대한 정보가 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 원본 텍스트의 핵심 정보를 반영하지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 원본 텍스트의 의미를 충분히 반영하지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4801327416904067</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 모집 단과대학 및 학과에 따라 다르게 진행됩니다.
+1. **디자인조형학과** (시각디자인, 산업디자인, 공예디자인):
+   - **장소**: 각 학과별로 정해진 시험장
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **주제**: 주제A와 주제B에서 선택하여 연결된 주제를 당일 추첨으로 결정
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **체육학과**:
+   - **장소**: 각 학과별로 정해진 시험장
+   - **종목**: 
+     - **제자리 멀리뛰기**: 240점 (24%)
+     - **메디신볼 던지기**: 243점 (23%)
+     - **Z-런**: 230점 (23%)
+각 학과별로 정해진 장소에서 실기를 치르게 됩니다. 따라서, 모집 단과대학 및 학과에 따라 실기고사장이 다르므로 해당 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌 체육학과의 실기고사 종목에 대한 내용을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간에 대한 언급이 없으며, 다른 전공에 대한 정보도 포함되어 있어 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 입실시간에 대한 정보만을 제공하는 반면, 생성된 응답은 체육학과의 실기고사 종목에 대한 설명으로 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 체육학과의 실기고사 종목에 대한 설명으로 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 부족합니다. 여러 주제가 혼합되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 연결이 부족하여 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다. 그러나 내용 자체는 이해할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 원본 텍스트와의 관련성이 떨어져서 전체적인 이해에는 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2259533805867676</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다. 모집단위에 따라 선택할 수 있는 종목이 다릅니다.
+1. 시각디자인 / 산업디자인 / 공예디자인에서는 기초디자인과 사고의 전환을 준비해야 합니다.
+2. 체육학과에서는 메디신볼 던지기, 제자리 멀리뛰기, Z-런 중 하나를 치르게 됩니다.
+따라서 체육학과에 지원하신다면, 메디신볼 던지기 또는 제자리 멀리뛰기 또는 Z-런 중에서 선택하여 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시되어 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 전화 통보에 대한 잘못된 정보가 주제를 흐리고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약해집니다. 원본과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다르게 해석되고 있으며, 잘못된 정보로 인해 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6554305956922689</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드립니다. 따라서, 합격자 발표 이후에 개별적으로 전화를 받으실 예정입니다.
+만약 자세한 내용을 확인하고 싶으시다면, 입학안내 홈페이지를 참조해 보세요: https://ipsi. deu. ac. kr/main. do
+또한, 관련 정보는 공고일자 2024년 2월 15일 오후 7시 이후에 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 "대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 수시모집 결과에 대한 언급이 없다는 점에서 일치하지만, 추가적인 웹사이트 방문 제안이 원본 텍스트와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시모집 결과에 대한 정보를 찾는 방법을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 명시되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 그러나 약간의 불필요한 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8328776107409331</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서는 언급되어 있지 않습니다. 관련 정보를 찾기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 2024학년도부터 수능 응시를 하지 않은 학생들도 지원이 가능하다고 주장하고 있으나, 이는 사실이 아닙니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 수능 응시를 하지 않은 학생들도 지원이 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문이 명확한 규정을 제시하고 있는 반면, 생성된 응답은 잘못된 해석을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 다릅니다. 수능에 응시하지 않은 학생들이 지원할 수 있다는 주장은 사실이 아니므로 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5796661904121279</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도부터 정시모집에서 수능 응시를 하지 않은 학생들도 지원이 가능해졌습니다. 특히, 전형명 및 지원자격의 변경사항을 보면, 학생부종합(성인학습자(정원내)전형)에서는 만 30세 이상이고 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 하고 있습니다. 따라서 수능 응시를 하지 않은 성인들도 지원이 가능해졌습니다.
+더 자세한 내용은 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나면 정시 지원이 불가능하다고 주장하고 있습니다. 그러나 원본 텍스트에서는 고등학교 졸업 시기와 관계없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 정시 지원이 가능하다고 하였으나, 생성된 응답에서는 불가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 제공하고 있어 관련성이 떨어집니다. 그러나 특정 전형에 대한 언급은 관련성이 있을 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 논리적 흐름이 부족합니다. 특히, 정시 지원 가능성에 대한 주장이 상반되어 일관된 흐름을 방해합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 고등학교 졸업 후 10년이 지나면 정시 지원이 불가능하다고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 많습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다르게 해석되고 있으며, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6562743629257461</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면 일반적으로 정시로 대학을 지원하는 것은 불가능합니다. 대학 입시는 고등학교 졸업 후 곧바로 진행되며, 오랜 시간이 지나서 다시 입시를 준비하기는 어렵습니다.
+하지만 특정 전형에서 예외적인 경우가 있을 수 있습니다:
+1. **평생학습자전형**: 이전에 대학을 다닌 적이 없거나 오랜 시간 동안 학업을 중단한 사람들을 위한 특별한 지원渠道：
+Assistant：如果您已经高中毕业十年了，通常情况下是无法通过普通高考（即统考）申请大学的。因为高考通常是针对刚刚完成高中学业的学生设计的。
+但是某些特殊类型的招生可能会有例外情况：
+1. **成人学籍（正取生型）**：这类招生主要是为那些之前没有上过大学或长时间中断了学习的人设立的，他们可以通过特定的入学考试申请。
+2. **在职人员招生**：一些学校可能设有针对在职人员的特殊招生计划，允许他们通过特定的入学考试申请。
+建议您访问“https://ipsi. deu. ac. kr/main. do”网站获取最新的招生信息和具体的报名要求。</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8294406079462228</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입니다.
+   - 비고는 입학안내 홈페이지 공고입니다.
+2. **원서접수(인터넷)**: 
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지입니다.
+   - 비고는 [http://ipsi. deu. ac. kr] 또는 [http://www. uwayapply. com] 입니다.
+3. **서류 제출**:
+   - 일정은 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착입니다.
+   - 비고는 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송입니다.
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과의 일정은 2024년 1월 16일 (화) 입니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과, 체육학과의 일정은 2024년 1월 17일 (수) 입니다.
+   - 비고는 대기실 및 입실시간 안내 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회입니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 14:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 최초 합격자 등록은 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행마감시간 내이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 (인터넷) 발표는 2024년 2월 14일 (수) 9:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 (인터넷) 등록은 2024년 2월 14일 (수) 9:00 ~ 16:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 2차 (인터넷) 발표는 2024년 2월 15일 (목) 9:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 2차 (인터넷) 등록은 2024년 2월 15일 (목) 9:00 ~ 16:00이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표는 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록은 개별 전화 통보 시 안내이며, 비고는 *발표: 홈페이지에서 개별 조회 *고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 *등록장소: 학교 지정은행(등록금 고지서에 기재)입니다.
+이상과 같이 동의대학교 정시 모집일정을 설명하였습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8840511312176211</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)에 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 접수되며, 마감 시간은 각 날짜의 오후 6시입니다.
+3. **서류 제출**: 원서접수와 동일한 기간인 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출하며, 마감 시간은 각 날짜의 오후 5시입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실시간 안내는 동일하게 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지 (은행 마감 시간 내)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일(수) 오전 9시
+     - 1차: 2024년 2월 14일(수) 오전 9시부터 오후 4시까지
+     - 2차: 2024년 2월 15일(목) 오전 9시
+     - 2차: 2024년 2월 15일(목) 오전 9시부터 오후 4시까지
+     - 3차 이후 (개별 전화 통보): 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지
+이상의 일정을 참고하시면 됩니다. 자세한 내용은 입학안내 홈페이지를 참조하거나 https://ipsi. deu. ac. kr/main. do로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 따라서 생성된 응답은 원문과 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 수능 미응시자와 관련된 전형에 대한 정보를 제공하고 있어 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 크게 다르며, 수능 미응시자가 지원할 수 있는 전형이 있다고 잘못된 정보를 제공합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 큰 문제를 가지고 있습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 상충하는 내용을 담고 있어 의미적으로 적절하지 않습니다. 수능 미응시자가 지원할 수 있다는 주장은 원문과 모순됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.67337430768074</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형으로는 학생부종합 평가전형이 있습니다. 이 전형에서는 수능 점수가 반영되지 않으며, 주로 학생부 교과성적, 실기/실적, 면접 등을 통해 평가됩니다.
+특히 2024학년도에는 학생부종합(성인학습자(정원내)전형)이 신설되어 수능 미응시자도 지원 가능하게 변경되었습니다. 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+따라서 수능 미응시자도 지원이 가능한 전형은 학생부종합 평가전형인데, 구체적으로는 2024학년도에 신설된 학생부종합(성인학습자(정원내)전형)입니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 정보가 없다는 사실을 잘못 해석하고 있으며, 구체적인 정보를 요청하는 내용이 포함되어 있습니다. 이는 원문과 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 충원 합격 차수에 대한 정보가 없다는 점을 무시하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 링크를 제공하고 있지만, 원문에서 명시된 충원 합격에 대한 정보 요청에 대한 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 중국어로 되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 언어가 혼합되어 있어 일관된 흐름이 부족합니다. 한국어와 중국어가 섞여 있어 독자가 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실을 왜곡하고 있으며, 충원 합격 차수에 대한 정보가 없다는 점을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받고 있으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족하며, 원문의 맥락을 잘못 이해하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 일부 문장이 명확하지만, 여러 언어가 혼합되어 있어 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5783505732552828</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과 충원 합격이 몇 차까지 이루어졌는지的具体信息中没有提到去年电子工程学专业补录合格是在哪一轮完成的。请提供更多相关具体的信息，以便给出准确答案。可以根据提供的链接获取最新信息：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호에 대한 정보를 제공하지 않으며, 원본 텍스트의 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있으며, 전화번호에 대한 정보가 전혀 언급되지 않아 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교 입학관리팀의 전화번호에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로는 괜찮지만, 한국어로 질문한 내용에 대한 답변이 아니기 때문에 흐름이 자연스럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련이 없기 때문에 논리적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해할 수 있는 문장으로 구성되어 있지만, 질문에 대한 적절한 답변이 아니기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5006107460305437</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要此信息，建议访问东义大学官网或者直接联系学校的招生办公室获取准确的联系方式。如果还有其他问题或需要进一步的帮助，请告诉我。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우의 절차에 대해 언급하고 있지만, 원본 텍스트에서 명시된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다"라는 중요한 사실을 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 전화 통화가 되지 않을 경우 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지를 통해 정보를 확인할 수 있다고만 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우의 대처 방법에 대해 설명하고 있지만, 원본 텍스트의 핵심 내용인 등록 포기 처리에 대한 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 핵심 내용을 반영하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 중요한 사실을 누락하고 있으며, 잘못된 정보로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관계가 명확하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5648900244387064</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생은 다음과 같은 절차로 처리됩니다:
+1. 홈페이지에서 개별 조회를 통해 합격 여부를 확인합니다.
+2. 합격한 경우에는 고지서를 홈페이지에서 출력하거나 입학관리팀에서 수령하여 등록금 납부 등의 다음 단계를 진행합니다.
+따라서 전화 통화가 되지 않더라도, 학생은 홈페이지를 통해 정보를 얻을 수 있으며, 이에 따라 필요한 절차를 진행하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 정보를 제공하지 않고, 다른 전형에 대한 내용으로 혼동을 일으킵니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 관련 정보가 포함되어 있지 않아 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 농어촌학생전형에 대한 정보를 제공하지 않기 때문에 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 응답의 내용이 원본 텍스트와 관련이 없기 때문에 논리적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 모든 평가 기준에서 낮은 점수를 받아 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있으나, 내용이 관련이 없기 때문에 전체적으로 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.5174117081369756</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보는 '나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)'과 '나군 학생부종합(조기취업형계약학과전형)'에 대한 내용들입니다. 농어촌학생전형인 경우, 해당 정보가 포함되어 있지 않습니다.
+이런 경우에는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시는 것이 좋을 것 같습니다. 농어촌학생전형에 대한 자세한 내용과 제출해야 할 서류 등은 해당 페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 제출 서류를 정확하게 나열하고 있으나, '6년과정' 서류에 대한 언급은 원본 텍스트에 포함되어 있지 않은 정보입니다. 따라서 일부 사실이 추가되었지만, 전반적으로 정확한 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 많지만, '6년과정' 서류에 대한 언급은 원본과 일치하지 않으므로 일관성이 떨어집니다. 이로 인해 일부 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정' 서류에 대한 추가 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, '6년과정' 서류에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8203872653914389</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이 외에 중·고등학교 재학 시 부모 모두 농어촌 지역에서 거주한 자는 '6년과정' 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 기회균등 전형이 존재한다고 주장하고 있으나, 원문에서는 기회균등 전형이 존재하지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있습니다. 원문에서는 기회균등 전형이 없다고 명시하고 있지만, 생성된 응답은 그 전형에 대한 상세한 정보를 제공하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 기회균등 전형이 존재하지 않음을 알리고 있으며, 생성된 응답은 그와 반대되는 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 흐름을 보입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 상반되는 내용을 포함하고 있습니다. 기회균등 전형이 존재하지 않는다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 기회균등 전형이 존재하지 않는다는 원문의 의미를 완전히 무시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5534332458945229</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서 저소득 기회균등 전형은 다음과 같이 이루어집니다.
+1. **모집단위 및 모집인원**: 각 단과대학별로 모집이 이루어지며, 모집인원은 대략적으로 5% 내외의 비율을 유지합니다. 예를 들어, 미래융합대학에서는 인문사회 계열에서 라이프융합학부와 부동산자산경영학부에 각각 저소득 기회균등 전형으로 모집인원을 할당합니다.
+2. **지원자격**: 지원 자격은 국가보조금 대상자, 경제적 어려움을 겪고 있는 학생 등이 해당되며, 정확한 자격 요건은 입학처 홈페이지를 통해 확인할 수 있습니다.
+3. **전형요소 및 반영비율**:
+   - **학생부교과**: 20% (학생의 학업 성적과 태도를 평가)
+   - **출결**: 10% (정기적으로 출석한 학생을 선호)
+   - **서류(경력)**: 70% (저소득 기회균등 전형에 대한 서류와 증빙 자료)
+4. **제출서류**:
+   - **학생부교과**: 고교 학교생활기록부 1부
+   - **경력증명서**: 경제적 어려움을 입증할 수 있는 서류 (예: 국가보조금 증명서, 가정형편 증명서 등)
+   - **추천서**: 필요에 따라 교사 또는 학교 관계자로부터의 추천서가 요구될 수 있습니다.
+5. **평가기준**:
+   - **공동체역량**: 협업능력
+   - **학업역량**: 학업태도 및 성취정도
+   - **전공적합성**: 지원 전공과의 적합성
+6. **서류평가 영역별 배점**:
+   - **공동체역량**: 140점 (입학사정관 2인)
+   - **학업역량**: 280점 (입학사정관 2인)
+   - **전공적합성**: 280점 (입학사정관 2인)
+7. **동점자 처리기준**:
+   - 순위 1: 서류 성적 상위자
+   - 순위 2: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+   - 순위 3: 영어교과 전 과목 등급 평균 상위자
+   - 순위 4: 국어교과 전 과목 등급 평균 상위자
+8. **서류평가의 부정적 사례**:
+   - 학생이 직접 작성한 내용을 교사가 분석하지 않고 단순히 기재한 경우
+   - 동일 내용의 의도적인 반복 기재
+   - 과장된 내용 기재
+   - 학급/단체 단위의 내용 기재
+입학처 홈페이지를 통해 최신 정보와 자세한 안내를 확인하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급에서 2.5등급이 나올 경우 절사하지 않고 그대로 반영된다고 주장하고 있지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5등급이 그대로 반영된다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트에서 제공된 정보의 범위를 넘어서는 내용을 포함하고 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 절사 여부에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6931844287433393</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사하여 3등급으로 처리하지 않고, 그대로 2.5 등급으로 평균산출을 진행합니다. 수능 최저등급에서 사탐 2 과목의 평균산출은 정확한 등급을 기반으로 합니다.
+만약 특정 영역에서 2.5 등급이 나온다면, 그 점수를 해당 영역의 평균산출에 포함하여 처리합니다. 따라서 2.5 등급은 반영될 것입니다.
+자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 링크에서 확인해 보시는 것이 가장 정확할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 발표가 총 4차로 이루어진다고 잘못 언급하고 있으며, 3차 이후 발표에 대한 정보도 정확하지 않습니다. 원본 텍스트에서는 3차 발표 이후 개별 전화 통보로 진행된다고 명시되어 있지만, 생성된 응답에서는 4차 발표가 있다고 잘못 기술하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 3차까지 발표가 이루어진다고 명시되어 있으나, 생성된 응답에서는 4차 발표가 있다고 하여 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 전체적인 관련성이 떨어집니다. 발표 일정에 대한 정보는 포함되어 있으나, 잘못된 차수로 인해 혼란을 초래합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 방해가 될 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정한 구조를 가지고 있으나, 잘못된 정보로 인해 논리적인 흐름이 약간 깨집니다. 4차 발표에 대한 언급이 원본과의 연결성을 약화시킵니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 발표 차수에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 원본의 의도를 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8664050158202399</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **1차 등록**: 2024년 2월 14일(수) 09:00~16:00까지 이루어집니다.
+3. **2차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+4. **2차 등록**: 2024년 2월 15일(목) 09:00~16:00까지 이루어집니다.
+이후에는 3차 이후로는 개별 전화 통보를 통해 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 추가 합격 가능성을 판단하기 위해 필요한 정보에 대해 언급하고 있지만, 원본 텍스트에서 제공된 평균 점수와 관련된 정보는 충분히 반영되지 않았습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 추가 합격 가능성에 대한 판단을 위해 필요한 정보가 부족하다는 점에서 일관성이 떨어집니다. 원본 텍스트의 평균 점수와 관련된 정보가 충분히 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 질문에 적절하게 대응하고 있으며, 추가 합격 가능성에 대한 정보를 제공하려고 합니다. 그러나 원본 텍스트의 구체적인 점수 정보와의 연결이 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 관련된 정확성이 떨어지며, 필요한 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 구체적인 정보와의 연결이 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5231304484863507</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 모집인원이나 동점자 처리 기준 등 자세한 내용을 알 수 없습니다. 따라서 e비즈니스학과의 정시 전형에 추가 합격이 가능한지 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. e비즈니스학과의 정시 모집인원
+2. 동점자 처리 기준 (예: 수능 국어, 수학, 영어 등급 중 어느 영역을 기준으로 하는지)
+3. e비즈니스학과의 수능 반영 비율
+위와 같은 정보가 있다면, e비즈니스학과의 정시 전형에 추가 합격이 가능한지를 판단할 수 있습니다.
+만약 자세한 정보를 얻기 어렵다면, 입학사정관이나 대학 관계자에게 직접 문의하는 것이 가장 정확한 답변을 받는 방법입니다. 또한, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 추가적인 정보를 확인할 수 있습니다.
+따라서 현재로서는 e비즈니스학과의 정시 전형에 추가 합격이 가능한지 판단하기 어렵습니다. 자세한 내용을 얻기 위해 대학 입학 홈페이지나 관계자에게 문의해 보세요.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률, 충원 합격 인원 수, 표준 변환 점수 평균 및 표준 편차와 같은 정보를 포함하고 있지만, 원본 텍스트에서 제공된 영어 등급 평균(3.66)과 수능 4개 영역 등급 평균(4.53)과는 다른 수치(영어 등급 평균 4.13, 수능 4개 영역 등급 평균 4.98)를 제시하고 있습니다. 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 영어 등급 평균과 수능 4개 영역 등급 평균이 서로 다르며, 이는 일관성을 저해합니다. 또한, 정시 등급 5.3에 대한 해석이 원본 텍스트의 결론과 상충합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보와는 다소 거리가 있습니다. 그러나 경쟁률과 합격 기준에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 특히, 정시 등급에 대한 해석이 원본 텍스트의 결론과 일치하지 않아 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 제공하고 있으며, 특히 평균 등급에 대한 수치가 잘못되어 있습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절성은 있지만, 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6661674036787025</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 1.60이며, 충원 합격 (후보순위) 인원 수는 36명입니다. 지원 인원이 모집 인원보다 훨씬 적어 경쟁률이 낮습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 301.87이며, 표준 편차는 12.38입니다. 영어 등급의 평균은 4.13이며, 수능 4개 영역 등급의 평균은 4.98입니다.
+정시 등급 5.3이면 대략적으로 표준 변환 점수는 평균보다 약간 낮을 것으로 예상됩니다. 하지만 정확한 점수를 알 수 없으므로, 이 점수로 합격할 확률은 높지 않을 것 같습니다.
+하지만 최종 합격 여부는 여러 요소에 따라 달라질 수 있으므로, 동의대학교 e비즈니스학과의 정확한 합격 기준 점수와 지원자의 전체 성적을 고려하여 판단해야 합니다. 자세한 정보는 동의대학교 입시 홈페이지를 참조하시거나 관계 부서에 문의하시는 것이 좋습니다. "https://ipsi. deu.ac.kr/main.do"</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 여부를 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제시된 예비 38번의 상황에 대한 명확한 결론을 제공하지 않고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있으므로, 이 점에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 않고 있으며, 예비 38번의 합격 가능성에 대한 명확한 결론을 제시하지 않습니다. 원본 텍스트는 예비 38번의 가능성이 낮다고 명시하고 있으나, 생성된 응답은 이를 부정하는 듯한 내용을 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 예비 38번의 합격 가능성에 대한 직접적인 언급이 부족합니다. 그러나 전형일정과 모집인원 등 관련 정보를 언급하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 내용을 다루고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 결론을 반영하지 못해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5989071602310503</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형일정과 모집인원, 전형요소 반영 비율 등을 고려해야 합니다.
+1. **모집인원**: e비즈니스학전공의 모집인원을 확인해야 합니다.
+2. **전형요소 반영 비율**: 수능과 실기 등 각 요소의 반영 비율을 파악해야 합니다.
+3. **성적 및 평가 결과**: 실제 성적(수능, 실기 등)과 서류평가 결과를 바탕으로 판단해야 합니다.
+예비합격 가능성에 대한 정확한 답변을 위해서는:
+- e비즈니스학전공의 모집인원 확인
+- 전형요소 반영 비율 확인
+- 실제 성적 및 평가 결과 확인
+위 정보들을 종합적으로 분석하여 판단해야 합니다. 필요하다면 학교 입학관리팀에 문의하시거나, 제공된 링크를 참조해 보시는 것이 좋습니다.
+[링크] https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 모집 인원, 전형, 성적 반영 방식 등과 같은 추가 정보를 제공하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 언급된 평균 등급과 관련된 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 간호학과에 합격하기 어려울 수 있다는 점을 강조하고 있습니다. 다만, 면접 준비와 같은 추가적인 조언이 포함되어 있어 약간의 차이가 있지만, 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 대한 적절한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성이 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에서 제공된 평균 등급에 대한 정보가 누락되어 있어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 정보 누락으로 인해 완벽하지는 않습니다. 전반적으로 양호한 품질입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 따라서 의미 적합성 점수는 높습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5842853852401551</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집인원은 110명이며, 전형별로 다음과 같은 특징이 있습니다:
+- **전형**: 학생부종합(평생학습자전형)
+- **모집인원**: 정원 내 110명
+- **성적 반영 방식**: 
+  - 반영과목: 전 모집단위 (한의예과 제외) 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+  - 반영비율: 학생부교과 60%, 면접 40%
+성적 3.44는 고등학교 성적이 좋은 경우에도 합격하기 어려울 수 있습니다. 하지만 간호학과의 경우, 학생부 종합 평가에서 교과 성적 외에 면접 결과도 중요한 요소로 반영되기 때문에, 교과 성적 외에 뛰어난 면접 실력이 있다면 합격 가능성은 있습니다.
+추천되는 조치는 다음과 같습니다:
+1. **면접 준비**: 면접에서 좋은 인상을 주기 위해 충분히 준비해야 합니다.
+2. **교과 성적 확인**: 현재의 교과 성적이 최상위 등급에 해당하는지 확인하고, 필요하다면 향상시킬 수 있는 과목이 있는지 살펴보세요.
+3. **추천서 및 자소서 작성**: 추천서와 자기소개서를 잘 준비하여 학생부 종합 평가에서 긍정적인 영향을 미칠 수 있도록 하세요.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 성적에 대한 정보와 경쟁률을 언급하고 있지만, 원본 텍스트에서 제시된 "정시 등급이 2.52라면 합격 가능성이 높다"는 내용을 반박하고 있습니다. 이는 원본 텍스트의 주장을 왜곡하는 것으로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 2.52라는 성적이 합격 가능성이 높다고 언급했으나, 생성된 응답은 그와 반대로 합격하기 어렵다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 평균 성적에 대한 정보를 제공하며, 질문에 대한 답변을 시도하고 있습니다. 그러나 원본 텍스트의 핵심 주제인 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 특히, 합격 가능성에 대한 주장이 원본 텍스트와 다르기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 주장을 반박하는 내용이 포함되어 있어 의미적으로 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6470816232202986</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종합격하기는 어렵다고 판단됩니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 동의대학교 간호학과의 경쟁률이 매우 높습니다 (6.59). 이는 지원자가 많고 모집인원이 적기 때문에 입학이 어려워집니다.
+2. **평균 성적**: 제공된 데이터에서, 간호학과의 평균 영어 등급은 2.34이며, 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 481.70입니다. 이는 2.52라는 성적과 비교해볼 때 상당히 높습니다.
+3. **성적 편차**: 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 481.70이고, 표준 편차는 6.87입니다. 이는 성적이 상대적으로 높은 편임을 나타냅니다.
+따라서, 2.52라는 성적은 동의대학교 간호학과에 최종합격하기 어렵다고 판단됩니다. 더 높은 성적이나 다른 지원 전략이 필요할 수 있습니다. 추가 정보나 자세한 조언을 원하시면 "https://ipsi. deu. ac. kr/main. do"를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 정시 성적에 대한 정보를 포함하고 있으며, 합격 가능성에 대한 여러 요인을 제시하고 있습니다. 그러나, 원문에서 제시된 평균 등급보다 낮은 성적이라는 점을 명확히 강조하지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 정시 성적이 평균보다 낮다는 점을 간과하고 여러 요인에 따라 합격 가능성을 논의하는 방식으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 여러 요인을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확히 설명하고 있습니다. 그러나, 원문과의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 간호학과의 입학 요건에 대한 정확한 정보를 제공하고 있지만, 원문에서 제시된 평균 등급과의 비교가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, 원문에서 강조된 점을 충분히 반영하지 못한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5770587672056039</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 정시 성적을 가지고 간호학과에 합격할 수 있는지는 여러 요인에 따라 다릅니다. 간호학과는 일반적으로 높은 입학 경쟁률을 보이므로, 정시 성적만으로 합격하기는 어렵다고 볼 수 있습니다.
+하지만, 다음과 같은 요소들을 고려하면 가능성이 열리게 됩니다:
+1. **학생부 교과성적**: 2024년도부터 학생부 교과성적 반영이 강화되었습니다. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하게 되었습니다. 따라서, 좋은 성적을 받은 과목들이 있다면 이 부분에서 유리할 수 있습니다.
+2. **학생부 인성**: 학생의 인성 및 도덕성, 참여도 등을 평가받습니다. 활동적인 학생이라면 이 부분에서도 긍정적으로 작용할 수 있습니다.
+3. **면접 성적**: 일부 전형에서는 면접을 실시하며, 간호사로서 필요한 역량과 태도를 평가합니다. 준비한 후 좋은 성적을 받을 수 있다면 이 부분에서 유리할 수 있습니다.
+4. **특기사항 및 활동**: 특기사항이나 관련 활동이 있다면 이를 통해 합격 가능성에 영향을 줄 수 있습니다.
+따라서, 정시 성적이 3.7이라면 간호학과에 합격하기 위해서는:
+- **학생부 교과성적**에서 좋은 점수를 받은 과목들이 많아야 합니다.
+- **면접 준비**를 철저히 해야 합니다.
+- **특기사항 및 활동**을 잘 준비해야 합니다.
+이러한 요소들을 종합적으로 고려하여 지원하면 합격 가능성에 영향을 줄 수 있습니다. 자세한 정보는 대학의 공식 웹사이트나 입학처와 상담하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do"를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 정시 합격 기준 점수가 공개되지 않았다고 언급하고 있지만, 원문에서는 현재 정시 등급이 2.58이라면 합격 가능성이 높다고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 합격 가능성에 대한 판단을 어렵다고 하여 원문의 긍정적인 내용을 반박하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원문에서 제시된 구체적인 성적 기준에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 구체적인 성적 기준과 합격 가능성에 대한 정보를 왜곡하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.572489306091745</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 정시 합격 기준 점수는 공개되지 않았습니다. 따라서 현재로서는 정확한 합격 가능성을 판단하기 어렵습니다.
+정시 전형의 합격 기준은 모집단위, 학과, 그리고 해당해 있는 성적 영역 등에 따라 다르므로, 동의대학교 간호학과의 정시 합격 기준 점수를 확인해야 합니다. 이 정보는 동의대학교 입학처 웹사이트나 입학 안내서에서 확인할 수 있습니다.
+추가적으로, 간호학과의 경우 실기 평가도 포함되어 있으므로, 단순히 성적만으로 합격 가능성을 판단하기 어렵습니다. 실기 평가 점수와 함께 고려해야 합니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 더 자세한 내용을 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 게임공학과의 모집 인원 및 일정에 대한 정보가 명시되어 있지 않다고 언급하고 있지만, 원본 텍스트에서는 예비 7번의 경우 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 응답은 일부 사실을 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 예비 7번의 합격 가능성에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과의 모집 인원 및 일정에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 예비 7번의 합격 가능성에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 예비 7번의 합격 가능성에 대한 명확한 정보를 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있지만, 예비 7번의 합격 가능성에 대한 정보가 부족하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6221615379299431</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보로는 게임공학과에 대한 모집 인원 및 일정 등이 명시되어 있지 않습니다. 게임공학과의 경우, 해당 학교에서 게시한 전형일정과 모집인원 등을 확인해야 합니다.
+전형일정을 확인하기 위해서는 아래 링크를 참조하시거나, 제공된 정보 중에서 관련 내용을 찾아보시기 바랍니다:
+[입학 안내 홈페이지](https://ipsi.deu.ac.kr/main.do)
+또한, 게임공학과의 모집인원이 7명이라는 점은 참고할 수 있지만, 붙을 확률을 정확히 예측하기 위해서는 전체 모집 인원과 경쟁자 수 등을 파악해야 합니다.
+만약 추가 정보가 필요하시다면, 해당 학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 점수 4.16에 대한 합격 가능성을 언급하고 있지만, 평균 수능 점수와 표준 편차에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 잘못된 수치를 사용하고 있습니다. 또한, 경쟁률과 모집 인원에 대한 정보도 원본 텍스트에 포함되어 있지 않아 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 정보(예: 경쟁률, 모집 인원 등)를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트는 수능 점수 4.16이 평균보다 높다고 언급하고 있지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 여러 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보(합격 가능성)에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 요소 간의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 잘못된 정보를 포함하고 있으며, 수치와 통계에 대한 정확성이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과 관련된 내용을 다루고 있지만, 일부 정보가 부정확하여 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 표현되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.610535949710092</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 게임공학과에서 지원하는 데 있어 경쟁률이 매우 높은 상황을 반영하고 있습니다. 위의 데이터를 바탕으로 분석해보면:
+- 게임공학과의 모집인원은 3명이며, 지원 인원은 16명입니다.
+- 경쟁률은 5.33이며, 충원 합격자는 3명입니다.
+이렇게 높은 경쟁률을 고려할 때, 수능 점수가 4.16인 경우 추가 합격 가능성은 매우 낮습니다. 평균 수능 점수는 5.27이며, 표준 편차가 0.43이므로 4.16은 상당히 낮은 점수입니다.
+하지만, 정시 전형에서 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+1. **면접 성적**: 면접 평가는 지원자의 문제해결 능력, 진로 탐색 능력 등을 종합적으로 평가합니다. 이 부분에서는 지원자가 자신의 지원 동기와 학업 계획을 명확하게 설명하고, 전공 적합성을 잘 보여줄 수 있다면 추가적인 점수를 얻을 수 있습니다.
+2. **서류 평가**: 서류 평가는 학교생활기록부, 면접 질문 답변 내용 등을 종합적으로 평가합니다. 이 부분에서는 지원자가 자신의 학업 역량과 전공 적합성을 잘 보여줄 수 있도록 준비해야 합니다.
+3. **추가 요인**: 예를 들어, 창의적 체험 활동이나 특기사항 등이 있다면 이를 잘 활용할 수 있습니다.
+따라서, 4.16이라는 점수로는 추가 합격 가능성은 낮지만, 면접과 서류 평가에서 좋은 성적을 얻을 경우 추가 합격 가능성은 열려 있습니다. 하지만 이는 매우 높지 않은 확률입니다.
+추가적으로, 동의대학교 게임공학과에 지원하려면 정시 전형의 요구사항을 충족해야 합니다. 따라서, 위와 같은 요소들을 종합적으로 고려하여 지원 계획을 세우는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.88, 수능 3.88)에 대한 언급이 없고, 학생부 교과성적 반영방법에 대한 정보가 추가되어 있어 원본의 핵심 내용을 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학생부 교과성적 반영방법에 대한 정보가 추가되어 있어 원본의 주제와는 다소 일관성이 떨어집니다. 원본의 합격 가능성에 대한 언급이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 지원과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 정시 성적과 합격 가능성에 대한 직접적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있어 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있지만, 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 학생부 교과성적 반영방법에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6758880470591906</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집군에서 경영정보학과를 지원하려면, 학생부 교과성적 반영방법을 확인해야 합니다. 현재 제공된 정보에서는 2023학년도와 2024학년도의 학생부 교과성적 반영방법이 다소 다르게 변경되어 있습니다.
+2023학년도에는 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영하였습니다. 
+2024학년도에는 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하였습니다. 
+따라서 경영정보학과를 지원하려면, 2024학년도의 학생부 교과성적 반영방법에 따라 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 확인해야 합니다. 
+만약 경영정보학과의 정시 성적 3.75가 이 12과목 중에서 좋은 성적이었다면 최초 등록자로 가능할 수 있습니다. 하지만, 정확한 판단을 위해서는 해당 학교의 공식 홈페이지(https://ipsi. deu.ac.kr/main.do)를 확인하거나, 입학처에 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있으며, 4.2의 수능 점수가 평균보다 낮다는 점을 언급하고 있습니다. 그러나 평균 점수와 표준 편차에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가적인 정보로 간주할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 일관성이 떨어질 수 있습니다. 또한, 최초합격 가능성에 대한 해석이 원본 텍스트와 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 일반적으로 정확합니다. 그러나 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본 텍스트의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.753429929385614</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.2인데 경영정보학과 최초 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>4.2의 수능 점수는 경영정보학과의 최초합격에 대한 확률을 높일 수 있지만, 확실한 것은 아닙니다. 경영정보학과의 경우 모집인원은 9명이고 지원 인원이 95명으로 경쟁률이 매우 높습니다(10.56). 평균 점수는 326.89이며, 표준 편차는 6.92입니다.
+4.2의 수능 점수가 평균보다 약간 낮은 수준이므로, 경쟁률과 지원 인원을 고려할 때 최초합격 가능성은 낮지만, 여전히 가능합니다. 학업역량과 전공적합성 등 서류평가와 면접 성적이 좋은 경우에도 최초합격이 가능한데, 이 부분도 중요하게 고려해야 합니다.
+따라서, 4.2의 수능 점수로 경영정보학과의 최초 합격을 확신할 수는 없지만, 서류평가와 면접 성적이 좋다면 가능성을 높일 수 있습니다. 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 가장 정확합니다.
+추가적으로, "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 5.33이라는 성적이 우수하다고 언급하지만, 원본 텍스트에서는 5.33이 경영정보학과의 평균 등급보다 낮다고 명시하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 5.33이 낮은 성적이라고 했으나, 생성된 응답에서는 이를 우수한 성적이라고 주장하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 여러 요소를 고려하고 있지만, 원본 텍스트의 핵심 정보와는 다소 동떨어진 내용이 포함되어 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 각 요소 간의 연결이 매끄럽지 않아 일관된 흐름이 부족합니다. 정보가 분산되어 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 5.33이라는 성적이 낮다고 명시된 원본과는 반대로, 우수하다고 주장하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성이 부족하여 전반적인 품질이 낮습니다. 관련성은 높지만, 정확성과 일관성이 결여되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 원본과 상충하여 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6557380700624902</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 정시 일반학생전형으로 경영정보학과  합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 성적을 가지고 동의대학교 정시 일반학생전형에서 경영정보학과에 합격할 수 있는지는 여러 요소를 고려해야 합니다.
+1. **성적 기준**: 동의대학교 정시 일반학생전형에서는 국어, 수학, 영어, 탐구 등 4개 영역을 반영합니다. 각 영역별로 표준점수와 등급 점수가 반영되며, 경영정보학과는 이 중에서 국어, 수학, 영어, 탐구를 주요하게 고려할 것입니다.
+2. **성적 분포**: 5.33이라는 성적은 상당히 높은 점수입니다. 일반적으로 동의대학교 정시 일반학생전형에서는 평균적인 성적이 4.0~4.5 사이를 기준으로 합니다. 따라서 5.33이라는 성적은 매우 우수한 성적을 보여줍니다.
+3. **경쟁률**: 경영정보학과는 인기 학과로, 정시 모집에서는 높은 경쟁률이 예상됩니다. 그러나 5.33이라는 성적이 매우 높으므로, 이 정도의 성적이라면 경쟁력을 갖추고 있을 것입니다.
+4. **성적 변환**: 동의대학교는 국어, 수학, 영어 등급 점수를 반영합니다. 따라서 5.33이라는 성적은 표준점수로 변환되어 평균 이상의 점수가 될 것입니다.
+따라서, 5.33이라는 우수한 성적을 가지고 있다면 경영정보학과에 합격할 가능성이 매우 높습니다. 그러나 최종 합격 여부는 동의대학교에서 발표하는 정시 모집 결과를 확인해야 합니다. 따라서, 정확한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지나 입학처와 연락을 취하시는 것이 좋습니다.
+더 자세한 정보를 얻고 싶으시다면, https://ipsi. deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 특정 성적(영어 등급 평균 3.82, 수능 4개 영역 등급 평균 4.74)에 대한 언급이 없고, 제공된 데이터와의 일관성이 부족하다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 모집 인원에 대한 정보가 추가되어 있어 원본 텍스트의 주제와 완전히 일치하지 않는다. 따라서 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있지만, 질문의 핵심인 최초 등록 가능성에 대한 직접적인 답변이 부족하다. 그러나 관련된 정보는 포함되어 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 특정 세부사항을 누락하고 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 특정 맥락을 완전히 반영하지는 않는다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6503711289737314</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 식별 정보를 바탕으로, 현재 제공된 데이터는 주요 변경사항과 각 학과의 경쟁률 및 지원 인원 등을 기반으로 한 것입니다. 특정 학과에 대한 최초 등록 가능 여부를 정확히 판단하기 위해서는 해당 학과의 모집인원, 지원 인원, 경쟁률 등의 정보가 필요합니다.
+현재 제공된 데이터 중에서 바이오응용공학부에 대한 정보는 다음과 같습니다:
+- 2024학년도 모집단위: 의생명공학과, 바이오의약공학과, 식품공학과
+- 모집 인원: 99명
+- 지원 인원: 238명
+- 경쟁률: 2.40
+경쟁률은 2.40으로, 이는 지원 인원이 모집 인원보다 훨씬 많다는 것을 의미합니다. 그러나 정확한 등록 가능 여부를 판단하기 위해서는 개인의 성적과 해당 학과의 평균 성적 등을 고려해야 합니다.
+현재 제공된 데이터에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 318.80이며, 이는 지원자의 성적이 해당 학과의 평균보다 낮습니다. 그러나 경쟁률이 높기 때문에, 특정 개인의 성적만으로 결정할 수 없습니다.
+따라서, 정확한 답변을 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 학교 관계자에게 직접 문의하는 것이 가장 좋습니다. 해당 웹사이트에서 최신 정보와 지원 절차 등을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보는 포함하고 있지만, 학생부 종합 평가와 관련된 내용은 원본 텍스트에서 언급되지 않은 추가적인 정보입니다. 따라서, 원본 텍스트의 사실과 일치하지 않는 부분이 있어 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 추가적인 정보를 제공하지만, 원본 텍스트의 주된 내용과는 일치하지 않는 부분이 있습니다. 예를 들어, 학생부 종합 평가에 대한 언급은 원본 텍스트에 포함되어 있지 않으며, 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 요소를 설명하고 있지만, 원본 텍스트의 핵심 내용인 정시 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수가 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 이들 간의 논리적 연결이 다소 약합니다. 각 항목이 독립적으로 제시되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보는 정확하지만, 학생부 종합 평가와 같은 추가적인 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 점수가 낮은 편입니다. 사실성, 일관성, 정확성 모두에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5738951730202168</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도의 방사선학과에 지원하려면, 학생부종합 평가를 받을 가능성이 높습니다. 현재 정시 등급이 4.4로 보통의 경우 방사선학과는 비교적 높은 성적을 요구하기 때문에, 방사선학과에 진학하려면 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 종합 평가**: 현재 정시 등급이 4.4라면, 학생부종합 평가에서 좋은 결과를 얻기 위해서는 인성, 학업역량, 전공적합성을 잘 보여줘야 합니다.
+2. **진로선택과목 성적 반영**: 방사선학과에 지원하려면 관련 진로선택과목의 성적이 중요합니다. 방사선학과와 관련된 과목을 잘 수강하고 좋은 성적을 받는 것이 유리할 것입니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구하기도 합니다. 이에 대한 준비가 필요합니다.
+4. **면접 준비**: 방사선학과의 경우 면접을 통해 지원자의 적합성을 평가하는 경우가 많습니다.因此，根据提供的信息，目前您的成绩可能不太适合直接申请放射学专业。建议您先了解该专业的具体要求，并考虑其他与之相关的专业或课程作为过渡。
+如果您还有其他问题或者需要进一步的帮助，请访问“https://ipsi. deu. ac. kr/main. do”以获取更多信息。
+如果您想了解更多关于放射学专业的详细信息，可以参考上述链接中的相关信息。</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않습니다. 또한, 2.66의 정시 등급이 평균보다 높다는 원본의 주장을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용과는 일치하지 않는 부분이 있습니다. 특히, 2.66이 평균보다 높다는 원본의 주장을 반영하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하여 관련성이 있지만, 원본 텍스트의 주요 포인트인 정시 등급과 평균 등급에 대한 정보는 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 사실과는 다소 차이가 있습니다. 특히, 2.66의 정시 등급이 평균보다 높다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 주요 사실을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 의미를 적절하게 전달하고 있지만, 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.474237356967846</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 경쟁률을 방사선학과에서 볼 때, 지원 인원이 36명이고 모집인원이 5명이라는 점을 고려하면, 이는 상당히 높은 경쟁률입니다. 평균 경쟁률이 7.20인 방사선학과에서 2.66은 매우 낮은 수치로 보여, 충분한 안전Margin을 확보하고 있지 않을 가능성이 있습니다.
+방사선학과의 경우, 모집인원이 5명이고 지원 인원이 36명이라는 점에서 경쟁률이 높습니다. 이는 충원 합격자가 5명이므로, 평균적으로 7.20:1의 경쟁률을 보여줍니다. 따라서 2.66은 상대적으로 낮은 수치로, 다른 지원자들보다 높은 확률로 합격할 가능성이 있습니다만, 여전히 높은 경쟁률에 직면하고 있으므로 안심하지는 않습니다.
+이런 상황에서 추가적인 준비를 하는 것이 좋습니다. 예를 들어, 면접 준비나 서류 제출 시의 내용을 더욱 강화하여 지원자의 전반적인 역량을 보여줄 수 있는 방법을 고려해보세요. 또한, 다른 모집단위에서도 지원하는 것을 고려해볼 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 3.66의 성적이 평균보다 높다는 점을 정확하게 반영하고 있습니다. 그러나 실기와 면접의 중요성에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로, 약간의 추가 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 3.66의 성적이 평균보다 높고 경쟁률이 낮아졌다는 점을 잘 반영하고 있습니다. 다만, 실기와 면접에 대한 추가적인 정보가 포함되어 있어 약간의 일관성 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 대한 답변을 제공하고 있습니다. 모든 정보가 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 실기와 면접의 중요성에 대한 언급이 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5616183973887909</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 정시 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 어느 정도일까요?
+경찰행정학과의 경우, 일반적으로 농어촌 전형에서는 정시 성적이 중요한 요소가 되지만, 다른 평가 기준들도 함께 고려됩니다. 특히 경찰행정학과는 실기와 면접 등도 중요하게 평가받습니다.
+1. **정시 성적**: 3.66은 좋은 성적입니다. 농어촌 전형에서는 이 정도의 성적이 합격 가능성을 높이지만, 경쟁률에 따라 달라질 수 있습니다.
+2. **실기 및 면접**: 실기와 면접에서 좋은 평가를 받는 것이 중요합니다. 실기 종목은 시범, 겨루기 중 하나로 선택되며, 각각의 기초실기와 응용실기가 포함됩니다. 따라서 실기를 잘 준비하는 것이 필요합니다.
+3. **서류평가**: 서류평가에서도 학업역량과 전공적합성을 평가받습니다. 이 부분에서는 창의적 체험활동, 동아리 활동, 진로활동 등이 중요하게 고려됩니다.
+따라서, 정시 성적이 3.66이라면 합격 가능성은 높지만, 경쟁률과 실기 및 면접 평가 결과에 따라 달라질 수 있습니다. 
+추천되는 조치는 다음과 같습니다:
+1. **실기 준비**: 시범이나 겨루기를 선택하고, 각각의 기초실기와 응용실기를 잘 준비하세요.
+2. **면접 준비**: 면접 질문을 미리 예상해 답변을 준비하세요.
+3. **서류 작성**: 서류평가 영역별로 잘 준비된 내용을 기재하세요.
+자세한 정보는 해당 대학의 입시 홈페이지를 확인하거나, 학교 관계자에게 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 지원한 학과에 따라 합격 확률이 달라질 수 있다는 점을 언급하고 있지만, 구체적인 학과 목록을 제공하지 않고 있습니다. 또한, 예비 25번의 순위가 나오더라도 확실하게 붙을 수 없다는 점은 사실이지만, 원문에서 제시한 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급한 내용과 일부분 일치하지만, 예비 25번의 순위에 대한 해석이 다릅니다. 원문은 특정 학과에 대한 합격 가능성을 언급하고 있으나, 생성된 응답은 일반적인 경쟁률에 대한 설명으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원한 학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 제시한 특정 학과 목록에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 경쟁률의 중요성을 강조하고 있지만, 원문에서 제공한 구체적인 학과 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일치성 및 구체성이 부족하여 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원문에서 제시한 특정 학과에 대한 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.512100324249306</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위가 나오더라도 확실하게 붙을 수 있는 것은 아닙니다. 정시 일반학생전형은 수능 위주로 이루어지므로, 수능 점수와 모집인원, 경쟁률 등이 매우 중요합니다.
+현재 정보만으로는 경쟁률과 수능 최저 기준 등을 알 수 없으니, 더 자세한 정보를 확인해 보시는 것이 좋습니다. 특히, 수능 점수가 높은 학생들이 많이 지원하는 모집단위에서는 낮은 순위라도 붙을 확률이 낮아질 수 있습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 입시 컨설팅 서비스 등을 활용해 보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 또한, 평균 성적과 관련된 수치도 원본 텍스트와 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 법경찰행정학부의 존재 여부와 평균 성적에 대한 정보가 서로 모순됩니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 입학 정보에 대한 내용을 다루고 있지만, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원본 텍스트의 핵심 주제와는 다소 동떨어져 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 어느 정도의 일관성은 있지만, 원본과의 관계에서 혼란을 초래합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히 법경찰행정학부의 존재 여부와 관련된 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 따라서 전체적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히 법경찰행정학부에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7727294548212125</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부의 모집인원은 7명이며, 지원 인원은 40명으로 경쟁률이 5.71입니다. 평균적으로 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 315.78이고, 표준 편차는 6.84입니다.
+이러한 정보를 바탕으로 안정권과 문 닫고 들어갈 수 있는 성적을 추정해보겠습니다:
+1. **안정권**: 경쟁률이 높은 만큼 안정적인 합격을 위해서는 평균 점수보다 조금 더 높은 점수를 받는 것이 좋습니다. 표준 편차가 6.84이므로, 평균점수에서 1.5표준편차 정도 더 높은 점수를 목표로 하면 안정권에 들어갈 수 있을 것입니다.
+   - **안정권 평균 성적**: 315.78 + (6.84 * 1.5) ≈ 329.00
+2. **문 닫고 들어갈 수 있는 성적**: 경쟁률이 높아서 문을 닫고 들어갈 수 있는 점수는 평균점수에서 표준편차를 더한 값으로 추정할 수 있습니다.
+   - **문 닫고 들어갈 수 있는 성적**: 315.78 + (6.84 * 2) ≈ 339.40
+따라서, 법경찰행정학부에 정시로 안정권에서 문 닫고 들어갈 수 있는 평균 성적은 각각 다음과 같습니다:
+- **안정권**: 약 329.00
+- **문 닫고 들어갈 수 있는 성적**: 약 339.40
+이러한 추정치는 실제 입학사정관의 판단과 평균 점수, 표준 편차 등 여러 요인에 따라 변동될 수 있으므로, 최종적인 합격 가능성을 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 보육가정상담학과의 합격 가능성에 대한 여러 요소를 언급하고 있으며, 이는 사실적인 정보에 기반하고 있습니다. 그러나 원본 텍스트에서 제공된 아동학과의 평균 등급에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 보육가정상담학과의 합격 가능성에 대한 다양한 요소를 설명하고 있습니다. 다만, 아동학과의 평균 등급에 대한 언급이 없어서 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 보육가정상담학과의 합격 가능성에 대한 관련 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 합격 가능성에 대한 다양한 요소를 정확하게 설명하고 있지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 및 수능 4개 영역 등급 평균)에 대한 언급이 없어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.575520005132231</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33 등급을 가진 지원자가 동의대학교 보육가정상담학과에 합격할 수 있는지는 여러 요소에 따라 달라집니다.
+1. **등급 기준**: 동의대학교 각 모집단위별로 정시모집에서 요구하는 최저 등급이 있습니다. 이 기준을 넘는 지원자는 합격 가능성이 높아집니다.
+2. **전형 방식**: 보육가정상담학과의 전형 방식에 따라 달라집니다. 예를 들어, 실기/실적 위주로 평가하는 경우 실력이 중요할 수 있습니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 고려해야 합니다. 경쟁률이 높다면 5.33 등급으로 합격하기는 어렵습니다.
+4. **기타 평가 요소**: 서류심사, 면접 등의 평가 요소도 중요합니다. 지원자의 서류와 면접 성적에 따라 결과가 달라질 수 있습니다.
+따라서 정확한 답변을 위해서는 동의대학교 보육가정상담학과의 최저 등급 기준과 전형 방식, 경쟁률 등을 확인해야 합니다. 이를 통해 합격 가능성을 판단할 수 있을 것입니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 정확하게 반영하고 있습니다. 그러나 동점자 처리 기준에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 동점자 처리 기준에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에서는 동점자 처리 기준에 대한 정보가 없기 때문에, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 예비 번호와 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 동점자 처리 기준에 대한 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 동점자 처리 기준에 대한 언급이 원본 텍스트에 없기 때문에 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 동점자 처리 기준에 대한 언급으로 인해 일부 차원에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 동점자 처리 기준에 대한 언급이 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 동점자 처리 기준에 대한 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6440830288435497</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 충원 합격 3차에서 예비 12번을 받았다면, 합격 가능성은 아직 불확실합니다. 동점자 처리 기준에 따라 순위와 동점자 처리 기준이 중요하게 작용하므로, 정확한 합격 여부는 최종 발표일까지 확인해야 합니다.
+현재 정보로는:
+1. 동점자 처리 기준이 명시되어 있습니다.
+2. 예비 12번을 받았다는 점에서, 상위 순위에 포함된 것으로 보입니다.
+3. 최종 합격 여부는 2024년 02월 20일까지의 동점자 처리 결과에 따라 결정됩니다.
+따라서, 최종 발표일까지 기다리시거나, 입학관리팀에 직접 문의하시면 더욱 정확한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않고 있습니다. 원본 텍스트에서는 유아교육학과의 평균 성적이 4.18이라고 명시되어 있어, 4.75로 지원하기 어려운 이유가 명확히 제시되어 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보와 관련된 내용을 포함하고 있지만, 원본 텍스트에서 제시된 평균 성적과의 일관성이 부족합니다. 원본에서는 4.75로 지원하기 어려운 이유를 명확히 설명하고 있으나, 생성된 응답은 이를 간과하고 있습니다. 따라서, 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 정보를 제공하고 있으며, 관련된 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다. 따라서, 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 약간의 일관성 결여가 있습니다. 따라서, 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하지만, 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 않고 있습니다. 원본 텍스트의 정보와 비교했을 때, 정확성이 떨어지는 부분이 있습니다. 따라서, 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다. 따라서, 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대한 의미를 잘 전달하고 있으며, 관련된 조언을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 부족하여 약간의 의미적 부적절성이 있습니다. 따라서, 의미적 적절성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서, 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7375863785458378</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 하지만 정시 모집에서의 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **성적 외 평가**: 정시 모집에서는 단순히 성적이 아닌 다양한 요소를 고려합니다. 예를 들어, 진로 탐색 능력, 문제 해결 능력 등이 포함됩니다.
+2. **전공 적합성**: 유아교육학과는 교육적 역량과 창의성이 중요하므로, 이러한 면에서 준비가 되어 있으면 도움이 될 수 있습니다.
+유아교육학과에 지원할 때는 다음과 같은 점들을 고려해 보세요:
+- **진로 탐색 능력**: 유아교육에 대한 관심과 이해를 잘 표현하세요.
+- **창의성**: 예술 활동이나 창의적인 프로젝트 등을 통해 자신의 창의성을 보여주세요.
+- **진로 관련 활동**: 학교에서의 교육활동, 동아리 활동 등이 유아교육에 대한 이해를 증명할 수 있습니다.
+따라서 4.75라는 높은 성적을 가지고 있다면, 유아교육학과에서도 충분히 경쟁력을 갖추실 수 있을 것입니다. 하지만 성적이 단순 평가의 전부는 아니므로, 다양한 면에서 준비를 하시는 것이 좋습니다.
+더 궁금하신 점이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보가 누락되어 있다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본 텍스트는 특정한 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어진다. 그러나 일부 정보는 관련이 있을 수 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족하다. 원본 텍스트의 핵심 주제와 연결되지 않아 일관된 메시지를 전달하지 못하고 있다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있어 의미의 일관성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 내용이 복잡하게 표현되어 있어 이해하는 데 약간의 어려움이 있을 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 소프트웨어공학부가 정시모집을 한다고 주장하고 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 제공합니다. 원문에서는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답에서는 정시모집이 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 질문의 핵심인 소프트웨어융합학과의 정시 지원 가능성에 대한 답변이 아닙니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 불일치로 인해 일관성이 떨어집니다. 정보는 잘 연결되어 있으나, 주제와의 관련성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 크게 다릅니다. 소프트웨어융합학과의 정시 지원 불가능성을 무시하고 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다. 사실성, 일관성, 관련성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4304704181913853</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부는 정시모집으로 모집되고 있습니다. 이 학과의 경쟁률은 4.87이며, 지원 인원이 많아서 높은 경쟁률을 보이고 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다. 이는 소프트웨어공학부에 지원하기 위한 기본적인 점수를 나타내는 것입니다.
+영어 등급의 평균은 3.77이며, 수능 4개 영역 등급의 평균은 4.49입니다. 이러한 평균 등급을 기준으로 소프트웨어공학부에 지원하기 위해서는 대략적으로 다음과 같은 등급 정도를 받아야 합니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87 이상
+- 영어 등급: 3.77 이상
+- 수능 4개 영역 등급의 평균: 4.50 이상
+이러한 기준을 충족시켜야 소프트웨어공학부에 정시로 지원할 수 있습니다. 하지만 이는 단순히 평균적인 기준이며, 실제로는 경쟁률과 모집인원 등 여러 요소가 고려되어 결정됩니다. 따라서 최종적으로 지원 가능 여부를 확인하려면 해당 대학의 공식 입학 정보나 전형 안내를 참조하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 를 방문해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 점수와 세특 내용이 모두 중요한 요소라고 언급하고 있지만, 원본 텍스트에서는 서류 평가와 면접 고사, 학생부 교과성적을 합쳐서 평가한다고 명시하고 있습니다. 따라서 면접 점수와 세특 내용의 비중에 대한 주장은 원본 텍스트의 정보와 일치하지 않으며, "따로 준비해야 하는 서류는 없다"는 부분도 원본 텍스트의 정보와 상충합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 면접 점수와 세특 내용의 비중에 대한 주장은 원본 텍스트의 평가 방식과 일치하지 않습니다. 또한, 서류 준비에 대한 언급이 원본 텍스트와 상충하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 점수와 세특 내용, 서류 준비에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평가 방식과 서류 준비에 대한 정보가 부정확하여 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 부정확성으로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4562994426896849</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접 점수와 세특 내용은 모두 중요한 요소입니다. 특히, 세특 내용은 지원자의 진정한 능력과 특성을 반영하기 때문에 면접 점수보다 더 많은 비중을 차지할 수 있습니다.
+따로 준비해야 하는 서류는 없습니다. 하지만, 지원자가 자신의 세특 내용을 잘 설명하고 증빙 자료를 첨부하는 것이 중요합니다. 예를 들어, 창의적 체험활동에 참여한 경우 해당 활동에서 얻은 경험과 배운 것을 세특 내용으로 작성할 수 있습니다.
+또한, 면접 시 제출된 서류와 내용이 일치하도록 준비해야 합니다. 이는 면접관에게 지원자의 진실성을 보여주고, 서류 평가와 면접 평가를 통합적으로 판단하게 하기 위함입니다.
+더 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 4.08의 성적이 최초합격 가능성이 낮다고 주장하지만, 원본 텍스트에서는 4.08이 최초합격자의 평균 등급과 비교적 근접하다고 언급하고 있습니다. 또한, 평균 수능 점수 328.83은 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.08의 성적이 최초합격 가능성이 있다고 언급하는 반면, 생성된 응답은 가능성이 낮다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 잘못된 정보로 인해 주제와의 관련성이 약간 떨어집니다. 그러나 전반적으로 질문에 대한 답변으로서 적절한 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 각 항목이 나열되어 있지만, 전체적인 연결성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 평균 수능 점수와 관련된 정보는 원본 텍스트에 없으며, 이는 부정확한 내용입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장은 명확하게 작성되어 있어 이해하는 데 큰 어려움은 없습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.8290267425497627</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수를 가지고 동의대학교 소프트웨어공학부에 최초합격을 할 가능성은 낮습니다.
+다음과 같은 이유들이 있습니다:
+1. **경쟁률**: 소프트웨어공학부는 경쟁률이 매우 높습니다 (4.25). 이는 모집인원(45명) 대비 지원인원(146명)의 비율을 의미합니다.
+2. **평균 점수**: 제공된 데이터에 따르면, 소프트웨어공학부의 최초합격자의 평균 수능 점수가 328.83입니다. 이는 4.08보다 훨씬 높습니다.
+3. **표준편차**: 표준편차가 9.65로, 이는 점수의 분산이 상당히 크다는 것을 의미합니다. 그러나 평균점수가 매우 높은 상태에서 4.08은 여전히 낮은 수치입니다.
+따라서, 4.08이라는 점수를 가지고 최초합격을 할 가능성은 매우 낮습니다. 더 높은 수능 점수를 얻는 것이 필요할 것입니다. 또한, 면접이나 서류평가에서 좋은 성적을 받는 것도 중요합니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi.deu.ac.kr/main.do에 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트와의 사실적 일치가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정보 대신 소프트웨어공학부에 대한 정보를 제공하고 있어 일관성이 떨어집니다. 원본 텍스트와의 내용이 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 질문의 맥락인 소프트웨어융합학과와는 관련성이 낮습니다. 그러나 입시 정보에 대한 일반적인 내용은 포함되어 있어 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 소프트웨어융합학과와 소프트웨어공학부의 혼동으로 인해 논리적 흐름이 약간 깨집니다. 정보가 잘 연결되지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않으며, 잘못된 학과 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 질문의 맥락과는 맞지 않아 의미적으로 적절하지 않습니다. 그러나 입시 관련 정보는 여전히 유용할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 학과의 혼동으로 인해 일부 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6186866580631764</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 지원 자격 중 진로선택과목 성적반영이 A:1등급 B:3등급 C:5등급으로 설정되어 있습니다. 따라서 평균 5등급은 C 등급에 해당합니다.
+소프트웨어공학부는 2024년도에 모집 인원이 30명이고, 지원 인원이 146명으로 경쟁률이 4.87입니다. 충원 합격자는 63명이며, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 표준 편차는 7.35입니다.
+따라서 평균 5등급으로 지원한다면, 해당 과목 성적 반영이 C 등급인 것을 고려해야 합니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 수능 점수와 기타 평가 요소들을 종합적으로 고려해야 합니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시거나, 대학 입시 관련 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 여러 요인을 언급하고 있으며, 수능 성적과 관련된 정보도 정확하게 반영하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급과 비교하여 합격 가능성을 단정짓지 않고 여러 요인을 고려해야 한다고 언급한 점에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 수능 성적의 중요성을 강조하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과의 비교를 명확히 하지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 신소재공학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확히 설명하고 있습니다. 그러나 결론 부분에서 약간의 중복이 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적과 관련된 정보가 정확하게 반영되어 있으며, 합격 가능성에 대한 판단도 적절합니다. 그러나 원본 텍스트의 평균 등급과의 비교가 부족하여 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 약간의 모호함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 복잡한 표현이 사용되어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6486168270965126</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 합격할 수 있는지는 여러 요인에 따라 다릅니다. 주요 요인으로는 해당 모집단위의 수능 반영 영역, 반영 비율, 그리고 해당 과목의 수능 점수 등이 있습니다.
+1. **수능 반영 영역 및 비율**: 동의대학교 신소재공학과의 경우 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 중 2개 과목)이며 각 영역별 반영 비율은 25%입니다.
+2. **수능 점수**: 신소재공학과의 경우 수능 성적 반영 비율이 높기 때문에, 수능 점수가 합격에 큰 영향을 미칩니다. 특히 수학 부분에서 좋은 성적이 필요할 것입니다.
+3. **전형 요소**: 정시 모집에서는 주로 수능 성적과 교과 성적이 중요합니다. 따라서 4.28이라는 성적은 수능 점수를 고려해야 합니다.
+**결론**: 4.28의 성적만으로는 확실하게 합격할 수 있는 보장이 없습니다. 하지만 수학 부분에서 좋은 성적을 받았다면, 합격 가능성은 높아질 것입니다. 정확한 합격 가능성을 확인하려면 동의대학교의 공식 홈페이지나 입학처에 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 언급하고 있지만, 일부 대학에서 요구할 수 있다는 추가 정보를 제공하고 있습니다. 이는 사실일 수 있지만, 원문에서 명확히 언급되지 않았기 때문에 다소 모호한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분도 있지만, 일부 대학에서 자기소개서를 요구할 수 있다는 내용은 원문과 상충할 수 있는 정보입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 수능 일반학생전형과 자기소개서에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와는 다소 차이가 있으며, 일부 대학에서 자기소개서를 요구할 수 있다는 내용은 정확한 정보인지 확인이 필요합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 관련성, 유창성, 일관성 등에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족함이 있어 중간 이상의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 맥락에 맞는 정보를 제공합니다. 그러나 추가된 정보가 원문과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6051402893985556</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서 자기소개서는 필수 항목이 아닙니다. 하지만 일부 대학에서는 자기소개서를 통해 지원자의 성격, 열정, 목표 등을 평가하기 위해 요구할 수 있습니다. 따라서 해당 동의대학교의 공식 입시 안내 사이트 (https://ipsi. deu. ac. kr/main. do)에서 자세한 정보를 확인하시고 필요하다면 자기소개서를 작성해보세요.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 "4.5라는 점수는 상당히 높은 점수입니다"라는 표현은 다소 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가 모집에 대한 정보와 관련된 요인들을 잘 설명하고 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일치도가 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 수능 점수와 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 약간의 흐름이 끊길 수 있는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가 모집에 대한 정보도 정확하게 전달하고 있습니다. 그러나 "4.5라는 점수는 상당히 높은 점수입니다"라는 주관적인 표현이 정확성에 약간의 영향을 미칠 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 기록하고 있습니다. 그러나 일부 주관적인 표현이 다소 영향을 미칠 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6104150895502328</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 수 있는지 결정하는 요인들은 여러 가지가 있습니다.
+1. **경쟁률**: 각 모집단위의 경쟁률이 매우 중요합니다. 예를 들어, 경쟁률이 5:1인 곳에서는 4.5라는 점수로 충원 합격을 하기 어렵습니다. 하지만 경쟁률이 낮은 곳에서는 가능성이 있습니다.
+2. **모집 인원과 지원 인원**: 모집 인원이 많고 지원 인원이 적다면 더 높은 확률로 합격할 수 있습니다. 반대로, 모집 인원이 적고 지원 인원이 많은 경우에는 경쟁률이 매우 높아져서 4.5라는 점수로 충원 합격하기 어렵습니다.
+3. **기타 요인**: 학생부 성적, 실기 점수 등 다른 평가 항목도 고려됩니다. 특히 일부 전형에서는 학생부 성적이 중요한 역할을 합니다.
+위의 정보만으로는 정확한 판단이 어려우므로, 각 모집단위의 상세 정보를 확인하시고, 해당 대학의 입학처에 문의하시는 것이 가장 좋습니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.
+만약 추가모집이 열리면, 해당 모집단위의 상세 조건을 확인하시고 지원해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 정시 모집군 변경에 대한 정보를 제공하고 있으며, 최신 정보를 확인해야 한다는 점에서 사실에 기반하고 있습니다. 그러나 구체적인 합격 가능 등급에 대한 정보는 제공하지 않아서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 신소재공학과의 평균 등급보다 높은 성적을 요구하는 점을 언급하고 있습니다. 다만, 정시 모집군 변경에 대한 추가 정보가 포함되어 있어 약간의 일관성 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 신소재공학과의 합격 가능성에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 약간의 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급과 관련된 정보를 정확하게 반영하고 있으며, 정시 모집군 변경 사항도 사실에 기반하고 있습니다. 그러나 구체적인 합격 가능 등급에 대한 정보는 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 정보 누락이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 맥락 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5615842252754963</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 정시 모집군은 변경되었으며, 구체적인 등급 기준을 제공하기 위해서는 최신 정보를 확인해야 합니다. 현재 제공된 정보로는 정확한 합격 가능 등급을 알 수 없습니다.
+추가적으로, 2024학년도 동의대학교의 주요 변경사항 중에서 신소재공학부에 대한 정시 모집군 변경 사항은 다음과 같습니다:
+- 구분: 정시모집군 변경
+- 2023학년도: 신소재공학부 (정시모집군 나)
+- 2024학년도: 신소재공학과 (정시모집군 가)
+따라서, 2024학년도에는 정시 모집군이 '가'로 변경되었습니다. 하지만 이에 따른 합격 가능 등급은 최신 입학 정보를 확인해야 합니다.
+추천되는 방법은 다음과 같습니다:
+1. 동의대학교 입학처 웹사이트를 방문하여 가장 최신의 입학 정보를 확인합니다.
+2. 입학사정관 제도나 정시 모집군별 합격 기준 등급을 확인합니다.
+3. 필요하다면, 동의대학교 입학처에 직접 문의하여 자세한 정보를 얻습니다.
+이러한 절차를 통해 가장 정확하고 최신의 합격 가능 등급을 파악할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 447점이 작년 신소재공학과의 평균 점수보다 "약간 낮아 보인다"고 언급하고 있으나, 실제로는 447점이 378.15점보다 훨씬 높은 점수입니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 신소재공학과의 평균 점수와 관련된 정보와 모순된 내용을 포함하고 있습니다. 447점이 평균 점수보다 낮다고 언급한 부분은 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 정시 모집에 대한 정보와 경쟁률에 대한 내용을 포함하고 있지만, 질문의 핵심인 신소재공학과의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관되지만, 신소재공학과의 평균 점수와 관련된 정보가 잘못되어 있어 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 응답에서 제공된 정보는 사실과 다르며, 447점이 평균 점수보다 낮다고 잘못 언급하고 있습니다. 이로 인해 정확성 점수는 낮게 평가됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮은 편입니다. 사실관계, 일관성, 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 대체로 적절하지만, 잘못된 사실에 기반하여 결론을 내리고 있어 의미적으로 완벽하게 적합하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7062548702840078</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 산업경영빅데이터공학과와 컴퓨터공학과, 소프트웨어공학부 등의 경쟁률이 높아 보입니다. 특히, 지원 인원이 많고 충원 합격자가 적은 경우 경쟁률이 더 높을 수 있습니다.
+현재 제공된 정보를 바탕으로 447점의 표준 점수가 작년 신소재공학과의 최종 평균 점수보다 약간 낮아 보입니다. 하지만, 정시 모집에서의 최종 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **모집 인원 및 지원 인원**: 작년과 동일한 모집 인원이 아니거나 지원 인원이 크게 변동한다면 경쟁률이 달라질 수 있습니다.
+2. **출결 및 참여도**: 서류평가 영역에서의 학업역량, 공동체역량 등에 대한 평가 결과도 중요합니다.
+3. **추천서 및 자기소개서**: 이 부분에서도 개인의 특성과 적합성을 고려하여 점수가 달라질 수 있습니다.
+따라서, 작년 신소재공학과의 최종 평균 점수보다 약간 낮은 447점이 작년에 비해 더 높게 평가될 가능성은 있지만 확실한 것은 아닙니다. 정확한 가능성을 파악하기 위해서는 동의대학교 입학사정관이나 대학 홈페이지에서 제공하는 최신 정보를 참고하시거나, 직접 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 합격 가능성이 높다고 언급하고 있지만, 생성된 응답에서는 4.3 등급대의 성적이 4.1~4.2로 변환될 경우 합격 가능성이 낮다고 잘못 진단하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 성적이 평균보다 높다고 하였으나, 생성된 응답에서는 낮다고 주장하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 정확한 이해를 방해하고 있습니다. 그러나 전반적으로 입학 가능성에 대한 조언을 제공하고 있어 관련성은 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 단계별로 제안하는 방식이 잘 정리되어 있습니다. 그러나 원본과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 성적에 대한 해석이 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 지침을 제공합니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6139176058143104</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 변환될 경우, 신소재공학과 일반학생전형에서 합격 가능성은 낮아 보입니다. 하지만 최종 합격 여부는 여러 요인에 따라 결정되므로 다음과 같은 절차를 따르시는 것이 좋습니다:
+1. **정확한 성적 변환 확인**: 동의대의 정시 성적 변환 기준을 다시 한 번 확인해보세요. 특히, 신소재공학과의 경우 특정 과목의 등급이 중요할 수 있으므로 해당 정보를 꼭 확인하세요.
+2. **예비 합격 가능 여부 확인**: 동의대의 예비 합격자 명단을 확인해보시고, 자신의 성적과 비교해보세요. 이는 실제 합격 가능성에 대한 가늠이 될 수 있습니다.
+3. **추천서 및 자기소개서 작성**: 성적이 조금 낮아도 추천서와 자기소개서를 잘 준비하면 긍정적인 평가를 받을 수 있으므로, 이를 철저히 준비해보세요.
+4. **상담 받기**: 동의대에 직접 상담을 받아보시는 것도 좋은 방법입니다. 전문가의 조언을 듣고, 자신의 입학 가능성을 더 정확하게 파악할 수 있습니다.
+5. **다른 대학도 고려하기**: 신소재공학과에서 합격 가능성은 낮아 보이므로, 다른 대학이나 전형(예: 특기자전형, 사회통합전형 등)을 함께 준비해보시는 것도 좋습니다.
+위와 같은 절차를 통해 최종적인 입학 가능성을 파악하고, 적절한 대비를 할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균"이 403.85로 잘못 기재되어 있으며, "영어 등급 평균"도 4.53로 잘못 기재되었습니다. 원본 텍스트의 평균 점수는 301.87과 4.13입니다. 따라서, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 점수와 등급)를 포함하고 있어 일관성이 부족합니다. 경쟁률과 충원 합격 정보는 일치하지만, 주요 성적 정보가 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 지원 성적에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 주제와 관련이 있습니다. 그러나 잘못된 성적 정보로 인해 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 잘못된 정보로 인해 전체적인 신뢰성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 성적 정보가 원본 텍스트와 크게 다르기 때문에 정확성이 낮습니다. 주요 성적 수치가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다. 관련성은 높지만, 잘못된 정보로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 성적 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.8020755076162626</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과로 지원하실 경우, 수능 최종등록자 기준으로 다음과 같은 성적이 필요합니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균**: 403.85
+- **영어 등급 평균**: 4.53
+이러한 성적을 기반으로 경쟁률은 1.60이며, 충원 합격 (후보순위)은 5입니다.
+따라서, 동의대학교 인공지능학과로 지원하기 위해서는 평균적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 403.85 이상이고, 영어 등급이 4.53 이상이어야 합니다.
+만약 더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi.deu.ac.kr/main.do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 판단하기 어렵다고 언급하고 있으며, 이는 사실과 일치하지만, 원본 텍스트에서 제공된 구체적인 학과와 성적 정보를 무시하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 5.27 성적으로 충원 합격이 가능한 학과를 명시하고 있지만, 생성된 응답은 그러한 정보를 제공하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성에 대한 질문에 답변하고 있으나, 원본 텍스트에서 제공된 구체적인 학과 정보와 성적 기준을 다루지 않아 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 일관된 흐름을 가지고 있으며, 주제에 대한 설명이 잘 연결되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 판단하기 어렵다고 하지만, 원본 텍스트에서 제공된 구체적인 학과 정보를 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 정보의 정확성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 내용을 담고 있습니다. 그러나 원본 텍스트의 구체적인 정보를 반영하지 않아 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5777174737582088</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 현재 제공된 정보를 바탕으로 추합 가능성에 대해 판단하기는 어렵습니다. 왜냐하면, 각 단과대학 및 모집단위별로 정확한 합격 기준 점수와 모집인원이 달라서 정확한 판단을 내리기 위해서는 해당 대학의 정시 모집 정보를 확인해야 합니다.
+특히, 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)에서는 성적 기준이 아닌 학업역량과 전공적합성 등을 중점적으로 평가하기 때문에, 단순히 성적만으로는 판단하기 어렵습니다.
+추천드리면, 해당 대학의 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 방문하여 정시 모집 정보와 합격 기준 점수 등을 확인하시거나, 직접 입학처에 문의하시면 더욱 정확한 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(영어 3.77, 수능 4개 영역 4.49)과는 상반된 결론을 내리고 있습니다. 4.2의 성적이 낮다고 평가하고 있으며, 이는 원본 텍스트의 내용과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 정시 성적 4.2에 대한 해석이 상반됩니다. 원본 텍스트는 4.2가 평균보다 높은 성적이라고 언급하는 반면, 생성된 응답은 낮은 확률로 합격할 것이라고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다소 동떨어진 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 정시 성적 4.2에 대한 해석이 원본과 상반됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6674688998540759</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원자들의 평균 성적과 경쟁률을 고려해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+- **경쟁률**: 4.87
+이러한 정보를 바탕으로, 정시 성적 4.2인 경우 합격 가능성은 낮을 것으로 예상됩니다. 평균 점수가 317.87이고 경쟁률이 4.87이라는 것을 고려하면, 4.2의 성적은 상대적으로 낮은 수준입니다.
+하지만, 합격 가능성은 여러 요소에 따라 달라질 수 있습니다:
+- **개인별 성적 분포**: 지원자의 성적이 평균보다 높게 분포되어 있다면, 4.2의 성적도 충분히 합격할 수 있는 범위일 수 있습니다.
+- **추천서 및 자기소개서 등 서류평가**: 서류평가가 중요한 역할을 하는 경우, 우수한 서류를 제출한다면 합격 가능성은 높아질 수 있습니다.
+- **면접 성적**: 일부 모집단위에서는 면접 점수가 포함되어 평균 점수를 결정하는 경우도 있으므로, 면접에서도 좋은 성적을 받는다면 합격 가능성이 높아질 수 있습니다.
+따라서, 정시 성적 4.2로 소프트웨어공학부에 지원한다면 낮은 확률로 합격할 수 있을 것으로 보이지만, 서류평가와 면접 등 다른 요소를 잘 준비한다면 합격 가능성도 높아질 수 있습니다.
+추가 정보나 자세한 조언을 원하시면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 지원자의 성적을 비교하여 합격 가능성을 언급하고 있습니다. 그러나 "표준 변환 점수 합의 평균이 392.84"라는 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 다소 부정확한 정보로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 표준 변환 점수에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 단순히 정시 등급에 대한 합격 가능성을 언급하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 화학환경공학부 일반학생전형에 대한 정보를 제공하며, 지원자의 성적과 합격 가능성에 대한 질문에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 표준 변환 점수에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보가 정확하지 않을 수 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으나, 일부 정보의 정확성 문제로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6696862117529727</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부 일반학생전형에 대한 정보를 제공하겠습니다.
+화학환경공학부 일반학생전형의 경우, 지원자의 성적과 경쟁률 등을 고려하여 합격 여부가 결정됩니다. 주어진 정보로는 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 392.84이며, 이 값은 경쟁률과 충원 합격 등을 고려할 때 일반적으로 합격 가능성을 높게 보여줍니다.
+주어진 성적인 3.92는 표준 변환 점수로 보이므로, 이 점수가 평균 이상이라면 대체로 경쟁력을 갖추고 있을 것입니다. 하지만 최종 합격 여부는 모집 인원, 지원 인원, 경쟁률 등 여러 요인에 따라 결정되므로, 정확한 결과를 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화 문의 등을 통해 확인하는 것이 좋습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해보시거나, 동의대학교 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주요 사실을 일부 반영하고 있지만, "4.25라는 경쟁률"이라는 표현은 잘못된 정보입니다. 원본 텍스트는 성적에 대한 평가를 제공하고 있으며, 경쟁률에 대한 언급은 없습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 성적에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 경쟁률과 모집 인원, 지원 인원 등 다른 요소를 강조하고 있습니다. 이로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보인 성적에 대한 평가를 간과하고 있습니다. 그러나 여전히 관련된 요소들을 언급하고 있으므로 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 주제와 연결되지 않은 정보가 포함되어 있어 일관된 구조를 유지하지 못하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 경쟁률에 대한 언급은 정확하지 않습니다. 원본 텍스트의 성적 평가와 관련된 정보가 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성, 일관성, 정확성에서 부족함이 있지만, 관련성과 유창성은 양호합니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지 않으며, 특히 경쟁률에 대한 언급이 부적절합니다. 따라서 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 질문과 답변 형식을 유지하고 있습니다. 그러나 일부 정보가 혼란을 줄 수 있으므로 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6036859512150371</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 경쟁률은 상당히 높은 수준입니다. 하지만 정확한 합격 여부를 판단하기 위해서는 여러 요소들을 고려해야 합니다.
+1. **모집 인원과 지원 인원**: 동의대학교 화학환경공학부에서 모집 인원이 얼마나 되며, 지원 인원은 몇 명인가요? 이 정보가 필요합니다.
+2. **성적 평균 및 표준 편차**: 해당 학과의 수능 성적 평균과 표준 편차를 확인해야 합니다. 평균이 높고 표준 편차가 낮다면 경쟁률이 더 높아질 수 있습니다.
+3. **경쟁률**: 동의대학교 화학환경공학부의 최종 경쟁률을 확인해 보세요. 이 정보는 합격 가능성에 큰 영향을 미칩니다.
+위와 같은 요소들을 고려하여 판단해야 합니다. 만약 위 정보를 제공받지 못했다면, 해당 대학의 공식 웹사이트나 입학처에 문의하시는 것이 좋습니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻을 수 있습니다.
+만약 위 정보가 모두 제공되었다면, 해당 학과의 평균 성적과 표준 편차를 비교하여 합격 가능성 여부를 판단할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.2라는 점수가 평균보다 높다는 점을 언급하고 있으며, 영화학과의 경쟁률과 지원 인원, 모집 인원에 대한 정보도 포함되어 있습니다. 그러나 경쟁률과 지원 인원, 모집 인원에 대한 구체적인 수치가 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 합격 가능성을 논의하고 있습니다. 그러나 경쟁률과 지원 인원, 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 지원자의 점수와 합격 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 경쟁률과 지원 인원, 모집 인원에 대한 정보가 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 일부 정보의 출처가 불명확하여 다소 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6136148734537831</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 표준 변환 점수의 평균치와 비교해보면 상대적으로 높은 점수입니다. 하지만, 영화학과의 경우 경쟁률이 2.20이며, 지원 인원이 11명이고 모집인원이 5명이라는 점을 고려하면, 합격 가능성은 높습니다.
+영화학과의 충원 합격 (후보순위)은 6명으로, 평균 표준 변환 점수는 404.43이고, 표준 편차는 27.09입니다. 지원자의 점수가 4.2로 평균치보다 높으므로, 합격 가능성은 상대적으로 높습니다.
+하지만, 정확한 합격 여부는 최종 합격선이 발표될 때까지 알 수 없습니다. 따라서, 최종 합격선을 기다리시거나, 대학에 문의하시면 더 정확한 정보를 얻으실 수 있습니다.
+https://ipsi.deu.ac.kr/main.do 에서도 관련 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 모든 단계가 누락 없이 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9396683565809596</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+① 대기실 입실
+② 신분 확인
+③ 고사장 앞 이동
+④ 고사장 입실
+⑤ 지원동기 및 학업계획 발표
+⑥ 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+⑦ 기타 질의응답(제출서류 진위 여부 등)
+⑧ 퇴실
+이 절차를 따르며 면접을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
